--- a/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document_B10101P_Client_Search_Response_Message_(JSON).xlsx
+++ b/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document_B10101P_Client_Search_Response_Message_(JSON).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C05E883-2F26-4AEB-B27E-D1EDA1D045CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7591B9-3FC8-4A75-BBE2-054D026158E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="6990" windowWidth="24675" windowHeight="6930" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" state="hidden" r:id="rId1"/>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>[client]</t>
-  </si>
-  <si>
-    <t>0. *</t>
   </si>
   <si>
     <t>Client ID</t>
@@ -723,6 +720,10 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>0..*</t>
+    <phoneticPr fontId="12"/>
   </si>
 </sst>
 </file>
@@ -1525,7 +1526,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="485">
+  <cellXfs count="487">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2191,6 +2192,135 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2230,134 +2360,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2377,77 +2450,128 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2458,128 +2582,227 @@
     <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2608,15 +2831,6 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2629,220 +2843,16 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2854,14 +2864,35 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2872,12 +2903,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2893,29 +2918,11 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3066,8 +3073,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7762875" y="390525"/>
-          <a:ext cx="1619250" cy="581025"/>
+          <a:off x="8305800" y="386715"/>
+          <a:ext cx="1727835" cy="565785"/>
           <a:chOff x="809" y="41"/>
           <a:chExt cx="143" cy="61"/>
         </a:xfrm>
@@ -3344,9 +3351,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:colOff>60960</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -3430,15 +3437,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
+          <xdr:colOff>106680</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3516,13 +3523,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>160020</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>34</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3602,9 +3609,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
@@ -3688,15 +3695,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3774,15 +3781,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>160020</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>29</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:colOff>213360</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3860,15 +3867,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>22</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>68580</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3954,7 +3961,7 @@
           <xdr:col>26</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4032,15 +4039,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>29</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:colOff>220980</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4120,7 +4127,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
@@ -4204,13 +4211,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -4290,13 +4297,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:colOff>60960</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -4376,15 +4383,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>30480</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4462,15 +4469,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
+          <xdr:colOff>236220</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4548,9 +4555,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>19</xdr:col>
@@ -4634,7 +4641,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4720,7 +4727,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4808,7 +4815,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
@@ -4894,11 +4901,11 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
+          <xdr:colOff>236220</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -4978,15 +4985,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>22</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>68580</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5072,7 +5079,7 @@
           <xdr:col>26</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5150,7 +5157,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>160020</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
@@ -5236,7 +5243,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>30480</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
@@ -6058,12 +6065,12 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="S1" s="32"/>
@@ -6078,25 +6085,25 @@
     <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -6115,7 +6122,7 @@
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
     </row>
-    <row r="23" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:19" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -6126,7 +6133,7 @@
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -6146,7 +6153,7 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -6158,7 +6165,7 @@
       <c r="K25" s="242"/>
       <c r="L25" s="33"/>
     </row>
-    <row r="26" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -6167,7 +6174,7 @@
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
     </row>
-    <row r="27" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="7"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -6176,7 +6183,7 @@
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
     </row>
-    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="33"/>
@@ -6184,7 +6191,7 @@
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
     </row>
-    <row r="29" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="6"/>
       <c r="G29" s="8"/>
       <c r="H29" s="6"/>
@@ -6193,7 +6200,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
     </row>
-    <row r="30" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="6"/>
       <c r="G30" s="8"/>
       <c r="H30" s="6"/>
@@ -6202,7 +6209,7 @@
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="6"/>
       <c r="G31" s="8"/>
       <c r="H31" s="6"/>
@@ -6211,7 +6218,7 @@
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="33"/>
@@ -6226,7 +6233,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="33"/>
@@ -6240,7 +6247,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I34" s="33"/>
       <c r="J34" s="35"/>
       <c r="K34" s="33"/>
@@ -6250,509 +6257,509 @@
       <c r="R34" s="55"/>
       <c r="S34" s="55"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P35" s="11"/>
       <c r="Q35" s="55"/>
       <c r="R35" s="55"/>
       <c r="S35" s="55"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P36" s="11"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="55"/>
       <c r="S36" s="53"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P37" s="11"/>
       <c r="Q37" s="56"/>
       <c r="R37" s="56"/>
       <c r="S37" s="56"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P38" s="11"/>
       <c r="Q38" s="56"/>
       <c r="R38" s="56"/>
       <c r="S38" s="56"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P39" s="11"/>
       <c r="Q39" s="56"/>
       <c r="R39" s="56"/>
       <c r="S39" s="56"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -6776,165 +6783,165 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="19" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="31" customWidth="1"/>
-    <col min="18" max="34" width="4.83203125" style="19" customWidth="1"/>
-    <col min="35" max="35" width="4.83203125" style="31" customWidth="1"/>
-    <col min="36" max="16384" width="4.83203125" style="19"/>
+    <col min="1" max="16" width="4.875" style="19" customWidth="1"/>
+    <col min="17" max="17" width="4.875" style="31" customWidth="1"/>
+    <col min="18" max="34" width="4.875" style="19" customWidth="1"/>
+    <col min="35" max="35" width="4.875" style="31" customWidth="1"/>
+    <col min="36" max="16384" width="4.875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="258" t="s">
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
-      <c r="M1" s="256"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="246" t="s">
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="289" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="247"/>
-      <c r="Q1" s="247"/>
-      <c r="R1" s="248"/>
-      <c r="S1" s="290" t="s">
+      <c r="P1" s="290"/>
+      <c r="Q1" s="290"/>
+      <c r="R1" s="291"/>
+      <c r="S1" s="255" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="291"/>
-      <c r="U1" s="291"/>
-      <c r="V1" s="291"/>
-      <c r="W1" s="291"/>
-      <c r="X1" s="291"/>
-      <c r="Y1" s="291"/>
-      <c r="Z1" s="292"/>
-      <c r="AA1" s="243" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="245"/>
-      <c r="AC1" s="281" t="str">
+      <c r="AB1" s="288"/>
+      <c r="AC1" s="243" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="283"/>
-      <c r="AG1" s="284">
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="246">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="285"/>
-      <c r="AI1" s="286"/>
+      <c r="AH1" s="247"/>
+      <c r="AI1" s="248"/>
       <c r="AK1" s="25"/>
       <c r="AL1" s="25"/>
       <c r="AM1" s="25"/>
       <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="286" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="258" t="s">
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="249" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="257"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="250"/>
-      <c r="Q2" s="250"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="293"/>
-      <c r="T2" s="294"/>
-      <c r="U2" s="294"/>
-      <c r="V2" s="294"/>
-      <c r="W2" s="294"/>
-      <c r="X2" s="294"/>
-      <c r="Y2" s="294"/>
-      <c r="Z2" s="295"/>
-      <c r="AA2" s="243" t="s">
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="292"/>
+      <c r="P2" s="293"/>
+      <c r="Q2" s="293"/>
+      <c r="R2" s="294"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="286" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="245"/>
-      <c r="AC2" s="287" t="str">
+      <c r="AB2" s="288"/>
+      <c r="AC2" s="252" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="288"/>
-      <c r="AE2" s="288"/>
-      <c r="AF2" s="289"/>
-      <c r="AG2" s="284" t="str">
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="254"/>
+      <c r="AG2" s="246" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="285"/>
-      <c r="AI2" s="286"/>
+      <c r="AH2" s="247"/>
+      <c r="AI2" s="248"/>
       <c r="AK2" s="25"/>
       <c r="AL2" s="25"/>
       <c r="AM2" s="25"/>
       <c r="AN2" s="25"/>
     </row>
     <row r="3" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="286" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="255" t="s">
+      <c r="B3" s="287"/>
+      <c r="C3" s="287"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="298" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="252"/>
-      <c r="P3" s="253"/>
-      <c r="Q3" s="253"/>
-      <c r="R3" s="254"/>
-      <c r="S3" s="296"/>
-      <c r="T3" s="297"/>
-      <c r="U3" s="297"/>
-      <c r="V3" s="297"/>
-      <c r="W3" s="297"/>
-      <c r="X3" s="297"/>
-      <c r="Y3" s="297"/>
-      <c r="Z3" s="298"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="245"/>
-      <c r="AC3" s="281"/>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="283"/>
-      <c r="AG3" s="284"/>
-      <c r="AH3" s="285"/>
-      <c r="AI3" s="286"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="295"/>
+      <c r="P3" s="296"/>
+      <c r="Q3" s="296"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="286"/>
+      <c r="AB3" s="288"/>
+      <c r="AC3" s="243"/>
+      <c r="AD3" s="244"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="245"/>
+      <c r="AG3" s="246"/>
+      <c r="AH3" s="247"/>
+      <c r="AI3" s="248"/>
       <c r="AK3" s="25"/>
       <c r="AL3" s="25"/>
       <c r="AM3" s="25"/>
@@ -6981,98 +6988,98 @@
       <c r="A7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="268" t="s">
+      <c r="B7" s="264" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="270"/>
-      <c r="D7" s="268" t="s">
+      <c r="C7" s="266"/>
+      <c r="D7" s="264" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="269"/>
-      <c r="F7" s="270"/>
-      <c r="G7" s="268" t="s">
+      <c r="E7" s="265"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="264" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="269"/>
-      <c r="I7" s="270"/>
-      <c r="J7" s="280" t="s">
+      <c r="H7" s="265"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="285" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="269"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="269"/>
-      <c r="N7" s="269"/>
-      <c r="O7" s="269"/>
-      <c r="P7" s="270"/>
-      <c r="Q7" s="268" t="s">
+      <c r="K7" s="265"/>
+      <c r="L7" s="265"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="265"/>
+      <c r="O7" s="265"/>
+      <c r="P7" s="266"/>
+      <c r="Q7" s="264" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="269"/>
-      <c r="S7" s="269"/>
-      <c r="T7" s="269"/>
-      <c r="U7" s="269"/>
-      <c r="V7" s="269"/>
-      <c r="W7" s="269"/>
-      <c r="X7" s="269"/>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="269"/>
-      <c r="AA7" s="269"/>
-      <c r="AB7" s="269"/>
-      <c r="AC7" s="269"/>
-      <c r="AD7" s="269"/>
-      <c r="AE7" s="270"/>
-      <c r="AF7" s="268" t="s">
+      <c r="R7" s="265"/>
+      <c r="S7" s="265"/>
+      <c r="T7" s="265"/>
+      <c r="U7" s="265"/>
+      <c r="V7" s="265"/>
+      <c r="W7" s="265"/>
+      <c r="X7" s="265"/>
+      <c r="Y7" s="265"/>
+      <c r="Z7" s="265"/>
+      <c r="AA7" s="265"/>
+      <c r="AB7" s="265"/>
+      <c r="AC7" s="265"/>
+      <c r="AD7" s="265"/>
+      <c r="AE7" s="266"/>
+      <c r="AF7" s="264" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="269"/>
-      <c r="AH7" s="269"/>
-      <c r="AI7" s="270"/>
+      <c r="AG7" s="265"/>
+      <c r="AH7" s="265"/>
+      <c r="AI7" s="266"/>
       <c r="AJ7" s="18"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="57">
         <v>1</v>
       </c>
-      <c r="B8" s="271" t="s">
+      <c r="B8" s="276" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="272"/>
-      <c r="D8" s="273">
+      <c r="C8" s="277"/>
+      <c r="D8" s="278">
         <v>43718</v>
       </c>
-      <c r="E8" s="274"/>
-      <c r="F8" s="275"/>
-      <c r="G8" s="271" t="s">
+      <c r="E8" s="279"/>
+      <c r="F8" s="280"/>
+      <c r="G8" s="276" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="276"/>
-      <c r="I8" s="272"/>
-      <c r="J8" s="277" t="s">
+      <c r="H8" s="281"/>
+      <c r="I8" s="277"/>
+      <c r="J8" s="282" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="278"/>
-      <c r="L8" s="278"/>
-      <c r="M8" s="278"/>
-      <c r="N8" s="278"/>
-      <c r="O8" s="278"/>
-      <c r="P8" s="279"/>
-      <c r="Q8" s="277" t="s">
+      <c r="K8" s="283"/>
+      <c r="L8" s="283"/>
+      <c r="M8" s="283"/>
+      <c r="N8" s="283"/>
+      <c r="O8" s="283"/>
+      <c r="P8" s="284"/>
+      <c r="Q8" s="282" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="278"/>
-      <c r="S8" s="278"/>
-      <c r="T8" s="278"/>
-      <c r="U8" s="278"/>
-      <c r="V8" s="278"/>
-      <c r="W8" s="278"/>
-      <c r="X8" s="278"/>
-      <c r="Y8" s="278"/>
-      <c r="Z8" s="278"/>
-      <c r="AA8" s="278"/>
-      <c r="AB8" s="278"/>
-      <c r="AC8" s="278"/>
-      <c r="AD8" s="278"/>
-      <c r="AE8" s="279"/>
+      <c r="R8" s="283"/>
+      <c r="S8" s="283"/>
+      <c r="T8" s="283"/>
+      <c r="U8" s="283"/>
+      <c r="V8" s="283"/>
+      <c r="W8" s="283"/>
+      <c r="X8" s="283"/>
+      <c r="Y8" s="283"/>
+      <c r="Z8" s="283"/>
+      <c r="AA8" s="283"/>
+      <c r="AB8" s="283"/>
+      <c r="AC8" s="283"/>
+      <c r="AD8" s="283"/>
+      <c r="AE8" s="284"/>
       <c r="AF8" s="49" t="s">
         <v>47</v>
       </c>
@@ -7083,36 +7090,36 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="58"/>
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="261"/>
-      <c r="E9" s="262"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="259"/>
-      <c r="H9" s="264"/>
-      <c r="I9" s="260"/>
-      <c r="J9" s="265"/>
-      <c r="K9" s="266"/>
-      <c r="L9" s="266"/>
-      <c r="M9" s="266"/>
-      <c r="N9" s="266"/>
-      <c r="O9" s="266"/>
-      <c r="P9" s="267"/>
-      <c r="Q9" s="265"/>
-      <c r="R9" s="266"/>
-      <c r="S9" s="266"/>
-      <c r="T9" s="266"/>
-      <c r="U9" s="266"/>
-      <c r="V9" s="266"/>
-      <c r="W9" s="266"/>
-      <c r="X9" s="266"/>
-      <c r="Y9" s="266"/>
-      <c r="Z9" s="266"/>
-      <c r="AA9" s="266"/>
-      <c r="AB9" s="266"/>
-      <c r="AC9" s="266"/>
-      <c r="AD9" s="266"/>
-      <c r="AE9" s="267"/>
+      <c r="B9" s="267"/>
+      <c r="C9" s="268"/>
+      <c r="D9" s="269"/>
+      <c r="E9" s="270"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="267"/>
+      <c r="H9" s="272"/>
+      <c r="I9" s="268"/>
+      <c r="J9" s="273"/>
+      <c r="K9" s="274"/>
+      <c r="L9" s="274"/>
+      <c r="M9" s="274"/>
+      <c r="N9" s="274"/>
+      <c r="O9" s="274"/>
+      <c r="P9" s="275"/>
+      <c r="Q9" s="273"/>
+      <c r="R9" s="274"/>
+      <c r="S9" s="274"/>
+      <c r="T9" s="274"/>
+      <c r="U9" s="274"/>
+      <c r="V9" s="274"/>
+      <c r="W9" s="274"/>
+      <c r="X9" s="274"/>
+      <c r="Y9" s="274"/>
+      <c r="Z9" s="274"/>
+      <c r="AA9" s="274"/>
+      <c r="AB9" s="274"/>
+      <c r="AC9" s="274"/>
+      <c r="AD9" s="274"/>
+      <c r="AE9" s="275"/>
       <c r="AF9" s="21"/>
       <c r="AG9" s="47"/>
       <c r="AH9" s="47"/>
@@ -7121,36 +7128,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="58"/>
-      <c r="B10" s="259"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="261"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="259"/>
-      <c r="H10" s="264"/>
-      <c r="I10" s="260"/>
-      <c r="J10" s="265"/>
-      <c r="K10" s="266"/>
-      <c r="L10" s="266"/>
-      <c r="M10" s="266"/>
-      <c r="N10" s="266"/>
-      <c r="O10" s="266"/>
-      <c r="P10" s="267"/>
-      <c r="Q10" s="265"/>
-      <c r="R10" s="266"/>
-      <c r="S10" s="266"/>
-      <c r="T10" s="266"/>
-      <c r="U10" s="266"/>
-      <c r="V10" s="266"/>
-      <c r="W10" s="266"/>
-      <c r="X10" s="266"/>
-      <c r="Y10" s="266"/>
-      <c r="Z10" s="266"/>
-      <c r="AA10" s="266"/>
-      <c r="AB10" s="266"/>
-      <c r="AC10" s="266"/>
-      <c r="AD10" s="266"/>
-      <c r="AE10" s="267"/>
+      <c r="B10" s="267"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="270"/>
+      <c r="F10" s="271"/>
+      <c r="G10" s="267"/>
+      <c r="H10" s="272"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="273"/>
+      <c r="K10" s="274"/>
+      <c r="L10" s="274"/>
+      <c r="M10" s="274"/>
+      <c r="N10" s="274"/>
+      <c r="O10" s="274"/>
+      <c r="P10" s="275"/>
+      <c r="Q10" s="273"/>
+      <c r="R10" s="274"/>
+      <c r="S10" s="274"/>
+      <c r="T10" s="274"/>
+      <c r="U10" s="274"/>
+      <c r="V10" s="274"/>
+      <c r="W10" s="274"/>
+      <c r="X10" s="274"/>
+      <c r="Y10" s="274"/>
+      <c r="Z10" s="274"/>
+      <c r="AA10" s="274"/>
+      <c r="AB10" s="274"/>
+      <c r="AC10" s="274"/>
+      <c r="AD10" s="274"/>
+      <c r="AE10" s="275"/>
       <c r="AF10" s="21"/>
       <c r="AG10" s="47"/>
       <c r="AH10" s="47"/>
@@ -7158,36 +7165,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="58"/>
-      <c r="B11" s="259"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="262"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="264"/>
-      <c r="I11" s="260"/>
-      <c r="J11" s="265"/>
-      <c r="K11" s="266"/>
-      <c r="L11" s="266"/>
-      <c r="M11" s="266"/>
-      <c r="N11" s="266"/>
-      <c r="O11" s="266"/>
-      <c r="P11" s="267"/>
-      <c r="Q11" s="265"/>
-      <c r="R11" s="266"/>
-      <c r="S11" s="266"/>
-      <c r="T11" s="266"/>
-      <c r="U11" s="266"/>
-      <c r="V11" s="266"/>
-      <c r="W11" s="266"/>
-      <c r="X11" s="266"/>
-      <c r="Y11" s="266"/>
-      <c r="Z11" s="266"/>
-      <c r="AA11" s="266"/>
-      <c r="AB11" s="266"/>
-      <c r="AC11" s="266"/>
-      <c r="AD11" s="266"/>
-      <c r="AE11" s="267"/>
+      <c r="B11" s="267"/>
+      <c r="C11" s="268"/>
+      <c r="D11" s="269"/>
+      <c r="E11" s="270"/>
+      <c r="F11" s="271"/>
+      <c r="G11" s="267"/>
+      <c r="H11" s="272"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="273"/>
+      <c r="K11" s="274"/>
+      <c r="L11" s="274"/>
+      <c r="M11" s="274"/>
+      <c r="N11" s="274"/>
+      <c r="O11" s="274"/>
+      <c r="P11" s="275"/>
+      <c r="Q11" s="273"/>
+      <c r="R11" s="274"/>
+      <c r="S11" s="274"/>
+      <c r="T11" s="274"/>
+      <c r="U11" s="274"/>
+      <c r="V11" s="274"/>
+      <c r="W11" s="274"/>
+      <c r="X11" s="274"/>
+      <c r="Y11" s="274"/>
+      <c r="Z11" s="274"/>
+      <c r="AA11" s="274"/>
+      <c r="AB11" s="274"/>
+      <c r="AC11" s="274"/>
+      <c r="AD11" s="274"/>
+      <c r="AE11" s="275"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="47"/>
       <c r="AH11" s="47"/>
@@ -7195,36 +7202,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="58"/>
-      <c r="B12" s="259"/>
-      <c r="C12" s="260"/>
-      <c r="D12" s="261"/>
-      <c r="E12" s="262"/>
-      <c r="F12" s="263"/>
-      <c r="G12" s="259"/>
-      <c r="H12" s="264"/>
-      <c r="I12" s="260"/>
-      <c r="J12" s="265"/>
-      <c r="K12" s="266"/>
-      <c r="L12" s="266"/>
-      <c r="M12" s="266"/>
-      <c r="N12" s="266"/>
-      <c r="O12" s="266"/>
-      <c r="P12" s="267"/>
-      <c r="Q12" s="265"/>
-      <c r="R12" s="266"/>
-      <c r="S12" s="266"/>
-      <c r="T12" s="266"/>
-      <c r="U12" s="266"/>
-      <c r="V12" s="266"/>
-      <c r="W12" s="266"/>
-      <c r="X12" s="266"/>
-      <c r="Y12" s="266"/>
-      <c r="Z12" s="266"/>
-      <c r="AA12" s="266"/>
-      <c r="AB12" s="266"/>
-      <c r="AC12" s="266"/>
-      <c r="AD12" s="266"/>
-      <c r="AE12" s="267"/>
+      <c r="B12" s="267"/>
+      <c r="C12" s="268"/>
+      <c r="D12" s="269"/>
+      <c r="E12" s="270"/>
+      <c r="F12" s="271"/>
+      <c r="G12" s="267"/>
+      <c r="H12" s="272"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="273"/>
+      <c r="K12" s="274"/>
+      <c r="L12" s="274"/>
+      <c r="M12" s="274"/>
+      <c r="N12" s="274"/>
+      <c r="O12" s="274"/>
+      <c r="P12" s="275"/>
+      <c r="Q12" s="273"/>
+      <c r="R12" s="274"/>
+      <c r="S12" s="274"/>
+      <c r="T12" s="274"/>
+      <c r="U12" s="274"/>
+      <c r="V12" s="274"/>
+      <c r="W12" s="274"/>
+      <c r="X12" s="274"/>
+      <c r="Y12" s="274"/>
+      <c r="Z12" s="274"/>
+      <c r="AA12" s="274"/>
+      <c r="AB12" s="274"/>
+      <c r="AC12" s="274"/>
+      <c r="AD12" s="274"/>
+      <c r="AE12" s="275"/>
       <c r="AF12" s="21"/>
       <c r="AG12" s="47"/>
       <c r="AH12" s="47"/>
@@ -7232,36 +7239,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="58"/>
-      <c r="B13" s="259"/>
-      <c r="C13" s="260"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="262"/>
-      <c r="F13" s="263"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="264"/>
-      <c r="I13" s="260"/>
-      <c r="J13" s="265"/>
-      <c r="K13" s="266"/>
-      <c r="L13" s="266"/>
-      <c r="M13" s="266"/>
-      <c r="N13" s="266"/>
-      <c r="O13" s="266"/>
-      <c r="P13" s="267"/>
-      <c r="Q13" s="265"/>
-      <c r="R13" s="266"/>
-      <c r="S13" s="266"/>
-      <c r="T13" s="266"/>
-      <c r="U13" s="266"/>
-      <c r="V13" s="266"/>
-      <c r="W13" s="266"/>
-      <c r="X13" s="266"/>
-      <c r="Y13" s="266"/>
-      <c r="Z13" s="266"/>
-      <c r="AA13" s="266"/>
-      <c r="AB13" s="266"/>
-      <c r="AC13" s="266"/>
-      <c r="AD13" s="266"/>
-      <c r="AE13" s="267"/>
+      <c r="B13" s="267"/>
+      <c r="C13" s="268"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="270"/>
+      <c r="F13" s="271"/>
+      <c r="G13" s="267"/>
+      <c r="H13" s="272"/>
+      <c r="I13" s="268"/>
+      <c r="J13" s="273"/>
+      <c r="K13" s="274"/>
+      <c r="L13" s="274"/>
+      <c r="M13" s="274"/>
+      <c r="N13" s="274"/>
+      <c r="O13" s="274"/>
+      <c r="P13" s="275"/>
+      <c r="Q13" s="273"/>
+      <c r="R13" s="274"/>
+      <c r="S13" s="274"/>
+      <c r="T13" s="274"/>
+      <c r="U13" s="274"/>
+      <c r="V13" s="274"/>
+      <c r="W13" s="274"/>
+      <c r="X13" s="274"/>
+      <c r="Y13" s="274"/>
+      <c r="Z13" s="274"/>
+      <c r="AA13" s="274"/>
+      <c r="AB13" s="274"/>
+      <c r="AC13" s="274"/>
+      <c r="AD13" s="274"/>
+      <c r="AE13" s="275"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="47"/>
       <c r="AH13" s="47"/>
@@ -8009,14 +8016,35 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
@@ -8033,35 +8061,14 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -8081,298 +8088,298 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="119" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="226" customWidth="1"/>
-    <col min="18" max="33" width="4.83203125" style="119" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="226" customWidth="1"/>
-    <col min="35" max="256" width="4.83203125" style="119"/>
-    <col min="257" max="290" width="4.83203125" style="119" customWidth="1"/>
-    <col min="291" max="512" width="4.83203125" style="119"/>
-    <col min="513" max="546" width="4.83203125" style="119" customWidth="1"/>
-    <col min="547" max="768" width="4.83203125" style="119"/>
-    <col min="769" max="802" width="4.83203125" style="119" customWidth="1"/>
-    <col min="803" max="1024" width="4.83203125" style="119"/>
-    <col min="1025" max="1058" width="4.83203125" style="119" customWidth="1"/>
-    <col min="1059" max="1280" width="4.83203125" style="119"/>
-    <col min="1281" max="1314" width="4.83203125" style="119" customWidth="1"/>
-    <col min="1315" max="1536" width="4.83203125" style="119"/>
-    <col min="1537" max="1570" width="4.83203125" style="119" customWidth="1"/>
-    <col min="1571" max="1792" width="4.83203125" style="119"/>
-    <col min="1793" max="1826" width="4.83203125" style="119" customWidth="1"/>
-    <col min="1827" max="2048" width="4.83203125" style="119"/>
-    <col min="2049" max="2082" width="4.83203125" style="119" customWidth="1"/>
-    <col min="2083" max="2304" width="4.83203125" style="119"/>
-    <col min="2305" max="2338" width="4.83203125" style="119" customWidth="1"/>
-    <col min="2339" max="2560" width="4.83203125" style="119"/>
-    <col min="2561" max="2594" width="4.83203125" style="119" customWidth="1"/>
-    <col min="2595" max="2816" width="4.83203125" style="119"/>
-    <col min="2817" max="2850" width="4.83203125" style="119" customWidth="1"/>
-    <col min="2851" max="3072" width="4.83203125" style="119"/>
-    <col min="3073" max="3106" width="4.83203125" style="119" customWidth="1"/>
-    <col min="3107" max="3328" width="4.83203125" style="119"/>
-    <col min="3329" max="3362" width="4.83203125" style="119" customWidth="1"/>
-    <col min="3363" max="3584" width="4.83203125" style="119"/>
-    <col min="3585" max="3618" width="4.83203125" style="119" customWidth="1"/>
-    <col min="3619" max="3840" width="4.83203125" style="119"/>
-    <col min="3841" max="3874" width="4.83203125" style="119" customWidth="1"/>
-    <col min="3875" max="4096" width="4.83203125" style="119"/>
-    <col min="4097" max="4130" width="4.83203125" style="119" customWidth="1"/>
-    <col min="4131" max="4352" width="4.83203125" style="119"/>
-    <col min="4353" max="4386" width="4.83203125" style="119" customWidth="1"/>
-    <col min="4387" max="4608" width="4.83203125" style="119"/>
-    <col min="4609" max="4642" width="4.83203125" style="119" customWidth="1"/>
-    <col min="4643" max="4864" width="4.83203125" style="119"/>
-    <col min="4865" max="4898" width="4.83203125" style="119" customWidth="1"/>
-    <col min="4899" max="5120" width="4.83203125" style="119"/>
-    <col min="5121" max="5154" width="4.83203125" style="119" customWidth="1"/>
-    <col min="5155" max="5376" width="4.83203125" style="119"/>
-    <col min="5377" max="5410" width="4.83203125" style="119" customWidth="1"/>
-    <col min="5411" max="5632" width="4.83203125" style="119"/>
-    <col min="5633" max="5666" width="4.83203125" style="119" customWidth="1"/>
-    <col min="5667" max="5888" width="4.83203125" style="119"/>
-    <col min="5889" max="5922" width="4.83203125" style="119" customWidth="1"/>
-    <col min="5923" max="6144" width="4.83203125" style="119"/>
-    <col min="6145" max="6178" width="4.83203125" style="119" customWidth="1"/>
-    <col min="6179" max="6400" width="4.83203125" style="119"/>
-    <col min="6401" max="6434" width="4.83203125" style="119" customWidth="1"/>
-    <col min="6435" max="6656" width="4.83203125" style="119"/>
-    <col min="6657" max="6690" width="4.83203125" style="119" customWidth="1"/>
-    <col min="6691" max="6912" width="4.83203125" style="119"/>
-    <col min="6913" max="6946" width="4.83203125" style="119" customWidth="1"/>
-    <col min="6947" max="7168" width="4.83203125" style="119"/>
-    <col min="7169" max="7202" width="4.83203125" style="119" customWidth="1"/>
-    <col min="7203" max="7424" width="4.83203125" style="119"/>
-    <col min="7425" max="7458" width="4.83203125" style="119" customWidth="1"/>
-    <col min="7459" max="7680" width="4.83203125" style="119"/>
-    <col min="7681" max="7714" width="4.83203125" style="119" customWidth="1"/>
-    <col min="7715" max="7936" width="4.83203125" style="119"/>
-    <col min="7937" max="7970" width="4.83203125" style="119" customWidth="1"/>
-    <col min="7971" max="8192" width="4.83203125" style="119"/>
-    <col min="8193" max="8226" width="4.83203125" style="119" customWidth="1"/>
-    <col min="8227" max="8448" width="4.83203125" style="119"/>
-    <col min="8449" max="8482" width="4.83203125" style="119" customWidth="1"/>
-    <col min="8483" max="8704" width="4.83203125" style="119"/>
-    <col min="8705" max="8738" width="4.83203125" style="119" customWidth="1"/>
-    <col min="8739" max="8960" width="4.83203125" style="119"/>
-    <col min="8961" max="8994" width="4.83203125" style="119" customWidth="1"/>
-    <col min="8995" max="9216" width="4.83203125" style="119"/>
-    <col min="9217" max="9250" width="4.83203125" style="119" customWidth="1"/>
-    <col min="9251" max="9472" width="4.83203125" style="119"/>
-    <col min="9473" max="9506" width="4.83203125" style="119" customWidth="1"/>
-    <col min="9507" max="9728" width="4.83203125" style="119"/>
-    <col min="9729" max="9762" width="4.83203125" style="119" customWidth="1"/>
-    <col min="9763" max="9984" width="4.83203125" style="119"/>
-    <col min="9985" max="10018" width="4.83203125" style="119" customWidth="1"/>
-    <col min="10019" max="10240" width="4.83203125" style="119"/>
-    <col min="10241" max="10274" width="4.83203125" style="119" customWidth="1"/>
-    <col min="10275" max="10496" width="4.83203125" style="119"/>
-    <col min="10497" max="10530" width="4.83203125" style="119" customWidth="1"/>
-    <col min="10531" max="10752" width="4.83203125" style="119"/>
-    <col min="10753" max="10786" width="4.83203125" style="119" customWidth="1"/>
-    <col min="10787" max="11008" width="4.83203125" style="119"/>
-    <col min="11009" max="11042" width="4.83203125" style="119" customWidth="1"/>
-    <col min="11043" max="11264" width="4.83203125" style="119"/>
-    <col min="11265" max="11298" width="4.83203125" style="119" customWidth="1"/>
-    <col min="11299" max="11520" width="4.83203125" style="119"/>
-    <col min="11521" max="11554" width="4.83203125" style="119" customWidth="1"/>
-    <col min="11555" max="11776" width="4.83203125" style="119"/>
-    <col min="11777" max="11810" width="4.83203125" style="119" customWidth="1"/>
-    <col min="11811" max="12032" width="4.83203125" style="119"/>
-    <col min="12033" max="12066" width="4.83203125" style="119" customWidth="1"/>
-    <col min="12067" max="12288" width="4.83203125" style="119"/>
-    <col min="12289" max="12322" width="4.83203125" style="119" customWidth="1"/>
-    <col min="12323" max="12544" width="4.83203125" style="119"/>
-    <col min="12545" max="12578" width="4.83203125" style="119" customWidth="1"/>
-    <col min="12579" max="12800" width="4.83203125" style="119"/>
-    <col min="12801" max="12834" width="4.83203125" style="119" customWidth="1"/>
-    <col min="12835" max="13056" width="4.83203125" style="119"/>
-    <col min="13057" max="13090" width="4.83203125" style="119" customWidth="1"/>
-    <col min="13091" max="13312" width="4.83203125" style="119"/>
-    <col min="13313" max="13346" width="4.83203125" style="119" customWidth="1"/>
-    <col min="13347" max="13568" width="4.83203125" style="119"/>
-    <col min="13569" max="13602" width="4.83203125" style="119" customWidth="1"/>
-    <col min="13603" max="13824" width="4.83203125" style="119"/>
-    <col min="13825" max="13858" width="4.83203125" style="119" customWidth="1"/>
-    <col min="13859" max="14080" width="4.83203125" style="119"/>
-    <col min="14081" max="14114" width="4.83203125" style="119" customWidth="1"/>
-    <col min="14115" max="14336" width="4.83203125" style="119"/>
-    <col min="14337" max="14370" width="4.83203125" style="119" customWidth="1"/>
-    <col min="14371" max="14592" width="4.83203125" style="119"/>
-    <col min="14593" max="14626" width="4.83203125" style="119" customWidth="1"/>
-    <col min="14627" max="14848" width="4.83203125" style="119"/>
-    <col min="14849" max="14882" width="4.83203125" style="119" customWidth="1"/>
-    <col min="14883" max="15104" width="4.83203125" style="119"/>
-    <col min="15105" max="15138" width="4.83203125" style="119" customWidth="1"/>
-    <col min="15139" max="15360" width="4.83203125" style="119"/>
-    <col min="15361" max="15394" width="4.83203125" style="119" customWidth="1"/>
-    <col min="15395" max="15616" width="4.83203125" style="119"/>
-    <col min="15617" max="15650" width="4.83203125" style="119" customWidth="1"/>
-    <col min="15651" max="15872" width="4.83203125" style="119"/>
-    <col min="15873" max="15906" width="4.83203125" style="119" customWidth="1"/>
-    <col min="15907" max="16128" width="4.83203125" style="119"/>
-    <col min="16129" max="16162" width="4.83203125" style="119" customWidth="1"/>
-    <col min="16163" max="16384" width="4.83203125" style="119"/>
+    <col min="1" max="16" width="4.875" style="119" customWidth="1"/>
+    <col min="17" max="17" width="4.875" style="226" customWidth="1"/>
+    <col min="18" max="33" width="4.875" style="119" customWidth="1"/>
+    <col min="34" max="34" width="4.875" style="226" customWidth="1"/>
+    <col min="35" max="256" width="4.875" style="119"/>
+    <col min="257" max="290" width="4.875" style="119" customWidth="1"/>
+    <col min="291" max="512" width="4.875" style="119"/>
+    <col min="513" max="546" width="4.875" style="119" customWidth="1"/>
+    <col min="547" max="768" width="4.875" style="119"/>
+    <col min="769" max="802" width="4.875" style="119" customWidth="1"/>
+    <col min="803" max="1024" width="4.875" style="119"/>
+    <col min="1025" max="1058" width="4.875" style="119" customWidth="1"/>
+    <col min="1059" max="1280" width="4.875" style="119"/>
+    <col min="1281" max="1314" width="4.875" style="119" customWidth="1"/>
+    <col min="1315" max="1536" width="4.875" style="119"/>
+    <col min="1537" max="1570" width="4.875" style="119" customWidth="1"/>
+    <col min="1571" max="1792" width="4.875" style="119"/>
+    <col min="1793" max="1826" width="4.875" style="119" customWidth="1"/>
+    <col min="1827" max="2048" width="4.875" style="119"/>
+    <col min="2049" max="2082" width="4.875" style="119" customWidth="1"/>
+    <col min="2083" max="2304" width="4.875" style="119"/>
+    <col min="2305" max="2338" width="4.875" style="119" customWidth="1"/>
+    <col min="2339" max="2560" width="4.875" style="119"/>
+    <col min="2561" max="2594" width="4.875" style="119" customWidth="1"/>
+    <col min="2595" max="2816" width="4.875" style="119"/>
+    <col min="2817" max="2850" width="4.875" style="119" customWidth="1"/>
+    <col min="2851" max="3072" width="4.875" style="119"/>
+    <col min="3073" max="3106" width="4.875" style="119" customWidth="1"/>
+    <col min="3107" max="3328" width="4.875" style="119"/>
+    <col min="3329" max="3362" width="4.875" style="119" customWidth="1"/>
+    <col min="3363" max="3584" width="4.875" style="119"/>
+    <col min="3585" max="3618" width="4.875" style="119" customWidth="1"/>
+    <col min="3619" max="3840" width="4.875" style="119"/>
+    <col min="3841" max="3874" width="4.875" style="119" customWidth="1"/>
+    <col min="3875" max="4096" width="4.875" style="119"/>
+    <col min="4097" max="4130" width="4.875" style="119" customWidth="1"/>
+    <col min="4131" max="4352" width="4.875" style="119"/>
+    <col min="4353" max="4386" width="4.875" style="119" customWidth="1"/>
+    <col min="4387" max="4608" width="4.875" style="119"/>
+    <col min="4609" max="4642" width="4.875" style="119" customWidth="1"/>
+    <col min="4643" max="4864" width="4.875" style="119"/>
+    <col min="4865" max="4898" width="4.875" style="119" customWidth="1"/>
+    <col min="4899" max="5120" width="4.875" style="119"/>
+    <col min="5121" max="5154" width="4.875" style="119" customWidth="1"/>
+    <col min="5155" max="5376" width="4.875" style="119"/>
+    <col min="5377" max="5410" width="4.875" style="119" customWidth="1"/>
+    <col min="5411" max="5632" width="4.875" style="119"/>
+    <col min="5633" max="5666" width="4.875" style="119" customWidth="1"/>
+    <col min="5667" max="5888" width="4.875" style="119"/>
+    <col min="5889" max="5922" width="4.875" style="119" customWidth="1"/>
+    <col min="5923" max="6144" width="4.875" style="119"/>
+    <col min="6145" max="6178" width="4.875" style="119" customWidth="1"/>
+    <col min="6179" max="6400" width="4.875" style="119"/>
+    <col min="6401" max="6434" width="4.875" style="119" customWidth="1"/>
+    <col min="6435" max="6656" width="4.875" style="119"/>
+    <col min="6657" max="6690" width="4.875" style="119" customWidth="1"/>
+    <col min="6691" max="6912" width="4.875" style="119"/>
+    <col min="6913" max="6946" width="4.875" style="119" customWidth="1"/>
+    <col min="6947" max="7168" width="4.875" style="119"/>
+    <col min="7169" max="7202" width="4.875" style="119" customWidth="1"/>
+    <col min="7203" max="7424" width="4.875" style="119"/>
+    <col min="7425" max="7458" width="4.875" style="119" customWidth="1"/>
+    <col min="7459" max="7680" width="4.875" style="119"/>
+    <col min="7681" max="7714" width="4.875" style="119" customWidth="1"/>
+    <col min="7715" max="7936" width="4.875" style="119"/>
+    <col min="7937" max="7970" width="4.875" style="119" customWidth="1"/>
+    <col min="7971" max="8192" width="4.875" style="119"/>
+    <col min="8193" max="8226" width="4.875" style="119" customWidth="1"/>
+    <col min="8227" max="8448" width="4.875" style="119"/>
+    <col min="8449" max="8482" width="4.875" style="119" customWidth="1"/>
+    <col min="8483" max="8704" width="4.875" style="119"/>
+    <col min="8705" max="8738" width="4.875" style="119" customWidth="1"/>
+    <col min="8739" max="8960" width="4.875" style="119"/>
+    <col min="8961" max="8994" width="4.875" style="119" customWidth="1"/>
+    <col min="8995" max="9216" width="4.875" style="119"/>
+    <col min="9217" max="9250" width="4.875" style="119" customWidth="1"/>
+    <col min="9251" max="9472" width="4.875" style="119"/>
+    <col min="9473" max="9506" width="4.875" style="119" customWidth="1"/>
+    <col min="9507" max="9728" width="4.875" style="119"/>
+    <col min="9729" max="9762" width="4.875" style="119" customWidth="1"/>
+    <col min="9763" max="9984" width="4.875" style="119"/>
+    <col min="9985" max="10018" width="4.875" style="119" customWidth="1"/>
+    <col min="10019" max="10240" width="4.875" style="119"/>
+    <col min="10241" max="10274" width="4.875" style="119" customWidth="1"/>
+    <col min="10275" max="10496" width="4.875" style="119"/>
+    <col min="10497" max="10530" width="4.875" style="119" customWidth="1"/>
+    <col min="10531" max="10752" width="4.875" style="119"/>
+    <col min="10753" max="10786" width="4.875" style="119" customWidth="1"/>
+    <col min="10787" max="11008" width="4.875" style="119"/>
+    <col min="11009" max="11042" width="4.875" style="119" customWidth="1"/>
+    <col min="11043" max="11264" width="4.875" style="119"/>
+    <col min="11265" max="11298" width="4.875" style="119" customWidth="1"/>
+    <col min="11299" max="11520" width="4.875" style="119"/>
+    <col min="11521" max="11554" width="4.875" style="119" customWidth="1"/>
+    <col min="11555" max="11776" width="4.875" style="119"/>
+    <col min="11777" max="11810" width="4.875" style="119" customWidth="1"/>
+    <col min="11811" max="12032" width="4.875" style="119"/>
+    <col min="12033" max="12066" width="4.875" style="119" customWidth="1"/>
+    <col min="12067" max="12288" width="4.875" style="119"/>
+    <col min="12289" max="12322" width="4.875" style="119" customWidth="1"/>
+    <col min="12323" max="12544" width="4.875" style="119"/>
+    <col min="12545" max="12578" width="4.875" style="119" customWidth="1"/>
+    <col min="12579" max="12800" width="4.875" style="119"/>
+    <col min="12801" max="12834" width="4.875" style="119" customWidth="1"/>
+    <col min="12835" max="13056" width="4.875" style="119"/>
+    <col min="13057" max="13090" width="4.875" style="119" customWidth="1"/>
+    <col min="13091" max="13312" width="4.875" style="119"/>
+    <col min="13313" max="13346" width="4.875" style="119" customWidth="1"/>
+    <col min="13347" max="13568" width="4.875" style="119"/>
+    <col min="13569" max="13602" width="4.875" style="119" customWidth="1"/>
+    <col min="13603" max="13824" width="4.875" style="119"/>
+    <col min="13825" max="13858" width="4.875" style="119" customWidth="1"/>
+    <col min="13859" max="14080" width="4.875" style="119"/>
+    <col min="14081" max="14114" width="4.875" style="119" customWidth="1"/>
+    <col min="14115" max="14336" width="4.875" style="119"/>
+    <col min="14337" max="14370" width="4.875" style="119" customWidth="1"/>
+    <col min="14371" max="14592" width="4.875" style="119"/>
+    <col min="14593" max="14626" width="4.875" style="119" customWidth="1"/>
+    <col min="14627" max="14848" width="4.875" style="119"/>
+    <col min="14849" max="14882" width="4.875" style="119" customWidth="1"/>
+    <col min="14883" max="15104" width="4.875" style="119"/>
+    <col min="15105" max="15138" width="4.875" style="119" customWidth="1"/>
+    <col min="15139" max="15360" width="4.875" style="119"/>
+    <col min="15361" max="15394" width="4.875" style="119" customWidth="1"/>
+    <col min="15395" max="15616" width="4.875" style="119"/>
+    <col min="15617" max="15650" width="4.875" style="119" customWidth="1"/>
+    <col min="15651" max="15872" width="4.875" style="119"/>
+    <col min="15873" max="15906" width="4.875" style="119" customWidth="1"/>
+    <col min="15907" max="16128" width="4.875" style="119"/>
+    <col min="16129" max="16162" width="4.875" style="119" customWidth="1"/>
+    <col min="16163" max="16384" width="4.875" style="119"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="305" t="s">
+    <row r="1" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="317" t="str">
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="320" t="s">
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="321"/>
-      <c r="Q1" s="321"/>
-      <c r="R1" s="322"/>
-      <c r="S1" s="307" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="308"/>
-      <c r="U1" s="308"/>
-      <c r="V1" s="308"/>
-      <c r="W1" s="308"/>
-      <c r="X1" s="308"/>
-      <c r="Y1" s="308"/>
-      <c r="Z1" s="309"/>
-      <c r="AA1" s="305" t="s">
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="301"/>
+      <c r="AA1" s="308" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="306"/>
-      <c r="AC1" s="302" t="str">
+      <c r="AB1" s="310"/>
+      <c r="AC1" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="303"/>
-      <c r="AE1" s="303"/>
-      <c r="AF1" s="304"/>
-      <c r="AG1" s="299">
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="328"/>
+      <c r="AG1" s="323">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="300"/>
-      <c r="AI1" s="301"/>
-    </row>
-    <row r="2" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="305" t="s">
+      <c r="AH1" s="324"/>
+      <c r="AI1" s="325"/>
+    </row>
+    <row r="2" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="317" t="str">
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="318"/>
-      <c r="G2" s="318"/>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="318"/>
-      <c r="L2" s="318"/>
-      <c r="M2" s="318"/>
-      <c r="N2" s="319"/>
-      <c r="O2" s="323"/>
-      <c r="P2" s="324"/>
-      <c r="Q2" s="324"/>
-      <c r="R2" s="325"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="311"/>
-      <c r="U2" s="311"/>
-      <c r="V2" s="311"/>
-      <c r="W2" s="311"/>
-      <c r="X2" s="311"/>
-      <c r="Y2" s="311"/>
-      <c r="Z2" s="312"/>
-      <c r="AA2" s="305" t="s">
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="308" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="306"/>
-      <c r="AC2" s="302" t="str">
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="303"/>
-      <c r="AE2" s="303"/>
-      <c r="AF2" s="304"/>
-      <c r="AG2" s="299" t="str">
+      <c r="AD2" s="327"/>
+      <c r="AE2" s="327"/>
+      <c r="AF2" s="328"/>
+      <c r="AG2" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="300"/>
-      <c r="AI2" s="301"/>
-    </row>
-    <row r="3" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="305" t="s">
+      <c r="AH2" s="324"/>
+      <c r="AI2" s="325"/>
+    </row>
+    <row r="3" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="308" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="317" t="str">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="318"/>
-      <c r="N3" s="319"/>
-      <c r="O3" s="326"/>
-      <c r="P3" s="327"/>
-      <c r="Q3" s="327"/>
-      <c r="R3" s="328"/>
-      <c r="S3" s="313"/>
-      <c r="T3" s="314"/>
-      <c r="U3" s="314"/>
-      <c r="V3" s="314"/>
-      <c r="W3" s="314"/>
-      <c r="X3" s="314"/>
-      <c r="Y3" s="314"/>
-      <c r="Z3" s="315"/>
-      <c r="AA3" s="305"/>
-      <c r="AB3" s="306"/>
-      <c r="AC3" s="302" t="str">
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="312"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="305"/>
+      <c r="T3" s="306"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="306"/>
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="303"/>
-      <c r="AE3" s="303"/>
-      <c r="AF3" s="304"/>
-      <c r="AG3" s="299" t="str">
+      <c r="AD3" s="327"/>
+      <c r="AE3" s="327"/>
+      <c r="AF3" s="328"/>
+      <c r="AG3" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="300"/>
-      <c r="AI3" s="301"/>
-    </row>
-    <row r="4" spans="1:35" s="94" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH3" s="324"/>
+      <c r="AI3" s="325"/>
+    </row>
+    <row r="4" spans="1:35" s="94" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="198" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="198"/>
       <c r="C4" s="198"/>
@@ -8409,7 +8416,7 @@
       <c r="AH4" s="198"/>
       <c r="AI4" s="198"/>
     </row>
-    <row r="5" spans="1:35" s="94" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" s="94" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="198"/>
       <c r="B5" s="198"/>
       <c r="C5" s="198"/>
@@ -8427,7 +8434,7 @@
       <c r="O5" s="198"/>
       <c r="P5" s="198"/>
       <c r="Q5" s="200" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R5" s="198"/>
       <c r="S5" s="198"/>
@@ -8455,7 +8462,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="203"/>
       <c r="B7" s="204" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="204"/>
       <c r="D7" s="59"/>
@@ -8531,7 +8538,7 @@
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="203"/>
       <c r="B9" s="204" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="204"/>
       <c r="D9" s="59"/>
@@ -8607,7 +8614,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="203"/>
       <c r="B11" s="61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="203"/>
@@ -9803,6 +9810,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9813,13 +9827,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -9839,164 +9846,164 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="152"/>
+    <col min="1" max="16384" width="4.875" style="152"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="149" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="308" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="317" t="str">
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="320" t="s">
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="314" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="321"/>
-      <c r="Q1" s="321"/>
-      <c r="R1" s="322"/>
-      <c r="S1" s="307" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="308"/>
-      <c r="U1" s="308"/>
-      <c r="V1" s="308"/>
-      <c r="W1" s="308"/>
-      <c r="X1" s="308"/>
-      <c r="Y1" s="308"/>
-      <c r="Z1" s="309"/>
-      <c r="AA1" s="305" t="s">
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="301"/>
+      <c r="AA1" s="308" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="306"/>
-      <c r="AC1" s="302" t="str">
+      <c r="AB1" s="310"/>
+      <c r="AC1" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="303"/>
-      <c r="AE1" s="303"/>
-      <c r="AF1" s="304"/>
-      <c r="AG1" s="329">
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="328"/>
+      <c r="AG1" s="370">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="330"/>
-      <c r="AI1" s="331"/>
+      <c r="AH1" s="371"/>
+      <c r="AI1" s="372"/>
     </row>
     <row r="2" spans="1:35" s="149" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="305" t="s">
+      <c r="A2" s="308" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="317" t="str">
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="318"/>
-      <c r="G2" s="318"/>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="318"/>
-      <c r="L2" s="318"/>
-      <c r="M2" s="318"/>
-      <c r="N2" s="319"/>
-      <c r="O2" s="323"/>
-      <c r="P2" s="324"/>
-      <c r="Q2" s="324"/>
-      <c r="R2" s="325"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="311"/>
-      <c r="U2" s="311"/>
-      <c r="V2" s="311"/>
-      <c r="W2" s="311"/>
-      <c r="X2" s="311"/>
-      <c r="Y2" s="311"/>
-      <c r="Z2" s="312"/>
-      <c r="AA2" s="305" t="s">
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="308" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="306"/>
-      <c r="AC2" s="302" t="str">
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="303"/>
-      <c r="AE2" s="303"/>
-      <c r="AF2" s="304"/>
-      <c r="AG2" s="329" t="str">
+      <c r="AD2" s="327"/>
+      <c r="AE2" s="327"/>
+      <c r="AF2" s="328"/>
+      <c r="AG2" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="330"/>
-      <c r="AI2" s="331"/>
+      <c r="AH2" s="371"/>
+      <c r="AI2" s="372"/>
     </row>
     <row r="3" spans="1:35" s="149" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="305" t="s">
+      <c r="A3" s="308" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="317" t="str">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="318"/>
-      <c r="N3" s="319"/>
-      <c r="O3" s="326"/>
-      <c r="P3" s="327"/>
-      <c r="Q3" s="327"/>
-      <c r="R3" s="328"/>
-      <c r="S3" s="313"/>
-      <c r="T3" s="314"/>
-      <c r="U3" s="314"/>
-      <c r="V3" s="314"/>
-      <c r="W3" s="314"/>
-      <c r="X3" s="314"/>
-      <c r="Y3" s="314"/>
-      <c r="Z3" s="315"/>
-      <c r="AA3" s="305"/>
-      <c r="AB3" s="306"/>
-      <c r="AC3" s="302" t="str">
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="312"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="305"/>
+      <c r="T3" s="306"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="306"/>
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="303"/>
-      <c r="AE3" s="303"/>
-      <c r="AF3" s="304"/>
-      <c r="AG3" s="329" t="str">
+      <c r="AD3" s="327"/>
+      <c r="AE3" s="327"/>
+      <c r="AF3" s="328"/>
+      <c r="AG3" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="330"/>
-      <c r="AI3" s="331"/>
+      <c r="AH3" s="371"/>
+      <c r="AI3" s="372"/>
     </row>
     <row r="4" spans="1:35" s="149" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="128"/>
@@ -10009,7 +10016,7 @@
     </row>
     <row r="5" spans="1:35" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="106"/>
     </row>
@@ -10018,12 +10025,12 @@
       <c r="C6" s="106"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="339" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="340"/>
-      <c r="C7" s="340"/>
-      <c r="D7" s="341"/>
+      <c r="A7" s="329" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="338"/>
+      <c r="C7" s="338"/>
+      <c r="D7" s="339"/>
       <c r="E7" s="151"/>
       <c r="F7" s="151"/>
       <c r="G7" s="151"/>
@@ -10036,82 +10043,82 @@
       <c r="N7" s="151"/>
       <c r="O7" s="151"/>
       <c r="P7" s="151"/>
-      <c r="Q7" s="372" t="s">
+      <c r="Q7" s="343" t="s">
+        <v>122</v>
+      </c>
+      <c r="R7" s="344"/>
+      <c r="S7" s="344"/>
+      <c r="T7" s="345"/>
+      <c r="U7" s="332" t="s">
+        <v>97</v>
+      </c>
+      <c r="V7" s="333"/>
+      <c r="W7" s="333"/>
+      <c r="X7" s="333"/>
+      <c r="Y7" s="333"/>
+      <c r="Z7" s="333"/>
+      <c r="AA7" s="333"/>
+      <c r="AB7" s="333"/>
+      <c r="AC7" s="333"/>
+      <c r="AD7" s="333"/>
+      <c r="AE7" s="333"/>
+      <c r="AF7" s="333"/>
+      <c r="AG7" s="333"/>
+      <c r="AH7" s="333"/>
+      <c r="AI7" s="334"/>
+    </row>
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="340" t="s">
         <v>123</v>
       </c>
-      <c r="R7" s="361"/>
-      <c r="S7" s="361"/>
-      <c r="T7" s="362"/>
-      <c r="U7" s="366" t="s">
+      <c r="B8" s="341"/>
+      <c r="C8" s="341"/>
+      <c r="D8" s="342"/>
+      <c r="E8" s="335" t="s">
         <v>98</v>
       </c>
-      <c r="V7" s="367"/>
-      <c r="W7" s="367"/>
-      <c r="X7" s="367"/>
-      <c r="Y7" s="367"/>
-      <c r="Z7" s="367"/>
-      <c r="AA7" s="367"/>
-      <c r="AB7" s="367"/>
-      <c r="AC7" s="367"/>
-      <c r="AD7" s="367"/>
-      <c r="AE7" s="367"/>
-      <c r="AF7" s="367"/>
-      <c r="AG7" s="367"/>
-      <c r="AH7" s="367"/>
-      <c r="AI7" s="368"/>
-    </row>
-    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="369" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="370"/>
-      <c r="C8" s="370"/>
-      <c r="D8" s="371"/>
-      <c r="E8" s="351" t="s">
+      <c r="F8" s="336"/>
+      <c r="G8" s="336"/>
+      <c r="H8" s="336"/>
+      <c r="I8" s="336"/>
+      <c r="J8" s="336"/>
+      <c r="K8" s="336"/>
+      <c r="L8" s="336"/>
+      <c r="M8" s="336"/>
+      <c r="N8" s="336"/>
+      <c r="O8" s="336"/>
+      <c r="P8" s="336"/>
+      <c r="Q8" s="329" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="352"/>
-      <c r="G8" s="352"/>
-      <c r="H8" s="352"/>
-      <c r="I8" s="352"/>
-      <c r="J8" s="352"/>
-      <c r="K8" s="352"/>
-      <c r="L8" s="352"/>
-      <c r="M8" s="352"/>
-      <c r="N8" s="352"/>
-      <c r="O8" s="352"/>
-      <c r="P8" s="352"/>
-      <c r="Q8" s="339" t="s">
+      <c r="R8" s="338"/>
+      <c r="S8" s="338"/>
+      <c r="T8" s="339"/>
+      <c r="U8" s="335" t="s">
         <v>100</v>
       </c>
-      <c r="R8" s="340"/>
-      <c r="S8" s="340"/>
-      <c r="T8" s="341"/>
-      <c r="U8" s="351" t="s">
+      <c r="V8" s="336"/>
+      <c r="W8" s="336"/>
+      <c r="X8" s="336"/>
+      <c r="Y8" s="336"/>
+      <c r="Z8" s="336"/>
+      <c r="AA8" s="336"/>
+      <c r="AB8" s="336"/>
+      <c r="AC8" s="336"/>
+      <c r="AD8" s="336"/>
+      <c r="AE8" s="336"/>
+      <c r="AF8" s="336"/>
+      <c r="AG8" s="336"/>
+      <c r="AH8" s="336"/>
+      <c r="AI8" s="337"/>
+    </row>
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="329" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="352"/>
-      <c r="W8" s="352"/>
-      <c r="X8" s="352"/>
-      <c r="Y8" s="352"/>
-      <c r="Z8" s="352"/>
-      <c r="AA8" s="352"/>
-      <c r="AB8" s="352"/>
-      <c r="AC8" s="352"/>
-      <c r="AD8" s="352"/>
-      <c r="AE8" s="352"/>
-      <c r="AF8" s="352"/>
-      <c r="AG8" s="352"/>
-      <c r="AH8" s="352"/>
-      <c r="AI8" s="353"/>
-    </row>
-    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="339" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="340"/>
-      <c r="C9" s="340"/>
-      <c r="D9" s="341"/>
+      <c r="B9" s="338"/>
+      <c r="C9" s="338"/>
+      <c r="D9" s="339"/>
       <c r="E9" s="153"/>
       <c r="F9" s="153"/>
       <c r="G9" s="153"/>
@@ -10147,7 +10154,7 @@
     <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="156"/>
       <c r="B10" s="157" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="157"/>
       <c r="D10" s="157"/>
@@ -10261,7 +10268,7 @@
       <c r="A13" s="161"/>
       <c r="B13" s="162"/>
       <c r="C13" s="163" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="163"/>
       <c r="E13" s="163"/>
@@ -10297,12 +10304,12 @@
       <c r="AI13" s="164"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="339" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="333"/>
-      <c r="C14" s="333"/>
-      <c r="D14" s="334"/>
+      <c r="A14" s="329" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="330"/>
+      <c r="C14" s="330"/>
+      <c r="D14" s="331"/>
       <c r="E14" s="154"/>
       <c r="F14" s="154"/>
       <c r="G14" s="154"/>
@@ -10447,12 +10454,12 @@
       <c r="AI17" s="164"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="354" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="355"/>
-      <c r="C18" s="355"/>
-      <c r="D18" s="356"/>
+      <c r="A18" s="346" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="347"/>
+      <c r="C18" s="347"/>
+      <c r="D18" s="348"/>
       <c r="E18" s="166"/>
       <c r="F18" s="167"/>
       <c r="G18" s="139"/>
@@ -10465,12 +10472,12 @@
       <c r="N18" s="139"/>
       <c r="O18" s="137"/>
       <c r="P18" s="139"/>
-      <c r="Q18" s="354" t="s">
-        <v>107</v>
-      </c>
-      <c r="R18" s="355"/>
-      <c r="S18" s="355"/>
-      <c r="T18" s="356"/>
+      <c r="Q18" s="346" t="s">
+        <v>106</v>
+      </c>
+      <c r="R18" s="347"/>
+      <c r="S18" s="347"/>
+      <c r="T18" s="348"/>
       <c r="U18" s="157"/>
       <c r="V18" s="157"/>
       <c r="W18" s="157"/>
@@ -10495,7 +10502,7 @@
       <c r="E19" s="166"/>
       <c r="F19" s="167"/>
       <c r="G19" s="167" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" s="139"/>
       <c r="I19" s="139"/>
@@ -10506,7 +10513,7 @@
       <c r="N19" s="139"/>
       <c r="O19" s="139"/>
       <c r="P19" s="139" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="169"/>
       <c r="R19" s="170"/>
@@ -10522,14 +10529,14 @@
       <c r="AB19" s="148"/>
       <c r="AC19" s="148"/>
       <c r="AD19" s="172" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE19" s="148"/>
       <c r="AF19" s="148"/>
       <c r="AG19" s="157"/>
       <c r="AH19" s="157"/>
       <c r="AI19" s="158" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10570,55 +10577,55 @@
       <c r="AI20" s="158"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="339" t="s">
+      <c r="A21" s="329" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="338"/>
+      <c r="C21" s="338"/>
+      <c r="D21" s="339"/>
+      <c r="E21" s="335" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="340"/>
-      <c r="C21" s="340"/>
-      <c r="D21" s="341"/>
-      <c r="E21" s="351" t="s">
+      <c r="F21" s="336"/>
+      <c r="G21" s="336"/>
+      <c r="H21" s="336"/>
+      <c r="I21" s="336"/>
+      <c r="J21" s="336"/>
+      <c r="K21" s="336"/>
+      <c r="L21" s="336"/>
+      <c r="M21" s="336"/>
+      <c r="N21" s="336"/>
+      <c r="O21" s="336"/>
+      <c r="P21" s="337"/>
+      <c r="Q21" s="329" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="352"/>
-      <c r="G21" s="352"/>
-      <c r="H21" s="352"/>
-      <c r="I21" s="352"/>
-      <c r="J21" s="352"/>
-      <c r="K21" s="352"/>
-      <c r="L21" s="352"/>
-      <c r="M21" s="352"/>
-      <c r="N21" s="352"/>
-      <c r="O21" s="352"/>
-      <c r="P21" s="353"/>
-      <c r="Q21" s="339" t="s">
+      <c r="R21" s="338"/>
+      <c r="S21" s="338"/>
+      <c r="T21" s="339"/>
+      <c r="U21" s="349"/>
+      <c r="V21" s="350"/>
+      <c r="W21" s="350"/>
+      <c r="X21" s="350"/>
+      <c r="Y21" s="350"/>
+      <c r="Z21" s="350"/>
+      <c r="AA21" s="350"/>
+      <c r="AB21" s="350"/>
+      <c r="AC21" s="350"/>
+      <c r="AD21" s="350"/>
+      <c r="AE21" s="350"/>
+      <c r="AF21" s="350"/>
+      <c r="AG21" s="350"/>
+      <c r="AH21" s="350"/>
+      <c r="AI21" s="351"/>
+    </row>
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="352" t="s">
         <v>112</v>
       </c>
-      <c r="R21" s="340"/>
-      <c r="S21" s="340"/>
-      <c r="T21" s="341"/>
-      <c r="U21" s="357"/>
-      <c r="V21" s="358"/>
-      <c r="W21" s="358"/>
-      <c r="X21" s="358"/>
-      <c r="Y21" s="358"/>
-      <c r="Z21" s="358"/>
-      <c r="AA21" s="358"/>
-      <c r="AB21" s="358"/>
-      <c r="AC21" s="358"/>
-      <c r="AD21" s="358"/>
-      <c r="AE21" s="358"/>
-      <c r="AF21" s="358"/>
-      <c r="AG21" s="358"/>
-      <c r="AH21" s="358"/>
-      <c r="AI21" s="359"/>
-    </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="360" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="361"/>
-      <c r="C22" s="361"/>
-      <c r="D22" s="362"/>
+      <c r="B22" s="344"/>
+      <c r="C22" s="344"/>
+      <c r="D22" s="345"/>
       <c r="E22" s="176"/>
       <c r="F22" s="177"/>
       <c r="G22" s="154"/>
@@ -10631,12 +10638,12 @@
       <c r="N22" s="154"/>
       <c r="O22" s="153"/>
       <c r="P22" s="154"/>
-      <c r="Q22" s="360" t="s">
-        <v>114</v>
-      </c>
-      <c r="R22" s="361"/>
-      <c r="S22" s="361"/>
-      <c r="T22" s="362"/>
+      <c r="Q22" s="352" t="s">
+        <v>113</v>
+      </c>
+      <c r="R22" s="344"/>
+      <c r="S22" s="344"/>
+      <c r="T22" s="345"/>
       <c r="U22" s="130"/>
       <c r="V22" s="131"/>
       <c r="W22" s="178"/>
@@ -10661,7 +10668,7 @@
       <c r="E23" s="180"/>
       <c r="F23" s="181"/>
       <c r="G23" s="181" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H23" s="162"/>
       <c r="I23" s="162"/>
@@ -10672,7 +10679,7 @@
       <c r="N23" s="162"/>
       <c r="O23" s="162"/>
       <c r="P23" s="162" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="173"/>
       <c r="R23" s="174"/>
@@ -10685,7 +10692,7 @@
       <c r="Y23" s="183"/>
       <c r="Z23" s="145"/>
       <c r="AA23" s="184" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB23" s="145"/>
       <c r="AC23" s="145"/>
@@ -10695,42 +10702,42 @@
       <c r="AG23" s="184"/>
       <c r="AH23" s="183"/>
       <c r="AI23" s="146" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="348" t="s">
+      <c r="A24" s="367" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="368"/>
+      <c r="C24" s="368"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="335" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="349"/>
-      <c r="C24" s="349"/>
-      <c r="D24" s="350"/>
-      <c r="E24" s="351" t="s">
+      <c r="F24" s="336"/>
+      <c r="G24" s="336"/>
+      <c r="H24" s="336"/>
+      <c r="I24" s="336"/>
+      <c r="J24" s="336"/>
+      <c r="K24" s="336"/>
+      <c r="L24" s="336"/>
+      <c r="M24" s="336"/>
+      <c r="N24" s="336"/>
+      <c r="O24" s="336"/>
+      <c r="P24" s="337"/>
+      <c r="Q24" s="353" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="352"/>
-      <c r="G24" s="352"/>
-      <c r="H24" s="352"/>
-      <c r="I24" s="352"/>
-      <c r="J24" s="352"/>
-      <c r="K24" s="352"/>
-      <c r="L24" s="352"/>
-      <c r="M24" s="352"/>
-      <c r="N24" s="352"/>
-      <c r="O24" s="352"/>
-      <c r="P24" s="353"/>
-      <c r="Q24" s="363" t="s">
+      <c r="R24" s="354"/>
+      <c r="S24" s="354"/>
+      <c r="T24" s="355"/>
+      <c r="U24" s="359"/>
+      <c r="V24" s="360"/>
+      <c r="W24" s="360"/>
+      <c r="X24" s="360"/>
+      <c r="Y24" s="185" t="s">
         <v>117</v>
-      </c>
-      <c r="R24" s="364"/>
-      <c r="S24" s="364"/>
-      <c r="T24" s="365"/>
-      <c r="U24" s="337"/>
-      <c r="V24" s="338"/>
-      <c r="W24" s="338"/>
-      <c r="X24" s="338"/>
-      <c r="Y24" s="185" t="s">
-        <v>118</v>
       </c>
       <c r="Z24" s="186"/>
       <c r="AA24" s="186"/>
@@ -10744,45 +10751,45 @@
       <c r="AI24" s="187"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="344" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="345"/>
-      <c r="C25" s="345"/>
-      <c r="D25" s="346"/>
+      <c r="A25" s="363" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="364"/>
+      <c r="C25" s="364"/>
+      <c r="D25" s="365"/>
       <c r="E25" s="176"/>
       <c r="F25" s="188"/>
       <c r="G25" s="177" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="357"/>
+      <c r="I25" s="358"/>
+      <c r="J25" s="358"/>
+      <c r="K25" s="358"/>
+      <c r="L25" s="358"/>
+      <c r="M25" s="358"/>
+      <c r="N25" s="358"/>
+      <c r="O25" s="358"/>
+      <c r="P25" s="358"/>
+      <c r="Q25" s="154" t="s">
         <v>108</v>
-      </c>
-      <c r="H25" s="335"/>
-      <c r="I25" s="336"/>
-      <c r="J25" s="336"/>
-      <c r="K25" s="336"/>
-      <c r="L25" s="336"/>
-      <c r="M25" s="336"/>
-      <c r="N25" s="336"/>
-      <c r="O25" s="336"/>
-      <c r="P25" s="336"/>
-      <c r="Q25" s="154" t="s">
-        <v>109</v>
       </c>
       <c r="R25" s="154"/>
       <c r="S25" s="177"/>
       <c r="T25" s="177" t="s">
+        <v>107</v>
+      </c>
+      <c r="U25" s="366"/>
+      <c r="V25" s="366"/>
+      <c r="W25" s="366"/>
+      <c r="X25" s="366"/>
+      <c r="Y25" s="366"/>
+      <c r="Z25" s="366"/>
+      <c r="AA25" s="366"/>
+      <c r="AB25" s="366"/>
+      <c r="AC25" s="366"/>
+      <c r="AD25" s="154" t="s">
         <v>108</v>
-      </c>
-      <c r="U25" s="347"/>
-      <c r="V25" s="347"/>
-      <c r="W25" s="347"/>
-      <c r="X25" s="347"/>
-      <c r="Y25" s="347"/>
-      <c r="Z25" s="347"/>
-      <c r="AA25" s="347"/>
-      <c r="AB25" s="347"/>
-      <c r="AC25" s="347"/>
-      <c r="AD25" s="154" t="s">
-        <v>109</v>
       </c>
       <c r="AE25" s="154"/>
       <c r="AF25" s="154"/>
@@ -10798,36 +10805,36 @@
       <c r="E26" s="156"/>
       <c r="F26" s="192"/>
       <c r="G26" s="172" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="362"/>
+      <c r="I26" s="362"/>
+      <c r="J26" s="362"/>
+      <c r="K26" s="362"/>
+      <c r="L26" s="362"/>
+      <c r="M26" s="362"/>
+      <c r="N26" s="362"/>
+      <c r="O26" s="362"/>
+      <c r="P26" s="362"/>
+      <c r="Q26" s="148" t="s">
         <v>108</v>
-      </c>
-      <c r="H26" s="343"/>
-      <c r="I26" s="343"/>
-      <c r="J26" s="343"/>
-      <c r="K26" s="343"/>
-      <c r="L26" s="343"/>
-      <c r="M26" s="343"/>
-      <c r="N26" s="343"/>
-      <c r="O26" s="343"/>
-      <c r="P26" s="343"/>
-      <c r="Q26" s="148" t="s">
-        <v>109</v>
       </c>
       <c r="R26" s="148"/>
       <c r="S26" s="172"/>
       <c r="T26" s="172" t="s">
+        <v>107</v>
+      </c>
+      <c r="U26" s="362"/>
+      <c r="V26" s="362"/>
+      <c r="W26" s="362"/>
+      <c r="X26" s="362"/>
+      <c r="Y26" s="362"/>
+      <c r="Z26" s="362"/>
+      <c r="AA26" s="362"/>
+      <c r="AB26" s="362"/>
+      <c r="AC26" s="362"/>
+      <c r="AD26" s="148" t="s">
         <v>108</v>
-      </c>
-      <c r="U26" s="343"/>
-      <c r="V26" s="343"/>
-      <c r="W26" s="343"/>
-      <c r="X26" s="343"/>
-      <c r="Y26" s="343"/>
-      <c r="Z26" s="343"/>
-      <c r="AA26" s="343"/>
-      <c r="AB26" s="343"/>
-      <c r="AC26" s="343"/>
-      <c r="AD26" s="148" t="s">
-        <v>109</v>
       </c>
       <c r="AE26" s="148"/>
       <c r="AF26" s="148"/>
@@ -10843,50 +10850,50 @@
       <c r="E27" s="180"/>
       <c r="F27" s="196"/>
       <c r="G27" s="181" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="361"/>
+      <c r="I27" s="361"/>
+      <c r="J27" s="361"/>
+      <c r="K27" s="361"/>
+      <c r="L27" s="361"/>
+      <c r="M27" s="361"/>
+      <c r="N27" s="361"/>
+      <c r="O27" s="361"/>
+      <c r="P27" s="361"/>
+      <c r="Q27" s="162" t="s">
         <v>108</v>
-      </c>
-      <c r="H27" s="342"/>
-      <c r="I27" s="342"/>
-      <c r="J27" s="342"/>
-      <c r="K27" s="342"/>
-      <c r="L27" s="342"/>
-      <c r="M27" s="342"/>
-      <c r="N27" s="342"/>
-      <c r="O27" s="342"/>
-      <c r="P27" s="342"/>
-      <c r="Q27" s="162" t="s">
-        <v>109</v>
       </c>
       <c r="R27" s="162"/>
       <c r="S27" s="181"/>
       <c r="T27" s="181" t="s">
+        <v>107</v>
+      </c>
+      <c r="U27" s="361"/>
+      <c r="V27" s="361"/>
+      <c r="W27" s="361"/>
+      <c r="X27" s="361"/>
+      <c r="Y27" s="361"/>
+      <c r="Z27" s="361"/>
+      <c r="AA27" s="361"/>
+      <c r="AB27" s="361"/>
+      <c r="AC27" s="361"/>
+      <c r="AD27" s="361"/>
+      <c r="AE27" s="361"/>
+      <c r="AF27" s="361"/>
+      <c r="AG27" s="361"/>
+      <c r="AH27" s="361"/>
+      <c r="AI27" s="164" t="s">
         <v>108</v>
       </c>
-      <c r="U27" s="342"/>
-      <c r="V27" s="342"/>
-      <c r="W27" s="342"/>
-      <c r="X27" s="342"/>
-      <c r="Y27" s="342"/>
-      <c r="Z27" s="342"/>
-      <c r="AA27" s="342"/>
-      <c r="AB27" s="342"/>
-      <c r="AC27" s="342"/>
-      <c r="AD27" s="342"/>
-      <c r="AE27" s="342"/>
-      <c r="AF27" s="342"/>
-      <c r="AG27" s="342"/>
-      <c r="AH27" s="342"/>
-      <c r="AI27" s="164" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="332" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="333"/>
-      <c r="C28" s="333"/>
-      <c r="D28" s="334"/>
+      <c r="A28" s="356" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="330"/>
+      <c r="C28" s="330"/>
+      <c r="D28" s="331"/>
       <c r="E28" s="154"/>
       <c r="F28" s="154"/>
       <c r="G28" s="154"/>
@@ -11032,21 +11039,23 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -11061,23 +11070,21 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:P21"/>
     <mergeCell ref="E24:P24"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -11098,9 +11105,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:colOff>60960</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -11120,15 +11127,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:colOff>106680</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11142,13 +11149,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>161925</xdr:colOff>
+                    <xdr:colOff>160020</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>34</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -11164,9 +11171,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>20</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>27</xdr:col>
@@ -11186,15 +11193,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>20</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>27</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11208,15 +11215,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>161925</xdr:colOff>
+                    <xdr:colOff>160020</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>29</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
+                    <xdr:colOff>213360</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11230,15 +11237,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>20</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>22</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>68580</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11260,7 +11267,7 @@
                     <xdr:col>26</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11274,15 +11281,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>29</xdr:col>
-                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:colOff>220980</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11298,7 +11305,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
@@ -11318,13 +11325,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:colOff>251460</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -11340,13 +11347,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:colOff>60960</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -11362,15 +11369,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>30480</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11384,15 +11391,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>18</xdr:col>
-                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:colOff>236220</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11406,9 +11413,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>19</xdr:col>
@@ -11428,7 +11435,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -11450,7 +11457,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>17</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -11474,7 +11481,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
@@ -11496,11 +11503,11 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:colOff>236220</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -11516,15 +11523,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>20</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>22</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>68580</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11546,7 +11553,7 @@
                     <xdr:col>26</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11560,7 +11567,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>161925</xdr:colOff>
+                    <xdr:colOff>160020</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </from>
@@ -11582,7 +11589,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>20</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>30480</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </from>
@@ -11614,164 +11621,164 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="85"/>
+    <col min="1" max="16384" width="4.875" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="107" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="308" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="317" t="str">
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="320" t="s">
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="314" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="321"/>
-      <c r="Q1" s="321"/>
-      <c r="R1" s="322"/>
-      <c r="S1" s="307" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="308"/>
-      <c r="U1" s="308"/>
-      <c r="V1" s="308"/>
-      <c r="W1" s="308"/>
-      <c r="X1" s="308"/>
-      <c r="Y1" s="308"/>
-      <c r="Z1" s="309"/>
-      <c r="AA1" s="305" t="s">
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="301"/>
+      <c r="AA1" s="308" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="306"/>
-      <c r="AC1" s="302" t="str">
+      <c r="AB1" s="310"/>
+      <c r="AC1" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="303"/>
-      <c r="AE1" s="303"/>
-      <c r="AF1" s="304"/>
-      <c r="AG1" s="329">
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="328"/>
+      <c r="AG1" s="370">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="330"/>
-      <c r="AI1" s="331"/>
+      <c r="AH1" s="371"/>
+      <c r="AI1" s="372"/>
     </row>
     <row r="2" spans="1:36" s="107" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="305" t="s">
+      <c r="A2" s="308" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="317" t="str">
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="318"/>
-      <c r="G2" s="318"/>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="318"/>
-      <c r="L2" s="318"/>
-      <c r="M2" s="318"/>
-      <c r="N2" s="319"/>
-      <c r="O2" s="323"/>
-      <c r="P2" s="324"/>
-      <c r="Q2" s="324"/>
-      <c r="R2" s="325"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="311"/>
-      <c r="U2" s="311"/>
-      <c r="V2" s="311"/>
-      <c r="W2" s="311"/>
-      <c r="X2" s="311"/>
-      <c r="Y2" s="311"/>
-      <c r="Z2" s="312"/>
-      <c r="AA2" s="305" t="s">
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="308" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="306"/>
-      <c r="AC2" s="302" t="str">
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="303"/>
-      <c r="AE2" s="303"/>
-      <c r="AF2" s="304"/>
-      <c r="AG2" s="329" t="str">
+      <c r="AD2" s="327"/>
+      <c r="AE2" s="327"/>
+      <c r="AF2" s="328"/>
+      <c r="AG2" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="330"/>
-      <c r="AI2" s="331"/>
+      <c r="AH2" s="371"/>
+      <c r="AI2" s="372"/>
     </row>
     <row r="3" spans="1:36" s="107" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="305" t="s">
+      <c r="A3" s="308" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="317" t="str">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="318"/>
-      <c r="N3" s="319"/>
-      <c r="O3" s="326"/>
-      <c r="P3" s="327"/>
-      <c r="Q3" s="327"/>
-      <c r="R3" s="328"/>
-      <c r="S3" s="313"/>
-      <c r="T3" s="314"/>
-      <c r="U3" s="314"/>
-      <c r="V3" s="314"/>
-      <c r="W3" s="314"/>
-      <c r="X3" s="314"/>
-      <c r="Y3" s="314"/>
-      <c r="Z3" s="315"/>
-      <c r="AA3" s="305"/>
-      <c r="AB3" s="306"/>
-      <c r="AC3" s="302" t="str">
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="312"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="305"/>
+      <c r="T3" s="306"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="306"/>
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="303"/>
-      <c r="AE3" s="303"/>
-      <c r="AF3" s="304"/>
-      <c r="AG3" s="329" t="str">
+      <c r="AD3" s="327"/>
+      <c r="AE3" s="327"/>
+      <c r="AF3" s="328"/>
+      <c r="AG3" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="330"/>
-      <c r="AI3" s="331"/>
+      <c r="AH3" s="371"/>
+      <c r="AI3" s="372"/>
     </row>
     <row r="4" spans="1:36" s="107" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="108"/>
@@ -11810,7 +11817,7 @@
       <c r="AH4" s="113"/>
       <c r="AI4" s="113"/>
     </row>
-    <row r="5" spans="1:36" s="107" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" s="107" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="114"/>
       <c r="B5" s="114"/>
       <c r="C5" s="114"/>
@@ -11830,472 +11837,472 @@
       <c r="AI5" s="117"/>
       <c r="AJ5" s="118"/>
     </row>
-    <row r="6" spans="1:36" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="119" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="120"/>
     </row>
-    <row r="7" spans="1:36" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="119"/>
       <c r="C7" s="120"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="441" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="389"/>
-      <c r="C8" s="389"/>
-      <c r="D8" s="389"/>
-      <c r="E8" s="389"/>
-      <c r="F8" s="389"/>
-      <c r="G8" s="389"/>
-      <c r="H8" s="389"/>
-      <c r="I8" s="389"/>
-      <c r="J8" s="389"/>
-      <c r="K8" s="389"/>
-      <c r="L8" s="389"/>
-      <c r="M8" s="389"/>
-      <c r="N8" s="389"/>
-      <c r="O8" s="389"/>
-      <c r="P8" s="389"/>
-      <c r="Q8" s="389"/>
-      <c r="R8" s="389"/>
-      <c r="S8" s="389"/>
-      <c r="T8" s="389"/>
-      <c r="U8" s="389"/>
-      <c r="V8" s="389"/>
-      <c r="W8" s="389"/>
-      <c r="X8" s="389"/>
-      <c r="Y8" s="389"/>
-      <c r="Z8" s="389"/>
-      <c r="AA8" s="389"/>
-      <c r="AB8" s="442"/>
-      <c r="AC8" s="388" t="s">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="393" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="394"/>
+      <c r="C8" s="394"/>
+      <c r="D8" s="394"/>
+      <c r="E8" s="394"/>
+      <c r="F8" s="394"/>
+      <c r="G8" s="394"/>
+      <c r="H8" s="394"/>
+      <c r="I8" s="394"/>
+      <c r="J8" s="394"/>
+      <c r="K8" s="394"/>
+      <c r="L8" s="394"/>
+      <c r="M8" s="394"/>
+      <c r="N8" s="394"/>
+      <c r="O8" s="394"/>
+      <c r="P8" s="394"/>
+      <c r="Q8" s="394"/>
+      <c r="R8" s="394"/>
+      <c r="S8" s="394"/>
+      <c r="T8" s="394"/>
+      <c r="U8" s="394"/>
+      <c r="V8" s="394"/>
+      <c r="W8" s="394"/>
+      <c r="X8" s="394"/>
+      <c r="Y8" s="394"/>
+      <c r="Z8" s="394"/>
+      <c r="AA8" s="394"/>
+      <c r="AB8" s="395"/>
+      <c r="AC8" s="459" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD8" s="394"/>
+      <c r="AE8" s="460"/>
+      <c r="AF8" s="456"/>
+      <c r="AG8" s="457"/>
+      <c r="AH8" s="457"/>
+      <c r="AI8" s="458"/>
+    </row>
+    <row r="9" spans="1:36" s="122" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="AD8" s="389"/>
-      <c r="AE8" s="390"/>
-      <c r="AF8" s="385"/>
-      <c r="AG8" s="386"/>
-      <c r="AH8" s="386"/>
-      <c r="AI8" s="387"/>
-    </row>
-    <row r="9" spans="1:36" s="122" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="121" t="s">
+      <c r="B9" s="376" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="435" t="s">
+      <c r="C9" s="390"/>
+      <c r="D9" s="390"/>
+      <c r="E9" s="390"/>
+      <c r="F9" s="391"/>
+      <c r="G9" s="376" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="436"/>
-      <c r="D9" s="436"/>
-      <c r="E9" s="436"/>
-      <c r="F9" s="437"/>
-      <c r="G9" s="435" t="s">
+      <c r="H9" s="377"/>
+      <c r="I9" s="378"/>
+      <c r="J9" s="376" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="438"/>
-      <c r="I9" s="440"/>
-      <c r="J9" s="435" t="s">
+      <c r="K9" s="377"/>
+      <c r="L9" s="377"/>
+      <c r="M9" s="377"/>
+      <c r="N9" s="377"/>
+      <c r="O9" s="377"/>
+      <c r="P9" s="378"/>
+      <c r="Q9" s="381" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="438"/>
-      <c r="L9" s="438"/>
-      <c r="M9" s="438"/>
-      <c r="N9" s="438"/>
-      <c r="O9" s="438"/>
-      <c r="P9" s="440"/>
-      <c r="Q9" s="455" t="s">
+      <c r="R9" s="383"/>
+      <c r="S9" s="381" t="s">
         <v>90</v>
       </c>
-      <c r="R9" s="457"/>
-      <c r="S9" s="455" t="s">
+      <c r="T9" s="382"/>
+      <c r="U9" s="383"/>
+      <c r="V9" s="376" t="s">
         <v>91</v>
       </c>
-      <c r="T9" s="456"/>
-      <c r="U9" s="457"/>
-      <c r="V9" s="435" t="s">
+      <c r="W9" s="377"/>
+      <c r="X9" s="377"/>
+      <c r="Y9" s="377"/>
+      <c r="Z9" s="377"/>
+      <c r="AA9" s="377"/>
+      <c r="AB9" s="392"/>
+      <c r="AC9" s="404" t="s">
         <v>92</v>
       </c>
-      <c r="W9" s="438"/>
-      <c r="X9" s="438"/>
-      <c r="Y9" s="438"/>
-      <c r="Z9" s="438"/>
-      <c r="AA9" s="438"/>
-      <c r="AB9" s="439"/>
-      <c r="AC9" s="449" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD9" s="450"/>
-      <c r="AE9" s="450"/>
-      <c r="AF9" s="450"/>
-      <c r="AG9" s="450"/>
-      <c r="AH9" s="451" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI9" s="451"/>
-    </row>
-    <row r="10" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD9" s="405"/>
+      <c r="AE9" s="405"/>
+      <c r="AF9" s="405"/>
+      <c r="AG9" s="405"/>
+      <c r="AH9" s="406" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI9" s="406"/>
+    </row>
+    <row r="10" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="123">
         <v>1</v>
       </c>
-      <c r="B10" s="398" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="399"/>
-      <c r="D10" s="399"/>
-      <c r="E10" s="399"/>
-      <c r="F10" s="400"/>
-      <c r="G10" s="446"/>
-      <c r="H10" s="447"/>
-      <c r="I10" s="448"/>
-      <c r="J10" s="458"/>
-      <c r="K10" s="459"/>
-      <c r="L10" s="459"/>
-      <c r="M10" s="459"/>
-      <c r="N10" s="459"/>
-      <c r="O10" s="459"/>
-      <c r="P10" s="460"/>
-      <c r="Q10" s="407"/>
-      <c r="R10" s="409"/>
-      <c r="S10" s="407"/>
-      <c r="T10" s="408"/>
-      <c r="U10" s="409"/>
-      <c r="V10" s="452"/>
-      <c r="W10" s="453"/>
-      <c r="X10" s="453"/>
-      <c r="Y10" s="453"/>
-      <c r="Z10" s="453"/>
-      <c r="AA10" s="453"/>
-      <c r="AB10" s="454"/>
-      <c r="AC10" s="432"/>
-      <c r="AD10" s="376"/>
-      <c r="AE10" s="377"/>
-      <c r="AF10" s="377"/>
-      <c r="AG10" s="378"/>
-      <c r="AH10" s="396"/>
-      <c r="AI10" s="397"/>
-    </row>
-    <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="443" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="444"/>
+      <c r="D10" s="444"/>
+      <c r="E10" s="444"/>
+      <c r="F10" s="445"/>
+      <c r="G10" s="401"/>
+      <c r="H10" s="402"/>
+      <c r="I10" s="403"/>
+      <c r="J10" s="385"/>
+      <c r="K10" s="386"/>
+      <c r="L10" s="386"/>
+      <c r="M10" s="386"/>
+      <c r="N10" s="386"/>
+      <c r="O10" s="386"/>
+      <c r="P10" s="387"/>
+      <c r="Q10" s="399"/>
+      <c r="R10" s="400"/>
+      <c r="S10" s="399"/>
+      <c r="T10" s="446"/>
+      <c r="U10" s="400"/>
+      <c r="V10" s="407"/>
+      <c r="W10" s="408"/>
+      <c r="X10" s="408"/>
+      <c r="Y10" s="408"/>
+      <c r="Z10" s="408"/>
+      <c r="AA10" s="408"/>
+      <c r="AB10" s="409"/>
+      <c r="AC10" s="438"/>
+      <c r="AD10" s="450"/>
+      <c r="AE10" s="451"/>
+      <c r="AF10" s="451"/>
+      <c r="AG10" s="452"/>
+      <c r="AH10" s="441"/>
+      <c r="AI10" s="442"/>
+    </row>
+    <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="124">
         <v>2</v>
       </c>
-      <c r="B11" s="401"/>
-      <c r="C11" s="402"/>
-      <c r="D11" s="402"/>
-      <c r="E11" s="402"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="443"/>
-      <c r="H11" s="444"/>
-      <c r="I11" s="445"/>
-      <c r="J11" s="401"/>
-      <c r="K11" s="402"/>
-      <c r="L11" s="402"/>
-      <c r="M11" s="402"/>
-      <c r="N11" s="402"/>
-      <c r="O11" s="402"/>
-      <c r="P11" s="403"/>
-      <c r="Q11" s="410"/>
-      <c r="R11" s="412"/>
-      <c r="S11" s="410"/>
-      <c r="T11" s="411"/>
-      <c r="U11" s="412"/>
-      <c r="V11" s="393"/>
-      <c r="W11" s="394"/>
-      <c r="X11" s="394"/>
-      <c r="Y11" s="394"/>
-      <c r="Z11" s="394"/>
-      <c r="AA11" s="394"/>
-      <c r="AB11" s="395"/>
-      <c r="AC11" s="433"/>
-      <c r="AD11" s="379"/>
-      <c r="AE11" s="380"/>
-      <c r="AF11" s="380"/>
-      <c r="AG11" s="381"/>
-      <c r="AH11" s="391"/>
-      <c r="AI11" s="392"/>
-    </row>
-    <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="373"/>
+      <c r="C11" s="374"/>
+      <c r="D11" s="374"/>
+      <c r="E11" s="374"/>
+      <c r="F11" s="375"/>
+      <c r="G11" s="396"/>
+      <c r="H11" s="397"/>
+      <c r="I11" s="398"/>
+      <c r="J11" s="373"/>
+      <c r="K11" s="374"/>
+      <c r="L11" s="374"/>
+      <c r="M11" s="374"/>
+      <c r="N11" s="374"/>
+      <c r="O11" s="374"/>
+      <c r="P11" s="375"/>
+      <c r="Q11" s="379"/>
+      <c r="R11" s="380"/>
+      <c r="S11" s="379"/>
+      <c r="T11" s="384"/>
+      <c r="U11" s="380"/>
+      <c r="V11" s="410"/>
+      <c r="W11" s="411"/>
+      <c r="X11" s="411"/>
+      <c r="Y11" s="411"/>
+      <c r="Z11" s="411"/>
+      <c r="AA11" s="411"/>
+      <c r="AB11" s="412"/>
+      <c r="AC11" s="439"/>
+      <c r="AD11" s="453"/>
+      <c r="AE11" s="454"/>
+      <c r="AF11" s="454"/>
+      <c r="AG11" s="455"/>
+      <c r="AH11" s="388"/>
+      <c r="AI11" s="389"/>
+    </row>
+    <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="124">
         <v>3</v>
       </c>
-      <c r="B12" s="401"/>
-      <c r="C12" s="402"/>
-      <c r="D12" s="402"/>
-      <c r="E12" s="402"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="443"/>
-      <c r="H12" s="444"/>
-      <c r="I12" s="445"/>
-      <c r="J12" s="401"/>
-      <c r="K12" s="402"/>
-      <c r="L12" s="402"/>
-      <c r="M12" s="402"/>
-      <c r="N12" s="402"/>
-      <c r="O12" s="402"/>
-      <c r="P12" s="403"/>
-      <c r="Q12" s="410"/>
-      <c r="R12" s="412"/>
-      <c r="S12" s="410"/>
-      <c r="T12" s="411"/>
-      <c r="U12" s="412"/>
-      <c r="V12" s="393"/>
-      <c r="W12" s="394"/>
-      <c r="X12" s="394"/>
-      <c r="Y12" s="394"/>
-      <c r="Z12" s="394"/>
-      <c r="AA12" s="394"/>
-      <c r="AB12" s="395"/>
-      <c r="AC12" s="433"/>
-      <c r="AD12" s="382"/>
-      <c r="AE12" s="383"/>
-      <c r="AF12" s="383"/>
-      <c r="AG12" s="384"/>
-      <c r="AH12" s="391"/>
-      <c r="AI12" s="392"/>
-    </row>
-    <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="373"/>
+      <c r="C12" s="374"/>
+      <c r="D12" s="374"/>
+      <c r="E12" s="374"/>
+      <c r="F12" s="375"/>
+      <c r="G12" s="396"/>
+      <c r="H12" s="397"/>
+      <c r="I12" s="398"/>
+      <c r="J12" s="373"/>
+      <c r="K12" s="374"/>
+      <c r="L12" s="374"/>
+      <c r="M12" s="374"/>
+      <c r="N12" s="374"/>
+      <c r="O12" s="374"/>
+      <c r="P12" s="375"/>
+      <c r="Q12" s="379"/>
+      <c r="R12" s="380"/>
+      <c r="S12" s="379"/>
+      <c r="T12" s="384"/>
+      <c r="U12" s="380"/>
+      <c r="V12" s="410"/>
+      <c r="W12" s="411"/>
+      <c r="X12" s="411"/>
+      <c r="Y12" s="411"/>
+      <c r="Z12" s="411"/>
+      <c r="AA12" s="411"/>
+      <c r="AB12" s="412"/>
+      <c r="AC12" s="439"/>
+      <c r="AD12" s="413"/>
+      <c r="AE12" s="414"/>
+      <c r="AF12" s="414"/>
+      <c r="AG12" s="415"/>
+      <c r="AH12" s="388"/>
+      <c r="AI12" s="389"/>
+    </row>
+    <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="124">
         <v>4</v>
       </c>
-      <c r="B13" s="401"/>
-      <c r="C13" s="402"/>
-      <c r="D13" s="402"/>
-      <c r="E13" s="402"/>
-      <c r="F13" s="403"/>
-      <c r="G13" s="443"/>
-      <c r="H13" s="444"/>
-      <c r="I13" s="445"/>
-      <c r="J13" s="401"/>
-      <c r="K13" s="402"/>
-      <c r="L13" s="402"/>
-      <c r="M13" s="402"/>
-      <c r="N13" s="402"/>
-      <c r="O13" s="402"/>
-      <c r="P13" s="403"/>
-      <c r="Q13" s="410"/>
-      <c r="R13" s="412"/>
-      <c r="S13" s="410"/>
-      <c r="T13" s="411"/>
-      <c r="U13" s="412"/>
-      <c r="V13" s="393"/>
-      <c r="W13" s="394"/>
-      <c r="X13" s="394"/>
-      <c r="Y13" s="394"/>
-      <c r="Z13" s="394"/>
-      <c r="AA13" s="394"/>
-      <c r="AB13" s="395"/>
-      <c r="AC13" s="433"/>
-      <c r="AD13" s="382"/>
-      <c r="AE13" s="383"/>
-      <c r="AF13" s="383"/>
-      <c r="AG13" s="384"/>
-      <c r="AH13" s="391"/>
-      <c r="AI13" s="392"/>
-    </row>
-    <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="373"/>
+      <c r="C13" s="374"/>
+      <c r="D13" s="374"/>
+      <c r="E13" s="374"/>
+      <c r="F13" s="375"/>
+      <c r="G13" s="396"/>
+      <c r="H13" s="397"/>
+      <c r="I13" s="398"/>
+      <c r="J13" s="373"/>
+      <c r="K13" s="374"/>
+      <c r="L13" s="374"/>
+      <c r="M13" s="374"/>
+      <c r="N13" s="374"/>
+      <c r="O13" s="374"/>
+      <c r="P13" s="375"/>
+      <c r="Q13" s="379"/>
+      <c r="R13" s="380"/>
+      <c r="S13" s="379"/>
+      <c r="T13" s="384"/>
+      <c r="U13" s="380"/>
+      <c r="V13" s="410"/>
+      <c r="W13" s="411"/>
+      <c r="X13" s="411"/>
+      <c r="Y13" s="411"/>
+      <c r="Z13" s="411"/>
+      <c r="AA13" s="411"/>
+      <c r="AB13" s="412"/>
+      <c r="AC13" s="439"/>
+      <c r="AD13" s="413"/>
+      <c r="AE13" s="414"/>
+      <c r="AF13" s="414"/>
+      <c r="AG13" s="415"/>
+      <c r="AH13" s="388"/>
+      <c r="AI13" s="389"/>
+    </row>
+    <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="124">
         <v>5</v>
       </c>
-      <c r="B14" s="404"/>
-      <c r="C14" s="405"/>
-      <c r="D14" s="405"/>
-      <c r="E14" s="405"/>
-      <c r="F14" s="406"/>
-      <c r="G14" s="401"/>
-      <c r="H14" s="402"/>
-      <c r="I14" s="403"/>
-      <c r="J14" s="401"/>
-      <c r="K14" s="402"/>
-      <c r="L14" s="402"/>
-      <c r="M14" s="402"/>
-      <c r="N14" s="402"/>
-      <c r="O14" s="402"/>
-      <c r="P14" s="403"/>
-      <c r="Q14" s="410"/>
-      <c r="R14" s="412"/>
-      <c r="S14" s="410"/>
-      <c r="T14" s="411"/>
-      <c r="U14" s="412"/>
-      <c r="V14" s="393"/>
-      <c r="W14" s="394"/>
-      <c r="X14" s="394"/>
-      <c r="Y14" s="394"/>
-      <c r="Z14" s="394"/>
-      <c r="AA14" s="394"/>
-      <c r="AB14" s="395"/>
-      <c r="AC14" s="433"/>
-      <c r="AD14" s="382"/>
-      <c r="AE14" s="383"/>
-      <c r="AF14" s="383"/>
-      <c r="AG14" s="384"/>
-      <c r="AH14" s="391"/>
-      <c r="AI14" s="392"/>
-    </row>
-    <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="430"/>
+      <c r="C14" s="431"/>
+      <c r="D14" s="431"/>
+      <c r="E14" s="431"/>
+      <c r="F14" s="432"/>
+      <c r="G14" s="373"/>
+      <c r="H14" s="374"/>
+      <c r="I14" s="375"/>
+      <c r="J14" s="373"/>
+      <c r="K14" s="374"/>
+      <c r="L14" s="374"/>
+      <c r="M14" s="374"/>
+      <c r="N14" s="374"/>
+      <c r="O14" s="374"/>
+      <c r="P14" s="375"/>
+      <c r="Q14" s="379"/>
+      <c r="R14" s="380"/>
+      <c r="S14" s="379"/>
+      <c r="T14" s="384"/>
+      <c r="U14" s="380"/>
+      <c r="V14" s="410"/>
+      <c r="W14" s="411"/>
+      <c r="X14" s="411"/>
+      <c r="Y14" s="411"/>
+      <c r="Z14" s="411"/>
+      <c r="AA14" s="411"/>
+      <c r="AB14" s="412"/>
+      <c r="AC14" s="439"/>
+      <c r="AD14" s="413"/>
+      <c r="AE14" s="414"/>
+      <c r="AF14" s="414"/>
+      <c r="AG14" s="415"/>
+      <c r="AH14" s="388"/>
+      <c r="AI14" s="389"/>
+    </row>
+    <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="124">
         <v>6</v>
       </c>
-      <c r="B15" s="404"/>
-      <c r="C15" s="405"/>
-      <c r="D15" s="405"/>
-      <c r="E15" s="405"/>
-      <c r="F15" s="406"/>
-      <c r="G15" s="401"/>
-      <c r="H15" s="402"/>
-      <c r="I15" s="403"/>
-      <c r="J15" s="401"/>
-      <c r="K15" s="402"/>
-      <c r="L15" s="402"/>
-      <c r="M15" s="402"/>
-      <c r="N15" s="402"/>
-      <c r="O15" s="402"/>
-      <c r="P15" s="403"/>
-      <c r="Q15" s="410"/>
-      <c r="R15" s="412"/>
-      <c r="S15" s="410"/>
-      <c r="T15" s="411"/>
-      <c r="U15" s="412"/>
-      <c r="V15" s="393"/>
-      <c r="W15" s="394"/>
-      <c r="X15" s="394"/>
-      <c r="Y15" s="394"/>
-      <c r="Z15" s="394"/>
-      <c r="AA15" s="394"/>
-      <c r="AB15" s="395"/>
-      <c r="AC15" s="433"/>
-      <c r="AD15" s="382"/>
-      <c r="AE15" s="383"/>
-      <c r="AF15" s="383"/>
-      <c r="AG15" s="384"/>
-      <c r="AH15" s="391"/>
-      <c r="AI15" s="392"/>
-    </row>
-    <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="430"/>
+      <c r="C15" s="431"/>
+      <c r="D15" s="431"/>
+      <c r="E15" s="431"/>
+      <c r="F15" s="432"/>
+      <c r="G15" s="373"/>
+      <c r="H15" s="374"/>
+      <c r="I15" s="375"/>
+      <c r="J15" s="373"/>
+      <c r="K15" s="374"/>
+      <c r="L15" s="374"/>
+      <c r="M15" s="374"/>
+      <c r="N15" s="374"/>
+      <c r="O15" s="374"/>
+      <c r="P15" s="375"/>
+      <c r="Q15" s="379"/>
+      <c r="R15" s="380"/>
+      <c r="S15" s="379"/>
+      <c r="T15" s="384"/>
+      <c r="U15" s="380"/>
+      <c r="V15" s="410"/>
+      <c r="W15" s="411"/>
+      <c r="X15" s="411"/>
+      <c r="Y15" s="411"/>
+      <c r="Z15" s="411"/>
+      <c r="AA15" s="411"/>
+      <c r="AB15" s="412"/>
+      <c r="AC15" s="439"/>
+      <c r="AD15" s="413"/>
+      <c r="AE15" s="414"/>
+      <c r="AF15" s="414"/>
+      <c r="AG15" s="415"/>
+      <c r="AH15" s="388"/>
+      <c r="AI15" s="389"/>
+    </row>
+    <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="125">
         <v>7</v>
       </c>
-      <c r="B16" s="404"/>
-      <c r="C16" s="405"/>
-      <c r="D16" s="405"/>
-      <c r="E16" s="405"/>
-      <c r="F16" s="406"/>
-      <c r="G16" s="401"/>
-      <c r="H16" s="402"/>
-      <c r="I16" s="403"/>
-      <c r="J16" s="401"/>
-      <c r="K16" s="402"/>
-      <c r="L16" s="402"/>
-      <c r="M16" s="402"/>
-      <c r="N16" s="402"/>
-      <c r="O16" s="402"/>
-      <c r="P16" s="403"/>
-      <c r="Q16" s="410"/>
-      <c r="R16" s="412"/>
-      <c r="S16" s="410"/>
-      <c r="T16" s="411"/>
-      <c r="U16" s="412"/>
-      <c r="V16" s="393"/>
-      <c r="W16" s="394"/>
-      <c r="X16" s="394"/>
-      <c r="Y16" s="394"/>
-      <c r="Z16" s="394"/>
-      <c r="AA16" s="394"/>
-      <c r="AB16" s="395"/>
-      <c r="AC16" s="433"/>
-      <c r="AD16" s="382"/>
-      <c r="AE16" s="383"/>
-      <c r="AF16" s="383"/>
-      <c r="AG16" s="384"/>
-      <c r="AH16" s="391"/>
-      <c r="AI16" s="392"/>
-    </row>
-    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="430"/>
+      <c r="C16" s="431"/>
+      <c r="D16" s="431"/>
+      <c r="E16" s="431"/>
+      <c r="F16" s="432"/>
+      <c r="G16" s="373"/>
+      <c r="H16" s="374"/>
+      <c r="I16" s="375"/>
+      <c r="J16" s="373"/>
+      <c r="K16" s="374"/>
+      <c r="L16" s="374"/>
+      <c r="M16" s="374"/>
+      <c r="N16" s="374"/>
+      <c r="O16" s="374"/>
+      <c r="P16" s="375"/>
+      <c r="Q16" s="379"/>
+      <c r="R16" s="380"/>
+      <c r="S16" s="379"/>
+      <c r="T16" s="384"/>
+      <c r="U16" s="380"/>
+      <c r="V16" s="410"/>
+      <c r="W16" s="411"/>
+      <c r="X16" s="411"/>
+      <c r="Y16" s="411"/>
+      <c r="Z16" s="411"/>
+      <c r="AA16" s="411"/>
+      <c r="AB16" s="412"/>
+      <c r="AC16" s="439"/>
+      <c r="AD16" s="413"/>
+      <c r="AE16" s="414"/>
+      <c r="AF16" s="414"/>
+      <c r="AG16" s="415"/>
+      <c r="AH16" s="388"/>
+      <c r="AI16" s="389"/>
+    </row>
+    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="125">
         <v>8</v>
       </c>
-      <c r="B17" s="404"/>
-      <c r="C17" s="405"/>
-      <c r="D17" s="405"/>
-      <c r="E17" s="405"/>
-      <c r="F17" s="406"/>
-      <c r="G17" s="401"/>
-      <c r="H17" s="402"/>
-      <c r="I17" s="403"/>
-      <c r="J17" s="401"/>
-      <c r="K17" s="402"/>
-      <c r="L17" s="402"/>
-      <c r="M17" s="402"/>
-      <c r="N17" s="402"/>
-      <c r="O17" s="402"/>
-      <c r="P17" s="403"/>
-      <c r="Q17" s="410"/>
-      <c r="R17" s="412"/>
-      <c r="S17" s="410"/>
-      <c r="T17" s="411"/>
-      <c r="U17" s="412"/>
-      <c r="V17" s="393"/>
-      <c r="W17" s="394"/>
-      <c r="X17" s="394"/>
-      <c r="Y17" s="394"/>
-      <c r="Z17" s="394"/>
-      <c r="AA17" s="394"/>
-      <c r="AB17" s="395"/>
-      <c r="AC17" s="433"/>
-      <c r="AD17" s="382"/>
-      <c r="AE17" s="383"/>
-      <c r="AF17" s="383"/>
-      <c r="AG17" s="384"/>
-      <c r="AH17" s="391"/>
-      <c r="AI17" s="392"/>
-    </row>
-    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="430"/>
+      <c r="C17" s="431"/>
+      <c r="D17" s="431"/>
+      <c r="E17" s="431"/>
+      <c r="F17" s="432"/>
+      <c r="G17" s="373"/>
+      <c r="H17" s="374"/>
+      <c r="I17" s="375"/>
+      <c r="J17" s="373"/>
+      <c r="K17" s="374"/>
+      <c r="L17" s="374"/>
+      <c r="M17" s="374"/>
+      <c r="N17" s="374"/>
+      <c r="O17" s="374"/>
+      <c r="P17" s="375"/>
+      <c r="Q17" s="379"/>
+      <c r="R17" s="380"/>
+      <c r="S17" s="379"/>
+      <c r="T17" s="384"/>
+      <c r="U17" s="380"/>
+      <c r="V17" s="410"/>
+      <c r="W17" s="411"/>
+      <c r="X17" s="411"/>
+      <c r="Y17" s="411"/>
+      <c r="Z17" s="411"/>
+      <c r="AA17" s="411"/>
+      <c r="AB17" s="412"/>
+      <c r="AC17" s="439"/>
+      <c r="AD17" s="413"/>
+      <c r="AE17" s="414"/>
+      <c r="AF17" s="414"/>
+      <c r="AG17" s="415"/>
+      <c r="AH17" s="388"/>
+      <c r="AI17" s="389"/>
+    </row>
+    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="126">
         <v>9</v>
       </c>
-      <c r="B18" s="427"/>
-      <c r="C18" s="428"/>
-      <c r="D18" s="428"/>
-      <c r="E18" s="428"/>
-      <c r="F18" s="429"/>
-      <c r="G18" s="424"/>
-      <c r="H18" s="425"/>
-      <c r="I18" s="426"/>
-      <c r="J18" s="424"/>
-      <c r="K18" s="425"/>
-      <c r="L18" s="425"/>
-      <c r="M18" s="425"/>
-      <c r="N18" s="425"/>
-      <c r="O18" s="425"/>
-      <c r="P18" s="426"/>
-      <c r="Q18" s="421"/>
-      <c r="R18" s="423"/>
-      <c r="S18" s="421"/>
-      <c r="T18" s="422"/>
-      <c r="U18" s="423"/>
-      <c r="V18" s="416"/>
-      <c r="W18" s="417"/>
-      <c r="X18" s="417"/>
-      <c r="Y18" s="417"/>
-      <c r="Z18" s="417"/>
-      <c r="AA18" s="417"/>
-      <c r="AB18" s="418"/>
-      <c r="AC18" s="434"/>
-      <c r="AD18" s="373"/>
-      <c r="AE18" s="374"/>
-      <c r="AF18" s="374"/>
-      <c r="AG18" s="375"/>
-      <c r="AH18" s="430"/>
-      <c r="AI18" s="431"/>
-    </row>
-    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="419"/>
-      <c r="B19" s="420"/>
-      <c r="C19" s="420"/>
-      <c r="D19" s="420"/>
-      <c r="E19" s="420"/>
-      <c r="F19" s="420"/>
+      <c r="B18" s="433"/>
+      <c r="C18" s="434"/>
+      <c r="D18" s="434"/>
+      <c r="E18" s="434"/>
+      <c r="F18" s="435"/>
+      <c r="G18" s="427"/>
+      <c r="H18" s="428"/>
+      <c r="I18" s="429"/>
+      <c r="J18" s="427"/>
+      <c r="K18" s="428"/>
+      <c r="L18" s="428"/>
+      <c r="M18" s="428"/>
+      <c r="N18" s="428"/>
+      <c r="O18" s="428"/>
+      <c r="P18" s="429"/>
+      <c r="Q18" s="424"/>
+      <c r="R18" s="426"/>
+      <c r="S18" s="424"/>
+      <c r="T18" s="425"/>
+      <c r="U18" s="426"/>
+      <c r="V18" s="419"/>
+      <c r="W18" s="420"/>
+      <c r="X18" s="420"/>
+      <c r="Y18" s="420"/>
+      <c r="Z18" s="420"/>
+      <c r="AA18" s="420"/>
+      <c r="AB18" s="421"/>
+      <c r="AC18" s="440"/>
+      <c r="AD18" s="447"/>
+      <c r="AE18" s="448"/>
+      <c r="AF18" s="448"/>
+      <c r="AG18" s="449"/>
+      <c r="AH18" s="436"/>
+      <c r="AI18" s="437"/>
+    </row>
+    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="422"/>
+      <c r="B19" s="423"/>
+      <c r="C19" s="423"/>
+      <c r="D19" s="423"/>
+      <c r="E19" s="423"/>
+      <c r="F19" s="423"/>
       <c r="G19" s="127"/>
       <c r="H19" s="127"/>
       <c r="I19" s="127"/>
@@ -12319,23 +12326,23 @@
       <c r="AA19" s="127"/>
       <c r="AB19" s="127"/>
       <c r="AC19" s="128"/>
-      <c r="AD19" s="415"/>
-      <c r="AE19" s="415"/>
-      <c r="AF19" s="415"/>
-      <c r="AG19" s="415"/>
-      <c r="AH19" s="415"/>
+      <c r="AD19" s="418"/>
+      <c r="AE19" s="418"/>
+      <c r="AF19" s="418"/>
+      <c r="AG19" s="418"/>
+      <c r="AH19" s="418"/>
       <c r="AI19" s="63"/>
       <c r="AJ19" s="129"/>
     </row>
-    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="413" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="414"/>
-      <c r="C20" s="414"/>
-      <c r="D20" s="414"/>
-      <c r="E20" s="414"/>
-      <c r="F20" s="414"/>
+    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="416" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="417"/>
+      <c r="C20" s="417"/>
+      <c r="D20" s="417"/>
+      <c r="E20" s="417"/>
+      <c r="F20" s="417"/>
       <c r="G20" s="130"/>
       <c r="H20" s="131"/>
       <c r="I20" s="131"/>
@@ -12374,7 +12381,7 @@
       <c r="AT20" s="60"/>
       <c r="AU20" s="60"/>
     </row>
-    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="134"/>
       <c r="B21" s="135"/>
       <c r="C21" s="136"/>
@@ -12420,7 +12427,7 @@
       <c r="AT21" s="60"/>
       <c r="AU21" s="60"/>
     </row>
-    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="134"/>
       <c r="B22" s="135"/>
       <c r="C22" s="135"/>
@@ -12466,7 +12473,7 @@
       <c r="AT22" s="60"/>
       <c r="AU22" s="60"/>
     </row>
-    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="134"/>
       <c r="B23" s="135"/>
       <c r="C23" s="135"/>
@@ -12512,7 +12519,7 @@
       <c r="AT23" s="60"/>
       <c r="AU23" s="60"/>
     </row>
-    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="134"/>
       <c r="B24" s="135"/>
       <c r="C24" s="135"/>
@@ -12558,7 +12565,7 @@
       <c r="AT24" s="60"/>
       <c r="AU24" s="60"/>
     </row>
-    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="134"/>
       <c r="B25" s="135"/>
       <c r="C25" s="135"/>
@@ -12604,7 +12611,7 @@
       <c r="AT25" s="60"/>
       <c r="AU25" s="60"/>
     </row>
-    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="134"/>
       <c r="B26" s="135"/>
       <c r="C26" s="135"/>
@@ -12650,7 +12657,7 @@
       <c r="AT26" s="60"/>
       <c r="AU26" s="60"/>
     </row>
-    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="134"/>
       <c r="B27" s="135"/>
       <c r="C27" s="135"/>
@@ -12696,7 +12703,7 @@
       <c r="AT27" s="60"/>
       <c r="AU27" s="60"/>
     </row>
-    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="134"/>
       <c r="B28" s="136"/>
       <c r="C28" s="136"/>
@@ -12742,7 +12749,7 @@
       <c r="AT28" s="60"/>
       <c r="AU28" s="60"/>
     </row>
-    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="134"/>
       <c r="B29" s="136"/>
       <c r="C29" s="135"/>
@@ -12788,7 +12795,7 @@
       <c r="AT29" s="60"/>
       <c r="AU29" s="60"/>
     </row>
-    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="142"/>
       <c r="B30" s="143"/>
       <c r="C30" s="144"/>
@@ -12834,7 +12841,7 @@
       <c r="AT30" s="60"/>
       <c r="AU30" s="60"/>
     </row>
-    <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="147"/>
       <c r="B31" s="64"/>
       <c r="C31" s="129"/>
@@ -12882,20 +12889,72 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AC10:AC18"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AH16:AI16"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
@@ -12920,72 +12979,20 @@
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="V10:AB10"/>
     <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AC10:AC18"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="J10:P10"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -13016,179 +13023,179 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="4.83203125" style="60"/>
-    <col min="9" max="9" width="7.1640625" style="60" customWidth="1"/>
-    <col min="10" max="22" width="4.83203125" style="60"/>
-    <col min="23" max="23" width="6.1640625" style="60" customWidth="1"/>
-    <col min="24" max="16384" width="4.83203125" style="60"/>
+    <col min="1" max="8" width="4.875" style="60"/>
+    <col min="9" max="9" width="7.125" style="60" customWidth="1"/>
+    <col min="10" max="22" width="4.875" style="60"/>
+    <col min="23" max="23" width="6.125" style="60" customWidth="1"/>
+    <col min="24" max="16384" width="4.875" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="308" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="317" t="str">
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="320" t="s">
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="321"/>
-      <c r="Q1" s="321"/>
-      <c r="R1" s="322"/>
-      <c r="S1" s="307" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="308"/>
-      <c r="U1" s="308"/>
-      <c r="V1" s="308"/>
-      <c r="W1" s="308"/>
-      <c r="X1" s="308"/>
-      <c r="Y1" s="308"/>
-      <c r="Z1" s="309"/>
-      <c r="AA1" s="305" t="s">
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="301"/>
+      <c r="AA1" s="308" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="306"/>
-      <c r="AC1" s="302" t="str">
+      <c r="AB1" s="310"/>
+      <c r="AC1" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="303"/>
-      <c r="AE1" s="303"/>
-      <c r="AF1" s="304"/>
-      <c r="AG1" s="329">
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="328"/>
+      <c r="AG1" s="370">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="330"/>
-      <c r="AI1" s="331"/>
+      <c r="AH1" s="371"/>
+      <c r="AI1" s="372"/>
     </row>
     <row r="2" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="305" t="s">
+      <c r="A2" s="308" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="317" t="str">
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="318"/>
-      <c r="G2" s="318"/>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="318"/>
-      <c r="L2" s="318"/>
-      <c r="M2" s="318"/>
-      <c r="N2" s="319"/>
-      <c r="O2" s="323"/>
-      <c r="P2" s="324"/>
-      <c r="Q2" s="324"/>
-      <c r="R2" s="325"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="311"/>
-      <c r="U2" s="311"/>
-      <c r="V2" s="311"/>
-      <c r="W2" s="311"/>
-      <c r="X2" s="311"/>
-      <c r="Y2" s="311"/>
-      <c r="Z2" s="312"/>
-      <c r="AA2" s="305" t="s">
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="308" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="306"/>
-      <c r="AC2" s="302" t="str">
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="303"/>
-      <c r="AE2" s="303"/>
-      <c r="AF2" s="304"/>
-      <c r="AG2" s="329" t="str">
+      <c r="AD2" s="327"/>
+      <c r="AE2" s="327"/>
+      <c r="AF2" s="328"/>
+      <c r="AG2" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="330"/>
-      <c r="AI2" s="331"/>
+      <c r="AH2" s="371"/>
+      <c r="AI2" s="372"/>
     </row>
     <row r="3" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="305" t="s">
+      <c r="A3" s="308" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="317" t="str">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="318"/>
-      <c r="N3" s="319"/>
-      <c r="O3" s="326"/>
-      <c r="P3" s="327"/>
-      <c r="Q3" s="327"/>
-      <c r="R3" s="328"/>
-      <c r="S3" s="313"/>
-      <c r="T3" s="314"/>
-      <c r="U3" s="314"/>
-      <c r="V3" s="314"/>
-      <c r="W3" s="314"/>
-      <c r="X3" s="314"/>
-      <c r="Y3" s="314"/>
-      <c r="Z3" s="315"/>
-      <c r="AA3" s="305"/>
-      <c r="AB3" s="306"/>
-      <c r="AC3" s="302" t="str">
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="312"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="305"/>
+      <c r="T3" s="306"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="306"/>
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="303"/>
-      <c r="AE3" s="303"/>
-      <c r="AF3" s="304"/>
-      <c r="AG3" s="329" t="str">
+      <c r="AD3" s="327"/>
+      <c r="AE3" s="327"/>
+      <c r="AF3" s="328"/>
+      <c r="AG3" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="330"/>
-      <c r="AI3" s="331"/>
+      <c r="AH3" s="371"/>
+      <c r="AI3" s="372"/>
     </row>
     <row r="4" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
     </row>
-    <row r="6" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
@@ -13223,60 +13230,60 @@
       <c r="A7" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="472" t="s">
+      <c r="B7" s="480" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="473"/>
-      <c r="D7" s="473"/>
-      <c r="E7" s="473"/>
-      <c r="F7" s="474"/>
-      <c r="G7" s="472" t="s">
+      <c r="C7" s="481"/>
+      <c r="D7" s="481"/>
+      <c r="E7" s="481"/>
+      <c r="F7" s="482"/>
+      <c r="G7" s="480" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="473"/>
-      <c r="I7" s="473"/>
-      <c r="J7" s="473"/>
-      <c r="K7" s="474"/>
-      <c r="L7" s="472" t="s">
+      <c r="H7" s="481"/>
+      <c r="I7" s="481"/>
+      <c r="J7" s="481"/>
+      <c r="K7" s="482"/>
+      <c r="L7" s="480" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="473"/>
-      <c r="N7" s="473"/>
-      <c r="O7" s="473"/>
-      <c r="P7" s="474"/>
+      <c r="M7" s="481"/>
+      <c r="N7" s="481"/>
+      <c r="O7" s="481"/>
+      <c r="P7" s="482"/>
       <c r="Q7" s="238" t="s">
-        <v>130</v>
-      </c>
-      <c r="R7" s="482" t="s">
+        <v>129</v>
+      </c>
+      <c r="R7" s="474" t="s">
         <v>69</v>
       </c>
-      <c r="S7" s="482"/>
-      <c r="T7" s="482"/>
-      <c r="U7" s="482"/>
-      <c r="V7" s="483" t="s">
+      <c r="S7" s="474"/>
+      <c r="T7" s="474"/>
+      <c r="U7" s="474"/>
+      <c r="V7" s="475" t="s">
         <v>70</v>
       </c>
-      <c r="W7" s="484"/>
-      <c r="X7" s="483" t="s">
+      <c r="W7" s="476"/>
+      <c r="X7" s="475" t="s">
         <v>71</v>
       </c>
-      <c r="Y7" s="484"/>
-      <c r="Z7" s="472" t="s">
+      <c r="Y7" s="476"/>
+      <c r="Z7" s="480" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="473"/>
-      <c r="AB7" s="474"/>
-      <c r="AC7" s="472" t="s">
+      <c r="AA7" s="481"/>
+      <c r="AB7" s="482"/>
+      <c r="AC7" s="480" t="s">
         <v>73</v>
       </c>
-      <c r="AD7" s="473"/>
-      <c r="AE7" s="473"/>
-      <c r="AF7" s="473"/>
-      <c r="AG7" s="473"/>
-      <c r="AH7" s="473"/>
-      <c r="AI7" s="473"/>
-      <c r="AJ7" s="473"/>
-      <c r="AK7" s="474"/>
+      <c r="AD7" s="481"/>
+      <c r="AE7" s="481"/>
+      <c r="AF7" s="481"/>
+      <c r="AG7" s="481"/>
+      <c r="AH7" s="481"/>
+      <c r="AI7" s="481"/>
+      <c r="AJ7" s="481"/>
+      <c r="AK7" s="482"/>
       <c r="AL7" s="239"/>
       <c r="AM7" s="239"/>
       <c r="AN7" s="239"/>
@@ -13332,52 +13339,52 @@
       <c r="CL7" s="240"/>
       <c r="CM7" s="240"/>
     </row>
-    <row r="8" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65">
         <v>1</v>
       </c>
-      <c r="B8" s="464" t="s">
+      <c r="B8" s="461" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="465"/>
-      <c r="D8" s="465"/>
-      <c r="E8" s="465"/>
-      <c r="F8" s="466"/>
-      <c r="G8" s="461" t="s">
+      <c r="C8" s="462"/>
+      <c r="D8" s="462"/>
+      <c r="E8" s="462"/>
+      <c r="F8" s="463"/>
+      <c r="G8" s="464" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="462"/>
-      <c r="I8" s="462"/>
-      <c r="J8" s="462"/>
-      <c r="K8" s="463"/>
-      <c r="L8" s="464"/>
-      <c r="M8" s="465"/>
-      <c r="N8" s="465"/>
-      <c r="O8" s="465"/>
-      <c r="P8" s="466"/>
+      <c r="H8" s="465"/>
+      <c r="I8" s="465"/>
+      <c r="J8" s="465"/>
+      <c r="K8" s="466"/>
+      <c r="L8" s="461"/>
+      <c r="M8" s="462"/>
+      <c r="N8" s="462"/>
+      <c r="O8" s="462"/>
+      <c r="P8" s="463"/>
       <c r="Q8" s="66"/>
-      <c r="R8" s="464"/>
-      <c r="S8" s="465"/>
-      <c r="T8" s="465"/>
-      <c r="U8" s="466"/>
-      <c r="V8" s="470" t="s">
-        <v>76</v>
-      </c>
-      <c r="W8" s="471"/>
-      <c r="X8" s="475"/>
-      <c r="Y8" s="476"/>
-      <c r="Z8" s="464"/>
-      <c r="AA8" s="465"/>
-      <c r="AB8" s="466"/>
-      <c r="AC8" s="464"/>
-      <c r="AD8" s="465"/>
-      <c r="AE8" s="465"/>
-      <c r="AF8" s="465"/>
-      <c r="AG8" s="465"/>
-      <c r="AH8" s="465"/>
-      <c r="AI8" s="465"/>
-      <c r="AJ8" s="465"/>
-      <c r="AK8" s="466"/>
+      <c r="R8" s="461"/>
+      <c r="S8" s="462"/>
+      <c r="T8" s="462"/>
+      <c r="U8" s="463"/>
+      <c r="V8" s="485" t="s">
+        <v>135</v>
+      </c>
+      <c r="W8" s="486"/>
+      <c r="X8" s="483"/>
+      <c r="Y8" s="484"/>
+      <c r="Z8" s="461"/>
+      <c r="AA8" s="462"/>
+      <c r="AB8" s="463"/>
+      <c r="AC8" s="461"/>
+      <c r="AD8" s="462"/>
+      <c r="AE8" s="462"/>
+      <c r="AF8" s="462"/>
+      <c r="AG8" s="462"/>
+      <c r="AH8" s="462"/>
+      <c r="AI8" s="462"/>
+      <c r="AJ8" s="462"/>
+      <c r="AK8" s="463"/>
       <c r="AL8" s="64"/>
       <c r="AM8" s="64"/>
       <c r="AN8" s="64"/>
@@ -13432,58 +13439,58 @@
       <c r="CL8" s="64"/>
       <c r="CM8" s="64"/>
     </row>
-    <row r="9" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65">
         <v>2</v>
       </c>
-      <c r="B9" s="464" t="s">
+      <c r="B9" s="461" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="462"/>
+      <c r="D9" s="462"/>
+      <c r="E9" s="462"/>
+      <c r="F9" s="463"/>
+      <c r="G9" s="464" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="465"/>
-      <c r="D9" s="465"/>
-      <c r="E9" s="465"/>
-      <c r="F9" s="466"/>
-      <c r="G9" s="461" t="s">
+      <c r="H9" s="465"/>
+      <c r="I9" s="465"/>
+      <c r="J9" s="465"/>
+      <c r="K9" s="466"/>
+      <c r="L9" s="461" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="462"/>
+      <c r="N9" s="462"/>
+      <c r="O9" s="462"/>
+      <c r="P9" s="463"/>
+      <c r="Q9" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="R9" s="461" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="462"/>
-      <c r="I9" s="462"/>
-      <c r="J9" s="462"/>
-      <c r="K9" s="463"/>
-      <c r="L9" s="464" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="465"/>
-      <c r="N9" s="465"/>
-      <c r="O9" s="465"/>
-      <c r="P9" s="466"/>
-      <c r="Q9" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="R9" s="464" t="s">
-        <v>79</v>
-      </c>
-      <c r="S9" s="465"/>
-      <c r="T9" s="465"/>
-      <c r="U9" s="466"/>
-      <c r="V9" s="470">
+      <c r="S9" s="462"/>
+      <c r="T9" s="462"/>
+      <c r="U9" s="463"/>
+      <c r="V9" s="467">
         <v>1</v>
       </c>
-      <c r="W9" s="471"/>
-      <c r="X9" s="475"/>
-      <c r="Y9" s="476"/>
-      <c r="Z9" s="464"/>
-      <c r="AA9" s="465"/>
-      <c r="AB9" s="466"/>
-      <c r="AC9" s="464"/>
-      <c r="AD9" s="465"/>
-      <c r="AE9" s="465"/>
-      <c r="AF9" s="465"/>
-      <c r="AG9" s="465"/>
-      <c r="AH9" s="465"/>
-      <c r="AI9" s="465"/>
-      <c r="AJ9" s="465"/>
-      <c r="AK9" s="466"/>
+      <c r="W9" s="468"/>
+      <c r="X9" s="483"/>
+      <c r="Y9" s="484"/>
+      <c r="Z9" s="461"/>
+      <c r="AA9" s="462"/>
+      <c r="AB9" s="463"/>
+      <c r="AC9" s="461"/>
+      <c r="AD9" s="462"/>
+      <c r="AE9" s="462"/>
+      <c r="AF9" s="462"/>
+      <c r="AG9" s="462"/>
+      <c r="AH9" s="462"/>
+      <c r="AI9" s="462"/>
+      <c r="AJ9" s="462"/>
+      <c r="AK9" s="463"/>
       <c r="AL9" s="64"/>
       <c r="AM9" s="64"/>
       <c r="AN9" s="64"/>
@@ -13538,58 +13545,58 @@
       <c r="CL9" s="64"/>
       <c r="CM9" s="64"/>
     </row>
-    <row r="10" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65">
         <v>3</v>
       </c>
-      <c r="B10" s="464" t="s">
+      <c r="B10" s="461" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="462"/>
+      <c r="D10" s="462"/>
+      <c r="E10" s="462"/>
+      <c r="F10" s="463"/>
+      <c r="G10" s="464" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="465"/>
-      <c r="D10" s="465"/>
-      <c r="E10" s="465"/>
-      <c r="F10" s="466"/>
-      <c r="G10" s="461" t="s">
+      <c r="H10" s="465"/>
+      <c r="I10" s="465"/>
+      <c r="J10" s="465"/>
+      <c r="K10" s="466"/>
+      <c r="L10" s="461" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="462"/>
+      <c r="N10" s="462"/>
+      <c r="O10" s="462"/>
+      <c r="P10" s="463"/>
+      <c r="Q10" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="R10" s="461" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="462"/>
-      <c r="I10" s="462"/>
-      <c r="J10" s="462"/>
-      <c r="K10" s="463"/>
-      <c r="L10" s="464" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" s="465"/>
-      <c r="N10" s="465"/>
-      <c r="O10" s="465"/>
-      <c r="P10" s="466"/>
-      <c r="Q10" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="R10" s="464" t="s">
-        <v>82</v>
-      </c>
-      <c r="S10" s="465"/>
-      <c r="T10" s="465"/>
-      <c r="U10" s="466"/>
-      <c r="V10" s="470">
+      <c r="S10" s="462"/>
+      <c r="T10" s="462"/>
+      <c r="U10" s="463"/>
+      <c r="V10" s="467">
         <v>1</v>
       </c>
-      <c r="W10" s="471"/>
-      <c r="X10" s="467"/>
-      <c r="Y10" s="469"/>
-      <c r="Z10" s="464"/>
-      <c r="AA10" s="465"/>
-      <c r="AB10" s="466"/>
-      <c r="AC10" s="464"/>
-      <c r="AD10" s="465"/>
-      <c r="AE10" s="465"/>
-      <c r="AF10" s="465"/>
-      <c r="AG10" s="465"/>
-      <c r="AH10" s="465"/>
-      <c r="AI10" s="465"/>
-      <c r="AJ10" s="465"/>
-      <c r="AK10" s="466"/>
+      <c r="W10" s="468"/>
+      <c r="X10" s="477"/>
+      <c r="Y10" s="479"/>
+      <c r="Z10" s="461"/>
+      <c r="AA10" s="462"/>
+      <c r="AB10" s="463"/>
+      <c r="AC10" s="461"/>
+      <c r="AD10" s="462"/>
+      <c r="AE10" s="462"/>
+      <c r="AF10" s="462"/>
+      <c r="AG10" s="462"/>
+      <c r="AH10" s="462"/>
+      <c r="AI10" s="462"/>
+      <c r="AJ10" s="462"/>
+      <c r="AK10" s="463"/>
       <c r="AL10" s="64"/>
       <c r="AM10" s="64"/>
       <c r="AN10" s="64"/>
@@ -13644,44 +13651,44 @@
       <c r="CL10" s="64"/>
       <c r="CM10" s="64"/>
     </row>
-    <row r="11" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="65">
         <v>4</v>
       </c>
-      <c r="B11" s="464" t="s">
+      <c r="B11" s="461" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="462"/>
+      <c r="D11" s="462"/>
+      <c r="E11" s="462"/>
+      <c r="F11" s="463"/>
+      <c r="G11" s="464" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="465"/>
-      <c r="D11" s="465"/>
-      <c r="E11" s="465"/>
-      <c r="F11" s="466"/>
-      <c r="G11" s="461" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="462"/>
-      <c r="I11" s="462"/>
-      <c r="J11" s="462"/>
-      <c r="K11" s="463"/>
-      <c r="L11" s="464" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" s="465"/>
-      <c r="N11" s="465"/>
-      <c r="O11" s="465"/>
-      <c r="P11" s="466"/>
+      <c r="H11" s="465"/>
+      <c r="I11" s="465"/>
+      <c r="J11" s="465"/>
+      <c r="K11" s="466"/>
+      <c r="L11" s="461" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="462"/>
+      <c r="N11" s="462"/>
+      <c r="O11" s="462"/>
+      <c r="P11" s="463"/>
       <c r="Q11" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="R11" s="464" t="s">
-        <v>79</v>
-      </c>
-      <c r="S11" s="465"/>
-      <c r="T11" s="465"/>
-      <c r="U11" s="466"/>
-      <c r="V11" s="470">
+        <v>134</v>
+      </c>
+      <c r="R11" s="461" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11" s="462"/>
+      <c r="T11" s="462"/>
+      <c r="U11" s="463"/>
+      <c r="V11" s="467">
         <v>1</v>
       </c>
-      <c r="W11" s="471"/>
+      <c r="W11" s="468"/>
       <c r="X11" s="67"/>
       <c r="Y11" s="68"/>
       <c r="Z11" s="69"/>
@@ -13752,28 +13759,28 @@
     </row>
     <row r="12" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="65"/>
-      <c r="B12" s="464"/>
-      <c r="C12" s="465"/>
-      <c r="D12" s="465"/>
-      <c r="E12" s="465"/>
-      <c r="F12" s="466"/>
-      <c r="G12" s="467"/>
-      <c r="H12" s="468"/>
-      <c r="I12" s="468"/>
-      <c r="J12" s="468"/>
-      <c r="K12" s="469"/>
-      <c r="L12" s="467"/>
-      <c r="M12" s="468"/>
-      <c r="N12" s="468"/>
-      <c r="O12" s="468"/>
-      <c r="P12" s="469"/>
+      <c r="B12" s="461"/>
+      <c r="C12" s="462"/>
+      <c r="D12" s="462"/>
+      <c r="E12" s="462"/>
+      <c r="F12" s="463"/>
+      <c r="G12" s="477"/>
+      <c r="H12" s="478"/>
+      <c r="I12" s="478"/>
+      <c r="J12" s="478"/>
+      <c r="K12" s="479"/>
+      <c r="L12" s="477"/>
+      <c r="M12" s="478"/>
+      <c r="N12" s="478"/>
+      <c r="O12" s="478"/>
+      <c r="P12" s="479"/>
       <c r="Q12" s="66"/>
-      <c r="R12" s="464"/>
-      <c r="S12" s="465"/>
-      <c r="T12" s="465"/>
-      <c r="U12" s="466"/>
-      <c r="V12" s="470"/>
-      <c r="W12" s="471"/>
+      <c r="R12" s="461"/>
+      <c r="S12" s="462"/>
+      <c r="T12" s="462"/>
+      <c r="U12" s="463"/>
+      <c r="V12" s="467"/>
+      <c r="W12" s="468"/>
       <c r="X12" s="67"/>
       <c r="Y12" s="68"/>
       <c r="Z12" s="69"/>
@@ -13944,48 +13951,48 @@
       <c r="CQ14" s="79"/>
       <c r="CR14" s="79"/>
     </row>
-    <row r="15" spans="1:96" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="477" t="s">
+    <row r="15" spans="1:96" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="469" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="470"/>
+      <c r="C15" s="470"/>
+      <c r="D15" s="470"/>
+      <c r="E15" s="470"/>
+      <c r="F15" s="470"/>
+      <c r="G15" s="470"/>
+      <c r="H15" s="470"/>
+      <c r="I15" s="470"/>
+      <c r="J15" s="470"/>
+      <c r="K15" s="470"/>
+      <c r="L15" s="470"/>
+      <c r="M15" s="470"/>
+      <c r="N15" s="470"/>
+      <c r="O15" s="470"/>
+      <c r="P15" s="470"/>
+      <c r="Q15" s="470"/>
+      <c r="R15" s="470"/>
+      <c r="S15" s="470"/>
+      <c r="T15" s="470"/>
+      <c r="U15" s="470"/>
+      <c r="V15" s="470"/>
+      <c r="W15" s="470"/>
+      <c r="X15" s="470"/>
+      <c r="Y15" s="471" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="478"/>
-      <c r="C15" s="478"/>
-      <c r="D15" s="478"/>
-      <c r="E15" s="478"/>
-      <c r="F15" s="478"/>
-      <c r="G15" s="478"/>
-      <c r="H15" s="478"/>
-      <c r="I15" s="478"/>
-      <c r="J15" s="478"/>
-      <c r="K15" s="478"/>
-      <c r="L15" s="478"/>
-      <c r="M15" s="478"/>
-      <c r="N15" s="478"/>
-      <c r="O15" s="478"/>
-      <c r="P15" s="478"/>
-      <c r="Q15" s="478"/>
-      <c r="R15" s="478"/>
-      <c r="S15" s="478"/>
-      <c r="T15" s="478"/>
-      <c r="U15" s="478"/>
-      <c r="V15" s="478"/>
-      <c r="W15" s="478"/>
-      <c r="X15" s="478"/>
-      <c r="Y15" s="479" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z15" s="480"/>
-      <c r="AA15" s="480"/>
-      <c r="AB15" s="480"/>
-      <c r="AC15" s="480"/>
-      <c r="AD15" s="480"/>
-      <c r="AE15" s="480"/>
-      <c r="AF15" s="480"/>
-      <c r="AG15" s="480"/>
-      <c r="AH15" s="480"/>
-      <c r="AI15" s="480"/>
-      <c r="AJ15" s="480"/>
-      <c r="AK15" s="481"/>
+      <c r="Z15" s="472"/>
+      <c r="AA15" s="472"/>
+      <c r="AB15" s="472"/>
+      <c r="AC15" s="472"/>
+      <c r="AD15" s="472"/>
+      <c r="AE15" s="472"/>
+      <c r="AF15" s="472"/>
+      <c r="AG15" s="472"/>
+      <c r="AH15" s="472"/>
+      <c r="AI15" s="472"/>
+      <c r="AJ15" s="472"/>
+      <c r="AK15" s="473"/>
     </row>
     <row r="16" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="86"/>
@@ -14632,11 +14639,46 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="A15:X15"/>
     <mergeCell ref="Y15:AK15"/>
     <mergeCell ref="R7:U7"/>
@@ -14653,46 +14695,11 @@
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="AC7:AK7"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="AC10:AK10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
@@ -14719,11 +14726,11 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="12"/>
+    <col min="2" max="2" width="35.875" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="9.375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">

--- a/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document_B10101P_Client_Search_Response_Message_(JSON).xlsx
+++ b/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document_B10101P_Client_Search_Response_Message_(JSON).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6A7D3E-75BF-4272-83FA-FDFDFD2696C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3672AB8-60EC-465C-A838-D0389C0CCCB5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="2730" windowWidth="27090" windowHeight="10830" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="59" r:id="rId1"/>
@@ -13,19 +13,19 @@
     <sheet name="Contents" sheetId="62" r:id="rId3"/>
     <sheet name="1. External interface" sheetId="51" r:id="rId4"/>
     <sheet name="2. Record structure" sheetId="52" r:id="rId5"/>
-    <sheet name="Client list" sheetId="61" r:id="rId6"/>
+    <sheet name="3.1. Client list" sheetId="61" r:id="rId6"/>
     <sheet name="データ" sheetId="54" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. External interface'!$A$1:$AI$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. Record structure'!$A$1:$AI$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Client list'!$A$1:$AL$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1. Client list'!$A$1:$AL$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision history'!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. External interface'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. Record structure'!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'Client list'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'3.1. Client list'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Revision history'!$1:$4</definedName>
     <definedName name="データ型">データ!$A$2:$A$17</definedName>
@@ -35,9 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="111">
   <si>
     <t>No.</t>
   </si>
@@ -143,25 +141,16 @@
     <t>Client ID</t>
   </si>
   <si>
-    <t>client_id</t>
-  </si>
-  <si>
     <t>Numbers</t>
   </si>
   <si>
     <t>Client name</t>
   </si>
   <si>
-    <t>client_name</t>
-  </si>
-  <si>
     <t>Double-byte</t>
   </si>
   <si>
     <t>Industry code</t>
-  </si>
-  <si>
-    <t>industry_code</t>
   </si>
   <si>
     <r>
@@ -712,6 +701,18 @@
       </rPr>
       <t>）</t>
     </r>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>clientId</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>clientName</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>industryCode</t>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -2104,659 +2105,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2774,6 +2127,147 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2783,59 +2277,110 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2846,8 +2391,464 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -5258,13 +5259,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5350,7 +5351,7 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>        "client_id": 100, </a:t>
+            <a:t>        "clientId": 100, </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5365,7 +5366,7 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>        "client_name": "</a:t>
+            <a:t>        "clientName": "</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" sz="900">
@@ -5396,7 +5397,7 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>        "industry_code"</a:t>
+            <a:t>        "industryCode"</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US">
@@ -5460,7 +5461,7 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>        "client_id": 101, </a:t>
+            <a:t>        "clientId": 101, </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5475,7 +5476,7 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>        "client_name": "</a:t>
+            <a:t>        "clientName": "</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" sz="900">
@@ -5506,7 +5507,7 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>        "industry_code": "02"</a:t>
+            <a:t>        "industryCode": "02"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5547,7 +5548,7 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>27843</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>187245</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="886557" cy="254493"/>
@@ -6053,7 +6054,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -6082,12 +6083,12 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="219">
+      <c r="I25" s="238">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
         <v>43718</v>
       </c>
-      <c r="J25" s="219"/>
-      <c r="K25" s="219"/>
+      <c r="J25" s="238"/>
+      <c r="K25" s="238"/>
       <c r="L25" s="19"/>
     </row>
     <row r="26" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6711,340 +6712,340 @@
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="91" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="463" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="237" customWidth="1"/>
     <col min="18" max="34" width="4.83203125" style="91" customWidth="1"/>
-    <col min="35" max="35" width="4.83203125" style="463" customWidth="1"/>
+    <col min="35" max="35" width="4.83203125" style="237" customWidth="1"/>
     <col min="36" max="16384" width="4.83203125" style="91"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="395" t="s">
+      <c r="A1" s="285" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="245" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="288" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="289"/>
+      <c r="Q1" s="289"/>
+      <c r="R1" s="290"/>
+      <c r="S1" s="251" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="396"/>
-      <c r="C1" s="396"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="229" t="s">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="285" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="398" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" s="399"/>
-      <c r="Q1" s="399"/>
-      <c r="R1" s="400"/>
-      <c r="S1" s="401" t="s">
-        <v>95</v>
-      </c>
-      <c r="T1" s="402"/>
-      <c r="U1" s="402"/>
-      <c r="V1" s="402"/>
-      <c r="W1" s="402"/>
-      <c r="X1" s="402"/>
-      <c r="Y1" s="402"/>
-      <c r="Z1" s="403"/>
-      <c r="AA1" s="395" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB1" s="397"/>
-      <c r="AC1" s="223" t="str">
+      <c r="AB1" s="287"/>
+      <c r="AC1" s="239" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="224"/>
-      <c r="AE1" s="224"/>
-      <c r="AF1" s="225"/>
-      <c r="AG1" s="430">
+      <c r="AD1" s="240"/>
+      <c r="AE1" s="240"/>
+      <c r="AF1" s="241"/>
+      <c r="AG1" s="242">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="431"/>
-      <c r="AI1" s="432"/>
+      <c r="AH1" s="243"/>
+      <c r="AI1" s="244"/>
       <c r="AK1" s="170"/>
       <c r="AL1" s="170"/>
       <c r="AM1" s="170"/>
-      <c r="AN1" s="433"/>
+      <c r="AN1" s="220"/>
     </row>
     <row r="2" spans="1:40" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="395" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="396"/>
-      <c r="C2" s="396"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="229" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="404"/>
-      <c r="P2" s="405"/>
-      <c r="Q2" s="405"/>
-      <c r="R2" s="406"/>
-      <c r="S2" s="407"/>
-      <c r="T2" s="408"/>
-      <c r="U2" s="408"/>
-      <c r="V2" s="408"/>
-      <c r="W2" s="408"/>
-      <c r="X2" s="408"/>
-      <c r="Y2" s="408"/>
-      <c r="Z2" s="409"/>
-      <c r="AA2" s="395" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB2" s="397"/>
-      <c r="AC2" s="434" t="str">
+      <c r="A2" s="285" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="245" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="292"/>
+      <c r="Q2" s="292"/>
+      <c r="R2" s="293"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="285" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB2" s="287"/>
+      <c r="AC2" s="248" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="435"/>
-      <c r="AE2" s="435"/>
-      <c r="AF2" s="436"/>
-      <c r="AG2" s="430" t="str">
+      <c r="AD2" s="249"/>
+      <c r="AE2" s="249"/>
+      <c r="AF2" s="250"/>
+      <c r="AG2" s="242" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="431"/>
-      <c r="AI2" s="432"/>
+      <c r="AH2" s="243"/>
+      <c r="AI2" s="244"/>
       <c r="AK2" s="170"/>
       <c r="AL2" s="170"/>
       <c r="AM2" s="170"/>
       <c r="AN2" s="170"/>
     </row>
     <row r="3" spans="1:40" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="395" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="396"/>
-      <c r="C3" s="396"/>
-      <c r="D3" s="397"/>
-      <c r="E3" s="229" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="231"/>
-      <c r="O3" s="410"/>
-      <c r="P3" s="411"/>
-      <c r="Q3" s="411"/>
-      <c r="R3" s="412"/>
-      <c r="S3" s="413"/>
-      <c r="T3" s="414"/>
-      <c r="U3" s="414"/>
-      <c r="V3" s="414"/>
-      <c r="W3" s="414"/>
-      <c r="X3" s="414"/>
-      <c r="Y3" s="414"/>
-      <c r="Z3" s="415"/>
-      <c r="AA3" s="395"/>
-      <c r="AB3" s="397"/>
-      <c r="AC3" s="223"/>
-      <c r="AD3" s="224"/>
-      <c r="AE3" s="224"/>
-      <c r="AF3" s="225"/>
-      <c r="AG3" s="430"/>
-      <c r="AH3" s="431"/>
-      <c r="AI3" s="432"/>
+      <c r="A3" s="285" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="286"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="287"/>
+      <c r="E3" s="245" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="294"/>
+      <c r="P3" s="295"/>
+      <c r="Q3" s="295"/>
+      <c r="R3" s="296"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="285"/>
+      <c r="AB3" s="287"/>
+      <c r="AC3" s="239"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="241"/>
+      <c r="AG3" s="242"/>
+      <c r="AH3" s="243"/>
+      <c r="AI3" s="244"/>
       <c r="AK3" s="170"/>
       <c r="AL3" s="170"/>
       <c r="AM3" s="170"/>
       <c r="AN3" s="170"/>
     </row>
     <row r="4" spans="1:40" s="66" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AB4" s="437"/>
-      <c r="AC4" s="437"/>
-      <c r="AD4" s="438"/>
-      <c r="AE4" s="439"/>
-      <c r="AF4" s="439"/>
-      <c r="AG4" s="439"/>
-      <c r="AH4" s="437"/>
-      <c r="AI4" s="437"/>
-      <c r="AJ4" s="437"/>
+      <c r="AB4" s="221"/>
+      <c r="AC4" s="221"/>
+      <c r="AD4" s="222"/>
+      <c r="AE4" s="223"/>
+      <c r="AF4" s="223"/>
+      <c r="AG4" s="223"/>
+      <c r="AH4" s="221"/>
+      <c r="AI4" s="221"/>
+      <c r="AJ4" s="221"/>
     </row>
     <row r="5" spans="1:40" s="66" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="440" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB5" s="437"/>
-      <c r="AC5" s="437"/>
-      <c r="AD5" s="438"/>
-      <c r="AE5" s="439"/>
-      <c r="AF5" s="439"/>
-      <c r="AG5" s="439"/>
-      <c r="AH5" s="437"/>
-      <c r="AI5" s="437"/>
-      <c r="AJ5" s="437"/>
+      <c r="N5" s="224" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB5" s="221"/>
+      <c r="AC5" s="221"/>
+      <c r="AD5" s="222"/>
+      <c r="AE5" s="223"/>
+      <c r="AF5" s="223"/>
+      <c r="AG5" s="223"/>
+      <c r="AH5" s="221"/>
+      <c r="AI5" s="221"/>
+      <c r="AJ5" s="221"/>
     </row>
     <row r="6" spans="1:40" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N6" s="440"/>
-      <c r="AB6" s="437"/>
-      <c r="AC6" s="437"/>
-      <c r="AD6" s="438"/>
-      <c r="AE6" s="439"/>
-      <c r="AF6" s="439"/>
-      <c r="AG6" s="439"/>
-      <c r="AH6" s="437"/>
-      <c r="AI6" s="437"/>
-      <c r="AJ6" s="437"/>
+      <c r="N6" s="224"/>
+      <c r="AB6" s="221"/>
+      <c r="AC6" s="221"/>
+      <c r="AD6" s="222"/>
+      <c r="AE6" s="223"/>
+      <c r="AF6" s="223"/>
+      <c r="AG6" s="223"/>
+      <c r="AH6" s="221"/>
+      <c r="AI6" s="221"/>
+      <c r="AJ6" s="221"/>
     </row>
     <row r="7" spans="1:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="416" t="s">
+      <c r="A7" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="417" t="s">
+      <c r="B7" s="283" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="284"/>
+      <c r="D7" s="260" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="261"/>
+      <c r="F7" s="262"/>
+      <c r="G7" s="260" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="261"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="260" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="418"/>
-      <c r="D7" s="419" t="s">
+      <c r="K7" s="261"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="261"/>
+      <c r="O7" s="261"/>
+      <c r="P7" s="262"/>
+      <c r="Q7" s="260" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="420"/>
-      <c r="F7" s="421"/>
-      <c r="G7" s="419" t="s">
+      <c r="R7" s="261"/>
+      <c r="S7" s="261"/>
+      <c r="T7" s="261"/>
+      <c r="U7" s="261"/>
+      <c r="V7" s="261"/>
+      <c r="W7" s="261"/>
+      <c r="X7" s="261"/>
+      <c r="Y7" s="261"/>
+      <c r="Z7" s="261"/>
+      <c r="AA7" s="261"/>
+      <c r="AB7" s="261"/>
+      <c r="AC7" s="261"/>
+      <c r="AD7" s="261"/>
+      <c r="AE7" s="262"/>
+      <c r="AF7" s="260" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="420"/>
-      <c r="I7" s="421"/>
-      <c r="J7" s="419" t="s">
+      <c r="AG7" s="261"/>
+      <c r="AH7" s="261"/>
+      <c r="AI7" s="262"/>
+      <c r="AJ7" s="225"/>
+    </row>
+    <row r="8" spans="1:40" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="226">
+        <v>1</v>
+      </c>
+      <c r="B8" s="272" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="273"/>
+      <c r="D8" s="274">
+        <v>43718</v>
+      </c>
+      <c r="E8" s="275"/>
+      <c r="F8" s="276"/>
+      <c r="G8" s="277" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="420"/>
-      <c r="L7" s="420"/>
-      <c r="M7" s="420"/>
-      <c r="N7" s="420"/>
-      <c r="O7" s="420"/>
-      <c r="P7" s="421"/>
-      <c r="Q7" s="419" t="s">
+      <c r="H8" s="278"/>
+      <c r="I8" s="279"/>
+      <c r="J8" s="280" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="281"/>
+      <c r="L8" s="281"/>
+      <c r="M8" s="281"/>
+      <c r="N8" s="281"/>
+      <c r="O8" s="281"/>
+      <c r="P8" s="282"/>
+      <c r="Q8" s="280" t="s">
         <v>106</v>
       </c>
-      <c r="R7" s="420"/>
-      <c r="S7" s="420"/>
-      <c r="T7" s="420"/>
-      <c r="U7" s="420"/>
-      <c r="V7" s="420"/>
-      <c r="W7" s="420"/>
-      <c r="X7" s="420"/>
-      <c r="Y7" s="420"/>
-      <c r="Z7" s="420"/>
-      <c r="AA7" s="420"/>
-      <c r="AB7" s="420"/>
-      <c r="AC7" s="420"/>
-      <c r="AD7" s="420"/>
-      <c r="AE7" s="421"/>
-      <c r="AF7" s="419" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG7" s="420"/>
-      <c r="AH7" s="420"/>
-      <c r="AI7" s="421"/>
-      <c r="AJ7" s="441"/>
-    </row>
-    <row r="8" spans="1:40" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="442">
-        <v>1</v>
-      </c>
-      <c r="B8" s="422" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="423"/>
-      <c r="D8" s="443">
-        <v>43718</v>
-      </c>
-      <c r="E8" s="444"/>
-      <c r="F8" s="445"/>
-      <c r="G8" s="424" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" s="425"/>
-      <c r="I8" s="426"/>
-      <c r="J8" s="427" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="428"/>
-      <c r="L8" s="428"/>
-      <c r="M8" s="428"/>
-      <c r="N8" s="428"/>
-      <c r="O8" s="428"/>
-      <c r="P8" s="429"/>
-      <c r="Q8" s="427" t="s">
-        <v>109</v>
-      </c>
-      <c r="R8" s="428"/>
-      <c r="S8" s="428"/>
-      <c r="T8" s="428"/>
-      <c r="U8" s="428"/>
-      <c r="V8" s="428"/>
-      <c r="W8" s="428"/>
-      <c r="X8" s="428"/>
-      <c r="Y8" s="428"/>
-      <c r="Z8" s="428"/>
-      <c r="AA8" s="428"/>
-      <c r="AB8" s="428"/>
-      <c r="AC8" s="428"/>
-      <c r="AD8" s="428"/>
-      <c r="AE8" s="429"/>
-      <c r="AF8" s="446" t="s">
+      <c r="R8" s="281"/>
+      <c r="S8" s="281"/>
+      <c r="T8" s="281"/>
+      <c r="U8" s="281"/>
+      <c r="V8" s="281"/>
+      <c r="W8" s="281"/>
+      <c r="X8" s="281"/>
+      <c r="Y8" s="281"/>
+      <c r="Z8" s="281"/>
+      <c r="AA8" s="281"/>
+      <c r="AB8" s="281"/>
+      <c r="AC8" s="281"/>
+      <c r="AD8" s="281"/>
+      <c r="AE8" s="282"/>
+      <c r="AF8" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="447"/>
-      <c r="AH8" s="447"/>
-      <c r="AI8" s="448"/>
-      <c r="AJ8" s="441"/>
+      <c r="AG8" s="228"/>
+      <c r="AH8" s="228"/>
+      <c r="AI8" s="229"/>
+      <c r="AJ8" s="225"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37"/>
-      <c r="B9" s="449"/>
-      <c r="C9" s="450"/>
-      <c r="D9" s="451"/>
-      <c r="E9" s="452"/>
-      <c r="F9" s="453"/>
-      <c r="G9" s="449"/>
-      <c r="H9" s="454"/>
-      <c r="I9" s="450"/>
-      <c r="J9" s="455"/>
-      <c r="K9" s="344"/>
-      <c r="L9" s="344"/>
-      <c r="M9" s="344"/>
-      <c r="N9" s="344"/>
-      <c r="O9" s="344"/>
-      <c r="P9" s="345"/>
-      <c r="Q9" s="455"/>
-      <c r="R9" s="344"/>
-      <c r="S9" s="344"/>
-      <c r="T9" s="344"/>
-      <c r="U9" s="344"/>
-      <c r="V9" s="344"/>
-      <c r="W9" s="344"/>
-      <c r="X9" s="344"/>
-      <c r="Y9" s="344"/>
-      <c r="Z9" s="344"/>
-      <c r="AA9" s="344"/>
-      <c r="AB9" s="344"/>
-      <c r="AC9" s="344"/>
-      <c r="AD9" s="344"/>
-      <c r="AE9" s="345"/>
+      <c r="B9" s="263"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="265"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="268"/>
+      <c r="I9" s="264"/>
+      <c r="J9" s="269"/>
+      <c r="K9" s="270"/>
+      <c r="L9" s="270"/>
+      <c r="M9" s="270"/>
+      <c r="N9" s="270"/>
+      <c r="O9" s="270"/>
+      <c r="P9" s="271"/>
+      <c r="Q9" s="269"/>
+      <c r="R9" s="270"/>
+      <c r="S9" s="270"/>
+      <c r="T9" s="270"/>
+      <c r="U9" s="270"/>
+      <c r="V9" s="270"/>
+      <c r="W9" s="270"/>
+      <c r="X9" s="270"/>
+      <c r="Y9" s="270"/>
+      <c r="Z9" s="270"/>
+      <c r="AA9" s="270"/>
+      <c r="AB9" s="270"/>
+      <c r="AC9" s="270"/>
+      <c r="AD9" s="270"/>
+      <c r="AE9" s="271"/>
       <c r="AF9" s="216"/>
       <c r="AG9" s="217"/>
       <c r="AH9" s="217"/>
@@ -7053,36 +7054,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="37"/>
-      <c r="B10" s="449"/>
-      <c r="C10" s="450"/>
-      <c r="D10" s="451"/>
-      <c r="E10" s="452"/>
-      <c r="F10" s="453"/>
-      <c r="G10" s="449"/>
-      <c r="H10" s="454"/>
-      <c r="I10" s="450"/>
-      <c r="J10" s="455"/>
-      <c r="K10" s="344"/>
-      <c r="L10" s="344"/>
-      <c r="M10" s="344"/>
-      <c r="N10" s="344"/>
-      <c r="O10" s="344"/>
-      <c r="P10" s="345"/>
-      <c r="Q10" s="455"/>
-      <c r="R10" s="344"/>
-      <c r="S10" s="344"/>
-      <c r="T10" s="344"/>
-      <c r="U10" s="344"/>
-      <c r="V10" s="344"/>
-      <c r="W10" s="344"/>
-      <c r="X10" s="344"/>
-      <c r="Y10" s="344"/>
-      <c r="Z10" s="344"/>
-      <c r="AA10" s="344"/>
-      <c r="AB10" s="344"/>
-      <c r="AC10" s="344"/>
-      <c r="AD10" s="344"/>
-      <c r="AE10" s="345"/>
+      <c r="B10" s="263"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="263"/>
+      <c r="H10" s="268"/>
+      <c r="I10" s="264"/>
+      <c r="J10" s="269"/>
+      <c r="K10" s="270"/>
+      <c r="L10" s="270"/>
+      <c r="M10" s="270"/>
+      <c r="N10" s="270"/>
+      <c r="O10" s="270"/>
+      <c r="P10" s="271"/>
+      <c r="Q10" s="269"/>
+      <c r="R10" s="270"/>
+      <c r="S10" s="270"/>
+      <c r="T10" s="270"/>
+      <c r="U10" s="270"/>
+      <c r="V10" s="270"/>
+      <c r="W10" s="270"/>
+      <c r="X10" s="270"/>
+      <c r="Y10" s="270"/>
+      <c r="Z10" s="270"/>
+      <c r="AA10" s="270"/>
+      <c r="AB10" s="270"/>
+      <c r="AC10" s="270"/>
+      <c r="AD10" s="270"/>
+      <c r="AE10" s="271"/>
       <c r="AF10" s="216"/>
       <c r="AG10" s="217"/>
       <c r="AH10" s="217"/>
@@ -7090,36 +7091,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
-      <c r="B11" s="449"/>
-      <c r="C11" s="450"/>
-      <c r="D11" s="451"/>
-      <c r="E11" s="452"/>
-      <c r="F11" s="453"/>
-      <c r="G11" s="449"/>
-      <c r="H11" s="454"/>
-      <c r="I11" s="450"/>
-      <c r="J11" s="455"/>
-      <c r="K11" s="344"/>
-      <c r="L11" s="344"/>
-      <c r="M11" s="344"/>
-      <c r="N11" s="344"/>
-      <c r="O11" s="344"/>
-      <c r="P11" s="345"/>
-      <c r="Q11" s="455"/>
-      <c r="R11" s="344"/>
-      <c r="S11" s="344"/>
-      <c r="T11" s="344"/>
-      <c r="U11" s="344"/>
-      <c r="V11" s="344"/>
-      <c r="W11" s="344"/>
-      <c r="X11" s="344"/>
-      <c r="Y11" s="344"/>
-      <c r="Z11" s="344"/>
-      <c r="AA11" s="344"/>
-      <c r="AB11" s="344"/>
-      <c r="AC11" s="344"/>
-      <c r="AD11" s="344"/>
-      <c r="AE11" s="345"/>
+      <c r="B11" s="263"/>
+      <c r="C11" s="264"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="266"/>
+      <c r="F11" s="267"/>
+      <c r="G11" s="263"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="264"/>
+      <c r="J11" s="269"/>
+      <c r="K11" s="270"/>
+      <c r="L11" s="270"/>
+      <c r="M11" s="270"/>
+      <c r="N11" s="270"/>
+      <c r="O11" s="270"/>
+      <c r="P11" s="271"/>
+      <c r="Q11" s="269"/>
+      <c r="R11" s="270"/>
+      <c r="S11" s="270"/>
+      <c r="T11" s="270"/>
+      <c r="U11" s="270"/>
+      <c r="V11" s="270"/>
+      <c r="W11" s="270"/>
+      <c r="X11" s="270"/>
+      <c r="Y11" s="270"/>
+      <c r="Z11" s="270"/>
+      <c r="AA11" s="270"/>
+      <c r="AB11" s="270"/>
+      <c r="AC11" s="270"/>
+      <c r="AD11" s="270"/>
+      <c r="AE11" s="271"/>
       <c r="AF11" s="216"/>
       <c r="AG11" s="217"/>
       <c r="AH11" s="217"/>
@@ -7127,36 +7128,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
-      <c r="B12" s="449"/>
-      <c r="C12" s="450"/>
-      <c r="D12" s="451"/>
-      <c r="E12" s="452"/>
-      <c r="F12" s="453"/>
-      <c r="G12" s="449"/>
-      <c r="H12" s="454"/>
-      <c r="I12" s="450"/>
-      <c r="J12" s="455"/>
-      <c r="K12" s="344"/>
-      <c r="L12" s="344"/>
-      <c r="M12" s="344"/>
-      <c r="N12" s="344"/>
-      <c r="O12" s="344"/>
-      <c r="P12" s="345"/>
-      <c r="Q12" s="455"/>
-      <c r="R12" s="344"/>
-      <c r="S12" s="344"/>
-      <c r="T12" s="344"/>
-      <c r="U12" s="344"/>
-      <c r="V12" s="344"/>
-      <c r="W12" s="344"/>
-      <c r="X12" s="344"/>
-      <c r="Y12" s="344"/>
-      <c r="Z12" s="344"/>
-      <c r="AA12" s="344"/>
-      <c r="AB12" s="344"/>
-      <c r="AC12" s="344"/>
-      <c r="AD12" s="344"/>
-      <c r="AE12" s="345"/>
+      <c r="B12" s="263"/>
+      <c r="C12" s="264"/>
+      <c r="D12" s="265"/>
+      <c r="E12" s="266"/>
+      <c r="F12" s="267"/>
+      <c r="G12" s="263"/>
+      <c r="H12" s="268"/>
+      <c r="I12" s="264"/>
+      <c r="J12" s="269"/>
+      <c r="K12" s="270"/>
+      <c r="L12" s="270"/>
+      <c r="M12" s="270"/>
+      <c r="N12" s="270"/>
+      <c r="O12" s="270"/>
+      <c r="P12" s="271"/>
+      <c r="Q12" s="269"/>
+      <c r="R12" s="270"/>
+      <c r="S12" s="270"/>
+      <c r="T12" s="270"/>
+      <c r="U12" s="270"/>
+      <c r="V12" s="270"/>
+      <c r="W12" s="270"/>
+      <c r="X12" s="270"/>
+      <c r="Y12" s="270"/>
+      <c r="Z12" s="270"/>
+      <c r="AA12" s="270"/>
+      <c r="AB12" s="270"/>
+      <c r="AC12" s="270"/>
+      <c r="AD12" s="270"/>
+      <c r="AE12" s="271"/>
       <c r="AF12" s="216"/>
       <c r="AG12" s="217"/>
       <c r="AH12" s="217"/>
@@ -7164,36 +7165,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
-      <c r="B13" s="449"/>
-      <c r="C13" s="450"/>
-      <c r="D13" s="451"/>
-      <c r="E13" s="452"/>
-      <c r="F13" s="453"/>
-      <c r="G13" s="449"/>
-      <c r="H13" s="454"/>
-      <c r="I13" s="450"/>
-      <c r="J13" s="455"/>
-      <c r="K13" s="344"/>
-      <c r="L13" s="344"/>
-      <c r="M13" s="344"/>
-      <c r="N13" s="344"/>
-      <c r="O13" s="344"/>
-      <c r="P13" s="345"/>
-      <c r="Q13" s="455"/>
-      <c r="R13" s="344"/>
-      <c r="S13" s="344"/>
-      <c r="T13" s="344"/>
-      <c r="U13" s="344"/>
-      <c r="V13" s="344"/>
-      <c r="W13" s="344"/>
-      <c r="X13" s="344"/>
-      <c r="Y13" s="344"/>
-      <c r="Z13" s="344"/>
-      <c r="AA13" s="344"/>
-      <c r="AB13" s="344"/>
-      <c r="AC13" s="344"/>
-      <c r="AD13" s="344"/>
-      <c r="AE13" s="345"/>
+      <c r="B13" s="263"/>
+      <c r="C13" s="264"/>
+      <c r="D13" s="265"/>
+      <c r="E13" s="266"/>
+      <c r="F13" s="267"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="268"/>
+      <c r="I13" s="264"/>
+      <c r="J13" s="269"/>
+      <c r="K13" s="270"/>
+      <c r="L13" s="270"/>
+      <c r="M13" s="270"/>
+      <c r="N13" s="270"/>
+      <c r="O13" s="270"/>
+      <c r="P13" s="271"/>
+      <c r="Q13" s="269"/>
+      <c r="R13" s="270"/>
+      <c r="S13" s="270"/>
+      <c r="T13" s="270"/>
+      <c r="U13" s="270"/>
+      <c r="V13" s="270"/>
+      <c r="W13" s="270"/>
+      <c r="X13" s="270"/>
+      <c r="Y13" s="270"/>
+      <c r="Z13" s="270"/>
+      <c r="AA13" s="270"/>
+      <c r="AB13" s="270"/>
+      <c r="AC13" s="270"/>
+      <c r="AD13" s="270"/>
+      <c r="AE13" s="271"/>
       <c r="AF13" s="216"/>
       <c r="AG13" s="217"/>
       <c r="AH13" s="217"/>
@@ -7201,14 +7202,14 @@
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
-      <c r="B14" s="456"/>
-      <c r="C14" s="457"/>
-      <c r="D14" s="458"/>
-      <c r="E14" s="459"/>
-      <c r="F14" s="460"/>
-      <c r="G14" s="456"/>
-      <c r="H14" s="461"/>
-      <c r="I14" s="457"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="233"/>
+      <c r="F14" s="234"/>
+      <c r="G14" s="230"/>
+      <c r="H14" s="235"/>
+      <c r="I14" s="231"/>
       <c r="J14" s="216"/>
       <c r="K14" s="217"/>
       <c r="L14" s="217"/>
@@ -7216,7 +7217,7 @@
       <c r="N14" s="217"/>
       <c r="O14" s="217"/>
       <c r="P14" s="218"/>
-      <c r="Q14" s="462"/>
+      <c r="Q14" s="236"/>
       <c r="R14" s="214"/>
       <c r="S14" s="214"/>
       <c r="T14" s="214"/>
@@ -7238,14 +7239,14 @@
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="37"/>
-      <c r="B15" s="456"/>
-      <c r="C15" s="457"/>
-      <c r="D15" s="458"/>
-      <c r="E15" s="459"/>
-      <c r="F15" s="460"/>
-      <c r="G15" s="456"/>
-      <c r="H15" s="461"/>
-      <c r="I15" s="457"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="232"/>
+      <c r="E15" s="233"/>
+      <c r="F15" s="234"/>
+      <c r="G15" s="230"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="231"/>
       <c r="J15" s="216"/>
       <c r="K15" s="217"/>
       <c r="L15" s="217"/>
@@ -7253,7 +7254,7 @@
       <c r="N15" s="217"/>
       <c r="O15" s="217"/>
       <c r="P15" s="218"/>
-      <c r="Q15" s="462"/>
+      <c r="Q15" s="236"/>
       <c r="R15" s="214"/>
       <c r="S15" s="214"/>
       <c r="T15" s="214"/>
@@ -7275,14 +7276,14 @@
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="37"/>
-      <c r="B16" s="456"/>
-      <c r="C16" s="457"/>
-      <c r="D16" s="458"/>
-      <c r="E16" s="459"/>
-      <c r="F16" s="460"/>
-      <c r="G16" s="456"/>
-      <c r="H16" s="461"/>
-      <c r="I16" s="457"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="232"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="234"/>
+      <c r="G16" s="230"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="231"/>
       <c r="J16" s="216"/>
       <c r="K16" s="217"/>
       <c r="L16" s="217"/>
@@ -7290,7 +7291,7 @@
       <c r="N16" s="217"/>
       <c r="O16" s="217"/>
       <c r="P16" s="218"/>
-      <c r="Q16" s="462"/>
+      <c r="Q16" s="236"/>
       <c r="R16" s="214"/>
       <c r="S16" s="214"/>
       <c r="T16" s="214"/>
@@ -7312,14 +7313,14 @@
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="37"/>
-      <c r="B17" s="456"/>
-      <c r="C17" s="457"/>
-      <c r="D17" s="458"/>
-      <c r="E17" s="459"/>
-      <c r="F17" s="460"/>
-      <c r="G17" s="456"/>
-      <c r="H17" s="461"/>
-      <c r="I17" s="457"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="230"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="231"/>
       <c r="J17" s="216"/>
       <c r="K17" s="217"/>
       <c r="L17" s="217"/>
@@ -7327,7 +7328,7 @@
       <c r="N17" s="217"/>
       <c r="O17" s="217"/>
       <c r="P17" s="218"/>
-      <c r="Q17" s="462"/>
+      <c r="Q17" s="236"/>
       <c r="R17" s="214"/>
       <c r="S17" s="214"/>
       <c r="T17" s="214"/>
@@ -7349,14 +7350,14 @@
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="37"/>
-      <c r="B18" s="456"/>
-      <c r="C18" s="457"/>
-      <c r="D18" s="458"/>
-      <c r="E18" s="459"/>
-      <c r="F18" s="460"/>
-      <c r="G18" s="456"/>
-      <c r="H18" s="461"/>
-      <c r="I18" s="457"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="233"/>
+      <c r="F18" s="234"/>
+      <c r="G18" s="230"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="231"/>
       <c r="J18" s="216"/>
       <c r="K18" s="217"/>
       <c r="L18" s="217"/>
@@ -7364,7 +7365,7 @@
       <c r="N18" s="217"/>
       <c r="O18" s="217"/>
       <c r="P18" s="218"/>
-      <c r="Q18" s="462"/>
+      <c r="Q18" s="236"/>
       <c r="R18" s="214"/>
       <c r="S18" s="214"/>
       <c r="T18" s="214"/>
@@ -7386,14 +7387,14 @@
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="37"/>
-      <c r="B19" s="456"/>
-      <c r="C19" s="457"/>
-      <c r="D19" s="458"/>
-      <c r="E19" s="459"/>
-      <c r="F19" s="460"/>
-      <c r="G19" s="456"/>
-      <c r="H19" s="461"/>
-      <c r="I19" s="457"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="234"/>
+      <c r="G19" s="230"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="231"/>
       <c r="J19" s="216"/>
       <c r="K19" s="217"/>
       <c r="L19" s="217"/>
@@ -7401,7 +7402,7 @@
       <c r="N19" s="217"/>
       <c r="O19" s="217"/>
       <c r="P19" s="218"/>
-      <c r="Q19" s="462"/>
+      <c r="Q19" s="236"/>
       <c r="R19" s="214"/>
       <c r="S19" s="214"/>
       <c r="T19" s="214"/>
@@ -7423,14 +7424,14 @@
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="37"/>
-      <c r="B20" s="456"/>
-      <c r="C20" s="457"/>
-      <c r="D20" s="458"/>
-      <c r="E20" s="459"/>
-      <c r="F20" s="460"/>
-      <c r="G20" s="456"/>
-      <c r="H20" s="461"/>
-      <c r="I20" s="457"/>
+      <c r="B20" s="230"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="230"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="231"/>
       <c r="J20" s="216"/>
       <c r="K20" s="217"/>
       <c r="L20" s="217"/>
@@ -7438,7 +7439,7 @@
       <c r="N20" s="217"/>
       <c r="O20" s="217"/>
       <c r="P20" s="218"/>
-      <c r="Q20" s="462"/>
+      <c r="Q20" s="236"/>
       <c r="R20" s="214"/>
       <c r="S20" s="214"/>
       <c r="T20" s="214"/>
@@ -7460,14 +7461,14 @@
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="37"/>
-      <c r="B21" s="456"/>
-      <c r="C21" s="457"/>
-      <c r="D21" s="458"/>
-      <c r="E21" s="459"/>
-      <c r="F21" s="460"/>
-      <c r="G21" s="456"/>
-      <c r="H21" s="461"/>
-      <c r="I21" s="457"/>
+      <c r="B21" s="230"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="232"/>
+      <c r="E21" s="233"/>
+      <c r="F21" s="234"/>
+      <c r="G21" s="230"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="231"/>
       <c r="J21" s="216"/>
       <c r="K21" s="217"/>
       <c r="L21" s="217"/>
@@ -7475,7 +7476,7 @@
       <c r="N21" s="217"/>
       <c r="O21" s="217"/>
       <c r="P21" s="218"/>
-      <c r="Q21" s="462"/>
+      <c r="Q21" s="236"/>
       <c r="R21" s="214"/>
       <c r="S21" s="214"/>
       <c r="T21" s="214"/>
@@ -7497,14 +7498,14 @@
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="37"/>
-      <c r="B22" s="456"/>
-      <c r="C22" s="457"/>
-      <c r="D22" s="458"/>
-      <c r="E22" s="459"/>
-      <c r="F22" s="460"/>
-      <c r="G22" s="456"/>
-      <c r="H22" s="461"/>
-      <c r="I22" s="457"/>
+      <c r="B22" s="230"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="233"/>
+      <c r="F22" s="234"/>
+      <c r="G22" s="230"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="231"/>
       <c r="J22" s="216"/>
       <c r="K22" s="217"/>
       <c r="L22" s="217"/>
@@ -7512,7 +7513,7 @@
       <c r="N22" s="217"/>
       <c r="O22" s="217"/>
       <c r="P22" s="218"/>
-      <c r="Q22" s="462"/>
+      <c r="Q22" s="236"/>
       <c r="R22" s="214"/>
       <c r="S22" s="214"/>
       <c r="T22" s="214"/>
@@ -7534,14 +7535,14 @@
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="37"/>
-      <c r="B23" s="456"/>
-      <c r="C23" s="457"/>
-      <c r="D23" s="458"/>
-      <c r="E23" s="459"/>
-      <c r="F23" s="460"/>
-      <c r="G23" s="456"/>
-      <c r="H23" s="461"/>
-      <c r="I23" s="457"/>
+      <c r="B23" s="230"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="232"/>
+      <c r="E23" s="233"/>
+      <c r="F23" s="234"/>
+      <c r="G23" s="230"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="231"/>
       <c r="J23" s="216"/>
       <c r="K23" s="217"/>
       <c r="L23" s="217"/>
@@ -7549,7 +7550,7 @@
       <c r="N23" s="217"/>
       <c r="O23" s="217"/>
       <c r="P23" s="218"/>
-      <c r="Q23" s="462"/>
+      <c r="Q23" s="236"/>
       <c r="R23" s="214"/>
       <c r="S23" s="214"/>
       <c r="T23" s="214"/>
@@ -7571,14 +7572,14 @@
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="37"/>
-      <c r="B24" s="456"/>
-      <c r="C24" s="457"/>
-      <c r="D24" s="458"/>
-      <c r="E24" s="459"/>
-      <c r="F24" s="460"/>
-      <c r="G24" s="456"/>
-      <c r="H24" s="461"/>
-      <c r="I24" s="457"/>
+      <c r="B24" s="230"/>
+      <c r="C24" s="231"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="233"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="230"/>
+      <c r="H24" s="235"/>
+      <c r="I24" s="231"/>
       <c r="J24" s="216"/>
       <c r="K24" s="217"/>
       <c r="L24" s="217"/>
@@ -7586,7 +7587,7 @@
       <c r="N24" s="217"/>
       <c r="O24" s="217"/>
       <c r="P24" s="218"/>
-      <c r="Q24" s="462"/>
+      <c r="Q24" s="236"/>
       <c r="R24" s="214"/>
       <c r="S24" s="214"/>
       <c r="T24" s="214"/>
@@ -7608,14 +7609,14 @@
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="37"/>
-      <c r="B25" s="456"/>
-      <c r="C25" s="457"/>
-      <c r="D25" s="458"/>
-      <c r="E25" s="459"/>
-      <c r="F25" s="460"/>
-      <c r="G25" s="456"/>
-      <c r="H25" s="461"/>
-      <c r="I25" s="457"/>
+      <c r="B25" s="230"/>
+      <c r="C25" s="231"/>
+      <c r="D25" s="232"/>
+      <c r="E25" s="233"/>
+      <c r="F25" s="234"/>
+      <c r="G25" s="230"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="231"/>
       <c r="J25" s="216"/>
       <c r="K25" s="217"/>
       <c r="L25" s="217"/>
@@ -7623,7 +7624,7 @@
       <c r="N25" s="217"/>
       <c r="O25" s="217"/>
       <c r="P25" s="218"/>
-      <c r="Q25" s="462"/>
+      <c r="Q25" s="236"/>
       <c r="R25" s="214"/>
       <c r="S25" s="214"/>
       <c r="T25" s="214"/>
@@ -7645,14 +7646,14 @@
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="37"/>
-      <c r="B26" s="456"/>
-      <c r="C26" s="457"/>
-      <c r="D26" s="458"/>
-      <c r="E26" s="459"/>
-      <c r="F26" s="460"/>
-      <c r="G26" s="456"/>
-      <c r="H26" s="461"/>
-      <c r="I26" s="457"/>
+      <c r="B26" s="230"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="233"/>
+      <c r="F26" s="234"/>
+      <c r="G26" s="230"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="231"/>
       <c r="J26" s="216"/>
       <c r="K26" s="217"/>
       <c r="L26" s="217"/>
@@ -7660,7 +7661,7 @@
       <c r="N26" s="217"/>
       <c r="O26" s="217"/>
       <c r="P26" s="218"/>
-      <c r="Q26" s="462"/>
+      <c r="Q26" s="236"/>
       <c r="R26" s="214"/>
       <c r="S26" s="214"/>
       <c r="T26" s="214"/>
@@ -7682,14 +7683,14 @@
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="37"/>
-      <c r="B27" s="456"/>
-      <c r="C27" s="457"/>
-      <c r="D27" s="458"/>
-      <c r="E27" s="459"/>
-      <c r="F27" s="460"/>
-      <c r="G27" s="456"/>
-      <c r="H27" s="461"/>
-      <c r="I27" s="457"/>
+      <c r="B27" s="230"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="233"/>
+      <c r="F27" s="234"/>
+      <c r="G27" s="230"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="231"/>
       <c r="J27" s="216"/>
       <c r="K27" s="217"/>
       <c r="L27" s="217"/>
@@ -7697,7 +7698,7 @@
       <c r="N27" s="217"/>
       <c r="O27" s="217"/>
       <c r="P27" s="218"/>
-      <c r="Q27" s="462"/>
+      <c r="Q27" s="236"/>
       <c r="R27" s="214"/>
       <c r="S27" s="214"/>
       <c r="T27" s="214"/>
@@ -7719,14 +7720,14 @@
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="37"/>
-      <c r="B28" s="456"/>
-      <c r="C28" s="457"/>
-      <c r="D28" s="458"/>
-      <c r="E28" s="459"/>
-      <c r="F28" s="460"/>
-      <c r="G28" s="456"/>
-      <c r="H28" s="461"/>
-      <c r="I28" s="457"/>
+      <c r="B28" s="230"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="232"/>
+      <c r="E28" s="233"/>
+      <c r="F28" s="234"/>
+      <c r="G28" s="230"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="231"/>
       <c r="J28" s="216"/>
       <c r="K28" s="217"/>
       <c r="L28" s="217"/>
@@ -7734,7 +7735,7 @@
       <c r="N28" s="217"/>
       <c r="O28" s="217"/>
       <c r="P28" s="218"/>
-      <c r="Q28" s="462"/>
+      <c r="Q28" s="236"/>
       <c r="R28" s="214"/>
       <c r="S28" s="214"/>
       <c r="T28" s="214"/>
@@ -7756,14 +7757,14 @@
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="37"/>
-      <c r="B29" s="456"/>
-      <c r="C29" s="457"/>
-      <c r="D29" s="458"/>
-      <c r="E29" s="459"/>
-      <c r="F29" s="460"/>
-      <c r="G29" s="456"/>
-      <c r="H29" s="461"/>
-      <c r="I29" s="457"/>
+      <c r="B29" s="230"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="232"/>
+      <c r="E29" s="233"/>
+      <c r="F29" s="234"/>
+      <c r="G29" s="230"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="231"/>
       <c r="J29" s="216"/>
       <c r="K29" s="217"/>
       <c r="L29" s="217"/>
@@ -7771,7 +7772,7 @@
       <c r="N29" s="217"/>
       <c r="O29" s="217"/>
       <c r="P29" s="218"/>
-      <c r="Q29" s="462"/>
+      <c r="Q29" s="236"/>
       <c r="R29" s="214"/>
       <c r="S29" s="214"/>
       <c r="T29" s="214"/>
@@ -7793,14 +7794,14 @@
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="37"/>
-      <c r="B30" s="456"/>
-      <c r="C30" s="457"/>
-      <c r="D30" s="458"/>
-      <c r="E30" s="459"/>
-      <c r="F30" s="460"/>
-      <c r="G30" s="456"/>
-      <c r="H30" s="461"/>
-      <c r="I30" s="457"/>
+      <c r="B30" s="230"/>
+      <c r="C30" s="231"/>
+      <c r="D30" s="232"/>
+      <c r="E30" s="233"/>
+      <c r="F30" s="234"/>
+      <c r="G30" s="230"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="231"/>
       <c r="J30" s="216"/>
       <c r="K30" s="217"/>
       <c r="L30" s="217"/>
@@ -7808,7 +7809,7 @@
       <c r="N30" s="217"/>
       <c r="O30" s="217"/>
       <c r="P30" s="218"/>
-      <c r="Q30" s="462"/>
+      <c r="Q30" s="236"/>
       <c r="R30" s="214"/>
       <c r="S30" s="214"/>
       <c r="T30" s="214"/>
@@ -7830,14 +7831,14 @@
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="37"/>
-      <c r="B31" s="456"/>
-      <c r="C31" s="457"/>
-      <c r="D31" s="458"/>
-      <c r="E31" s="459"/>
-      <c r="F31" s="460"/>
-      <c r="G31" s="456"/>
-      <c r="H31" s="461"/>
-      <c r="I31" s="457"/>
+      <c r="B31" s="230"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="232"/>
+      <c r="E31" s="233"/>
+      <c r="F31" s="234"/>
+      <c r="G31" s="230"/>
+      <c r="H31" s="235"/>
+      <c r="I31" s="231"/>
       <c r="J31" s="216"/>
       <c r="K31" s="217"/>
       <c r="L31" s="217"/>
@@ -7845,7 +7846,7 @@
       <c r="N31" s="217"/>
       <c r="O31" s="217"/>
       <c r="P31" s="218"/>
-      <c r="Q31" s="462"/>
+      <c r="Q31" s="236"/>
       <c r="R31" s="214"/>
       <c r="S31" s="214"/>
       <c r="T31" s="214"/>
@@ -7867,14 +7868,14 @@
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="37"/>
-      <c r="B32" s="456"/>
-      <c r="C32" s="457"/>
-      <c r="D32" s="458"/>
-      <c r="E32" s="459"/>
-      <c r="F32" s="460"/>
-      <c r="G32" s="456"/>
-      <c r="H32" s="461"/>
-      <c r="I32" s="457"/>
+      <c r="B32" s="230"/>
+      <c r="C32" s="231"/>
+      <c r="D32" s="232"/>
+      <c r="E32" s="233"/>
+      <c r="F32" s="234"/>
+      <c r="G32" s="230"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="231"/>
       <c r="J32" s="216"/>
       <c r="K32" s="217"/>
       <c r="L32" s="217"/>
@@ -7882,7 +7883,7 @@
       <c r="N32" s="217"/>
       <c r="O32" s="217"/>
       <c r="P32" s="218"/>
-      <c r="Q32" s="462"/>
+      <c r="Q32" s="236"/>
       <c r="R32" s="214"/>
       <c r="S32" s="214"/>
       <c r="T32" s="214"/>
@@ -7904,14 +7905,14 @@
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="37"/>
-      <c r="B33" s="456"/>
-      <c r="C33" s="457"/>
-      <c r="D33" s="458"/>
-      <c r="E33" s="459"/>
-      <c r="F33" s="460"/>
-      <c r="G33" s="456"/>
-      <c r="H33" s="461"/>
-      <c r="I33" s="457"/>
+      <c r="B33" s="230"/>
+      <c r="C33" s="231"/>
+      <c r="D33" s="232"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="234"/>
+      <c r="G33" s="230"/>
+      <c r="H33" s="235"/>
+      <c r="I33" s="231"/>
       <c r="J33" s="216"/>
       <c r="K33" s="217"/>
       <c r="L33" s="217"/>
@@ -7919,7 +7920,7 @@
       <c r="N33" s="217"/>
       <c r="O33" s="217"/>
       <c r="P33" s="218"/>
-      <c r="Q33" s="462"/>
+      <c r="Q33" s="236"/>
       <c r="R33" s="214"/>
       <c r="S33" s="214"/>
       <c r="T33" s="214"/>
@@ -7941,14 +7942,35 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
@@ -7965,35 +7987,14 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -8149,167 +8150,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="80" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="str">
+      <c r="A1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="229" t="str">
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="232" t="str">
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="233"/>
-      <c r="Q1" s="233"/>
-      <c r="R1" s="234"/>
-      <c r="S1" s="401" t="str">
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
+      <c r="R1" s="302"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design Document(JSON)</v>
       </c>
-      <c r="T1" s="402"/>
-      <c r="U1" s="402"/>
-      <c r="V1" s="402"/>
-      <c r="W1" s="402"/>
-      <c r="X1" s="402"/>
-      <c r="Y1" s="402"/>
-      <c r="Z1" s="403"/>
-      <c r="AA1" s="226" t="str">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="227"/>
-      <c r="AC1" s="464" t="str">
+      <c r="AB1" s="299"/>
+      <c r="AC1" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="465"/>
-      <c r="AE1" s="465"/>
-      <c r="AF1" s="466"/>
-      <c r="AG1" s="220">
+      <c r="AD1" s="313"/>
+      <c r="AE1" s="313"/>
+      <c r="AF1" s="314"/>
+      <c r="AG1" s="309">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="221"/>
-      <c r="AI1" s="222"/>
+      <c r="AH1" s="310"/>
+      <c r="AI1" s="311"/>
     </row>
     <row r="2" spans="1:35" s="80" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="226" t="str">
+      <c r="A2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="229" t="str">
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="235"/>
-      <c r="P2" s="467"/>
-      <c r="Q2" s="467"/>
-      <c r="R2" s="236"/>
-      <c r="S2" s="407"/>
-      <c r="T2" s="408"/>
-      <c r="U2" s="408"/>
-      <c r="V2" s="408"/>
-      <c r="W2" s="408"/>
-      <c r="X2" s="408"/>
-      <c r="Y2" s="408"/>
-      <c r="Z2" s="409"/>
-      <c r="AA2" s="226" t="str">
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="305"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="227"/>
-      <c r="AC2" s="464" t="str">
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="465"/>
-      <c r="AE2" s="465"/>
-      <c r="AF2" s="466"/>
-      <c r="AG2" s="220" t="str">
+      <c r="AD2" s="313"/>
+      <c r="AE2" s="313"/>
+      <c r="AF2" s="314"/>
+      <c r="AG2" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="221"/>
-      <c r="AI2" s="222"/>
+      <c r="AH2" s="310"/>
+      <c r="AI2" s="311"/>
     </row>
     <row r="3" spans="1:35" s="80" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="226" t="str">
+      <c r="A3" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="229" t="str">
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="231"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="238"/>
-      <c r="Q3" s="238"/>
-      <c r="R3" s="239"/>
-      <c r="S3" s="413"/>
-      <c r="T3" s="414"/>
-      <c r="U3" s="414"/>
-      <c r="V3" s="414"/>
-      <c r="W3" s="414"/>
-      <c r="X3" s="414"/>
-      <c r="Y3" s="414"/>
-      <c r="Z3" s="415"/>
-      <c r="AA3" s="226"/>
-      <c r="AB3" s="227"/>
-      <c r="AC3" s="464" t="str">
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="306"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="297"/>
+      <c r="AB3" s="299"/>
+      <c r="AC3" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="465"/>
-      <c r="AE3" s="465"/>
-      <c r="AF3" s="466"/>
-      <c r="AG3" s="220" t="str">
+      <c r="AD3" s="313"/>
+      <c r="AE3" s="313"/>
+      <c r="AF3" s="314"/>
+      <c r="AG3" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="221"/>
-      <c r="AI3" s="222"/>
+      <c r="AH3" s="310"/>
+      <c r="AI3" s="311"/>
     </row>
     <row r="4" spans="1:35" s="66" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="170" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4" s="170"/>
       <c r="C4" s="170"/>
@@ -8364,7 +8365,7 @@
       <c r="O5" s="170"/>
       <c r="P5" s="170"/>
       <c r="Q5" s="172" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R5" s="170"/>
       <c r="S5" s="170"/>
@@ -8392,7 +8393,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="175"/>
       <c r="B7" s="176" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" s="176"/>
       <c r="D7" s="31"/>
@@ -8468,7 +8469,7 @@
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="175"/>
       <c r="B9" s="176" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" s="176"/>
       <c r="D9" s="31"/>
@@ -8544,7 +8545,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="175"/>
       <c r="B11" s="33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="175"/>
@@ -9740,6 +9741,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9750,13 +9758,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -9782,163 +9783,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="121" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="str">
+      <c r="A1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="229" t="str">
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="232" t="str">
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="233"/>
-      <c r="Q1" s="233"/>
-      <c r="R1" s="234"/>
-      <c r="S1" s="401" t="str">
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
+      <c r="R1" s="302"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design Document(JSON)</v>
       </c>
-      <c r="T1" s="402"/>
-      <c r="U1" s="402"/>
-      <c r="V1" s="402"/>
-      <c r="W1" s="402"/>
-      <c r="X1" s="402"/>
-      <c r="Y1" s="402"/>
-      <c r="Z1" s="403"/>
-      <c r="AA1" s="226" t="str">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="227"/>
-      <c r="AC1" s="464" t="str">
+      <c r="AB1" s="299"/>
+      <c r="AC1" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="465"/>
-      <c r="AE1" s="465"/>
-      <c r="AF1" s="466"/>
-      <c r="AG1" s="220">
+      <c r="AD1" s="313"/>
+      <c r="AE1" s="313"/>
+      <c r="AF1" s="314"/>
+      <c r="AG1" s="309">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="221"/>
-      <c r="AI1" s="222"/>
+      <c r="AH1" s="310"/>
+      <c r="AI1" s="311"/>
     </row>
     <row r="2" spans="1:35" s="121" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="226" t="str">
+      <c r="A2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="229" t="str">
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="235"/>
-      <c r="P2" s="467"/>
-      <c r="Q2" s="467"/>
-      <c r="R2" s="236"/>
-      <c r="S2" s="407"/>
-      <c r="T2" s="408"/>
-      <c r="U2" s="408"/>
-      <c r="V2" s="408"/>
-      <c r="W2" s="408"/>
-      <c r="X2" s="408"/>
-      <c r="Y2" s="408"/>
-      <c r="Z2" s="409"/>
-      <c r="AA2" s="226" t="str">
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="305"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="227"/>
-      <c r="AC2" s="464" t="str">
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="465"/>
-      <c r="AE2" s="465"/>
-      <c r="AF2" s="466"/>
-      <c r="AG2" s="220" t="str">
+      <c r="AD2" s="313"/>
+      <c r="AE2" s="313"/>
+      <c r="AF2" s="314"/>
+      <c r="AG2" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="221"/>
-      <c r="AI2" s="222"/>
+      <c r="AH2" s="310"/>
+      <c r="AI2" s="311"/>
     </row>
     <row r="3" spans="1:35" s="121" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="226" t="str">
+      <c r="A3" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="229" t="str">
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="231"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="238"/>
-      <c r="Q3" s="238"/>
-      <c r="R3" s="239"/>
-      <c r="S3" s="413"/>
-      <c r="T3" s="414"/>
-      <c r="U3" s="414"/>
-      <c r="V3" s="414"/>
-      <c r="W3" s="414"/>
-      <c r="X3" s="414"/>
-      <c r="Y3" s="414"/>
-      <c r="Z3" s="415"/>
-      <c r="AA3" s="226"/>
-      <c r="AB3" s="227"/>
-      <c r="AC3" s="464" t="str">
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="306"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="297"/>
+      <c r="AB3" s="299"/>
+      <c r="AC3" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="465"/>
-      <c r="AE3" s="465"/>
-      <c r="AF3" s="466"/>
-      <c r="AG3" s="220" t="str">
+      <c r="AD3" s="313"/>
+      <c r="AE3" s="313"/>
+      <c r="AF3" s="314"/>
+      <c r="AG3" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="221"/>
-      <c r="AI3" s="222"/>
+      <c r="AH3" s="310"/>
+      <c r="AI3" s="311"/>
     </row>
     <row r="4" spans="1:35" s="121" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="100"/>
@@ -9951,7 +9952,7 @@
     </row>
     <row r="5" spans="1:35" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="91" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="78"/>
     </row>
@@ -9960,12 +9961,12 @@
       <c r="C6" s="78"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="247" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="249"/>
+      <c r="A7" s="315" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="324"/>
+      <c r="C7" s="324"/>
+      <c r="D7" s="325"/>
       <c r="E7" s="123"/>
       <c r="F7" s="123"/>
       <c r="G7" s="123"/>
@@ -9978,82 +9979,82 @@
       <c r="N7" s="123"/>
       <c r="O7" s="123"/>
       <c r="P7" s="123"/>
-      <c r="Q7" s="280" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" s="269"/>
-      <c r="S7" s="269"/>
-      <c r="T7" s="270"/>
-      <c r="U7" s="274" t="s">
+      <c r="Q7" s="329" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="330"/>
+      <c r="S7" s="330"/>
+      <c r="T7" s="331"/>
+      <c r="U7" s="318" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" s="319"/>
+      <c r="W7" s="319"/>
+      <c r="X7" s="319"/>
+      <c r="Y7" s="319"/>
+      <c r="Z7" s="319"/>
+      <c r="AA7" s="319"/>
+      <c r="AB7" s="319"/>
+      <c r="AC7" s="319"/>
+      <c r="AD7" s="319"/>
+      <c r="AE7" s="319"/>
+      <c r="AF7" s="319"/>
+      <c r="AG7" s="319"/>
+      <c r="AH7" s="319"/>
+      <c r="AI7" s="320"/>
+    </row>
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="326" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="327"/>
+      <c r="C8" s="327"/>
+      <c r="D8" s="328"/>
+      <c r="E8" s="321" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="322"/>
+      <c r="G8" s="322"/>
+      <c r="H8" s="322"/>
+      <c r="I8" s="322"/>
+      <c r="J8" s="322"/>
+      <c r="K8" s="322"/>
+      <c r="L8" s="322"/>
+      <c r="M8" s="322"/>
+      <c r="N8" s="322"/>
+      <c r="O8" s="322"/>
+      <c r="P8" s="322"/>
+      <c r="Q8" s="315" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="324"/>
+      <c r="S8" s="324"/>
+      <c r="T8" s="325"/>
+      <c r="U8" s="321" t="s">
         <v>52</v>
       </c>
-      <c r="V7" s="275"/>
-      <c r="W7" s="275"/>
-      <c r="X7" s="275"/>
-      <c r="Y7" s="275"/>
-      <c r="Z7" s="275"/>
-      <c r="AA7" s="275"/>
-      <c r="AB7" s="275"/>
-      <c r="AC7" s="275"/>
-      <c r="AD7" s="275"/>
-      <c r="AE7" s="275"/>
-      <c r="AF7" s="275"/>
-      <c r="AG7" s="275"/>
-      <c r="AH7" s="275"/>
-      <c r="AI7" s="276"/>
-    </row>
-    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="277" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="278"/>
-      <c r="C8" s="278"/>
-      <c r="D8" s="279"/>
-      <c r="E8" s="259" t="s">
+      <c r="V8" s="322"/>
+      <c r="W8" s="322"/>
+      <c r="X8" s="322"/>
+      <c r="Y8" s="322"/>
+      <c r="Z8" s="322"/>
+      <c r="AA8" s="322"/>
+      <c r="AB8" s="322"/>
+      <c r="AC8" s="322"/>
+      <c r="AD8" s="322"/>
+      <c r="AE8" s="322"/>
+      <c r="AF8" s="322"/>
+      <c r="AG8" s="322"/>
+      <c r="AH8" s="322"/>
+      <c r="AI8" s="323"/>
+    </row>
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="315" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="260"/>
-      <c r="I8" s="260"/>
-      <c r="J8" s="260"/>
-      <c r="K8" s="260"/>
-      <c r="L8" s="260"/>
-      <c r="M8" s="260"/>
-      <c r="N8" s="260"/>
-      <c r="O8" s="260"/>
-      <c r="P8" s="260"/>
-      <c r="Q8" s="247" t="s">
-        <v>54</v>
-      </c>
-      <c r="R8" s="248"/>
-      <c r="S8" s="248"/>
-      <c r="T8" s="249"/>
-      <c r="U8" s="259" t="s">
-        <v>55</v>
-      </c>
-      <c r="V8" s="260"/>
-      <c r="W8" s="260"/>
-      <c r="X8" s="260"/>
-      <c r="Y8" s="260"/>
-      <c r="Z8" s="260"/>
-      <c r="AA8" s="260"/>
-      <c r="AB8" s="260"/>
-      <c r="AC8" s="260"/>
-      <c r="AD8" s="260"/>
-      <c r="AE8" s="260"/>
-      <c r="AF8" s="260"/>
-      <c r="AG8" s="260"/>
-      <c r="AH8" s="260"/>
-      <c r="AI8" s="261"/>
-    </row>
-    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="247" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="248"/>
-      <c r="C9" s="248"/>
-      <c r="D9" s="249"/>
+      <c r="B9" s="324"/>
+      <c r="C9" s="324"/>
+      <c r="D9" s="325"/>
       <c r="E9" s="125"/>
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
@@ -10089,7 +10090,7 @@
     <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="128"/>
       <c r="B10" s="129" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="129"/>
       <c r="D10" s="129"/>
@@ -10203,7 +10204,7 @@
       <c r="A13" s="133"/>
       <c r="B13" s="134"/>
       <c r="C13" s="135" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" s="135"/>
       <c r="E13" s="135"/>
@@ -10239,12 +10240,12 @@
       <c r="AI13" s="136"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="247" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="241"/>
-      <c r="C14" s="241"/>
-      <c r="D14" s="242"/>
+      <c r="A14" s="315" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="316"/>
+      <c r="C14" s="316"/>
+      <c r="D14" s="317"/>
       <c r="E14" s="126"/>
       <c r="F14" s="126"/>
       <c r="G14" s="126"/>
@@ -10389,12 +10390,12 @@
       <c r="AI17" s="136"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="262" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="263"/>
-      <c r="C18" s="263"/>
-      <c r="D18" s="264"/>
+      <c r="A18" s="332" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="333"/>
+      <c r="C18" s="333"/>
+      <c r="D18" s="334"/>
       <c r="E18" s="138"/>
       <c r="F18" s="139"/>
       <c r="G18" s="111"/>
@@ -10407,12 +10408,12 @@
       <c r="N18" s="111"/>
       <c r="O18" s="109"/>
       <c r="P18" s="111"/>
-      <c r="Q18" s="262" t="s">
-        <v>61</v>
-      </c>
-      <c r="R18" s="263"/>
-      <c r="S18" s="263"/>
-      <c r="T18" s="264"/>
+      <c r="Q18" s="332" t="s">
+        <v>58</v>
+      </c>
+      <c r="R18" s="333"/>
+      <c r="S18" s="333"/>
+      <c r="T18" s="334"/>
       <c r="U18" s="129"/>
       <c r="V18" s="129"/>
       <c r="W18" s="129"/>
@@ -10437,7 +10438,7 @@
       <c r="E19" s="138"/>
       <c r="F19" s="139"/>
       <c r="G19" s="139" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H19" s="111"/>
       <c r="I19" s="111"/>
@@ -10448,7 +10449,7 @@
       <c r="N19" s="111"/>
       <c r="O19" s="111"/>
       <c r="P19" s="111" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="141"/>
       <c r="R19" s="142"/>
@@ -10464,14 +10465,14 @@
       <c r="AB19" s="120"/>
       <c r="AC19" s="120"/>
       <c r="AD19" s="144" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AE19" s="120"/>
       <c r="AF19" s="120"/>
       <c r="AG19" s="129"/>
       <c r="AH19" s="129"/>
       <c r="AI19" s="130" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10512,55 +10513,55 @@
       <c r="AI20" s="130"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="247" t="s">
+      <c r="A21" s="315" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="324"/>
+      <c r="C21" s="324"/>
+      <c r="D21" s="325"/>
+      <c r="E21" s="321" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="322"/>
+      <c r="G21" s="322"/>
+      <c r="H21" s="322"/>
+      <c r="I21" s="322"/>
+      <c r="J21" s="322"/>
+      <c r="K21" s="322"/>
+      <c r="L21" s="322"/>
+      <c r="M21" s="322"/>
+      <c r="N21" s="322"/>
+      <c r="O21" s="322"/>
+      <c r="P21" s="323"/>
+      <c r="Q21" s="315" t="s">
+        <v>63</v>
+      </c>
+      <c r="R21" s="324"/>
+      <c r="S21" s="324"/>
+      <c r="T21" s="325"/>
+      <c r="U21" s="335"/>
+      <c r="V21" s="336"/>
+      <c r="W21" s="336"/>
+      <c r="X21" s="336"/>
+      <c r="Y21" s="336"/>
+      <c r="Z21" s="336"/>
+      <c r="AA21" s="336"/>
+      <c r="AB21" s="336"/>
+      <c r="AC21" s="336"/>
+      <c r="AD21" s="336"/>
+      <c r="AE21" s="336"/>
+      <c r="AF21" s="336"/>
+      <c r="AG21" s="336"/>
+      <c r="AH21" s="336"/>
+      <c r="AI21" s="337"/>
+    </row>
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="338" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="248"/>
-      <c r="C21" s="248"/>
-      <c r="D21" s="249"/>
-      <c r="E21" s="259" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
-      <c r="H21" s="260"/>
-      <c r="I21" s="260"/>
-      <c r="J21" s="260"/>
-      <c r="K21" s="260"/>
-      <c r="L21" s="260"/>
-      <c r="M21" s="260"/>
-      <c r="N21" s="260"/>
-      <c r="O21" s="260"/>
-      <c r="P21" s="261"/>
-      <c r="Q21" s="247" t="s">
-        <v>66</v>
-      </c>
-      <c r="R21" s="248"/>
-      <c r="S21" s="248"/>
-      <c r="T21" s="249"/>
-      <c r="U21" s="265"/>
-      <c r="V21" s="266"/>
-      <c r="W21" s="266"/>
-      <c r="X21" s="266"/>
-      <c r="Y21" s="266"/>
-      <c r="Z21" s="266"/>
-      <c r="AA21" s="266"/>
-      <c r="AB21" s="266"/>
-      <c r="AC21" s="266"/>
-      <c r="AD21" s="266"/>
-      <c r="AE21" s="266"/>
-      <c r="AF21" s="266"/>
-      <c r="AG21" s="266"/>
-      <c r="AH21" s="266"/>
-      <c r="AI21" s="267"/>
-    </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="268" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="269"/>
-      <c r="C22" s="269"/>
-      <c r="D22" s="270"/>
+      <c r="B22" s="330"/>
+      <c r="C22" s="330"/>
+      <c r="D22" s="331"/>
       <c r="E22" s="148"/>
       <c r="F22" s="149"/>
       <c r="G22" s="126"/>
@@ -10573,12 +10574,12 @@
       <c r="N22" s="126"/>
       <c r="O22" s="125"/>
       <c r="P22" s="126"/>
-      <c r="Q22" s="268" t="s">
-        <v>68</v>
-      </c>
-      <c r="R22" s="269"/>
-      <c r="S22" s="269"/>
-      <c r="T22" s="270"/>
+      <c r="Q22" s="338" t="s">
+        <v>65</v>
+      </c>
+      <c r="R22" s="330"/>
+      <c r="S22" s="330"/>
+      <c r="T22" s="331"/>
       <c r="U22" s="102"/>
       <c r="V22" s="103"/>
       <c r="W22" s="150"/>
@@ -10603,7 +10604,7 @@
       <c r="E23" s="152"/>
       <c r="F23" s="153"/>
       <c r="G23" s="153" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H23" s="134"/>
       <c r="I23" s="134"/>
@@ -10614,7 +10615,7 @@
       <c r="N23" s="134"/>
       <c r="O23" s="134"/>
       <c r="P23" s="134" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="145"/>
       <c r="R23" s="146"/>
@@ -10627,7 +10628,7 @@
       <c r="Y23" s="155"/>
       <c r="Z23" s="117"/>
       <c r="AA23" s="156" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB23" s="117"/>
       <c r="AC23" s="117"/>
@@ -10637,42 +10638,42 @@
       <c r="AG23" s="156"/>
       <c r="AH23" s="155"/>
       <c r="AI23" s="118" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="256" t="s">
+      <c r="A24" s="353" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="354"/>
+      <c r="C24" s="354"/>
+      <c r="D24" s="355"/>
+      <c r="E24" s="321" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="322"/>
+      <c r="G24" s="322"/>
+      <c r="H24" s="322"/>
+      <c r="I24" s="322"/>
+      <c r="J24" s="322"/>
+      <c r="K24" s="322"/>
+      <c r="L24" s="322"/>
+      <c r="M24" s="322"/>
+      <c r="N24" s="322"/>
+      <c r="O24" s="322"/>
+      <c r="P24" s="323"/>
+      <c r="Q24" s="339" t="s">
+        <v>68</v>
+      </c>
+      <c r="R24" s="340"/>
+      <c r="S24" s="340"/>
+      <c r="T24" s="341"/>
+      <c r="U24" s="345"/>
+      <c r="V24" s="346"/>
+      <c r="W24" s="346"/>
+      <c r="X24" s="346"/>
+      <c r="Y24" s="157" t="s">
         <v>69</v>
-      </c>
-      <c r="B24" s="257"/>
-      <c r="C24" s="257"/>
-      <c r="D24" s="258"/>
-      <c r="E24" s="259" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="260"/>
-      <c r="G24" s="260"/>
-      <c r="H24" s="260"/>
-      <c r="I24" s="260"/>
-      <c r="J24" s="260"/>
-      <c r="K24" s="260"/>
-      <c r="L24" s="260"/>
-      <c r="M24" s="260"/>
-      <c r="N24" s="260"/>
-      <c r="O24" s="260"/>
-      <c r="P24" s="261"/>
-      <c r="Q24" s="271" t="s">
-        <v>71</v>
-      </c>
-      <c r="R24" s="272"/>
-      <c r="S24" s="272"/>
-      <c r="T24" s="273"/>
-      <c r="U24" s="245"/>
-      <c r="V24" s="246"/>
-      <c r="W24" s="246"/>
-      <c r="X24" s="246"/>
-      <c r="Y24" s="157" t="s">
-        <v>72</v>
       </c>
       <c r="Z24" s="158"/>
       <c r="AA24" s="158"/>
@@ -10686,45 +10687,45 @@
       <c r="AI24" s="159"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="252" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="253"/>
-      <c r="C25" s="253"/>
-      <c r="D25" s="254"/>
+      <c r="A25" s="349" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="350"/>
+      <c r="C25" s="350"/>
+      <c r="D25" s="351"/>
       <c r="E25" s="148"/>
       <c r="F25" s="160"/>
       <c r="G25" s="149" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="243"/>
-      <c r="I25" s="244"/>
-      <c r="J25" s="244"/>
-      <c r="K25" s="244"/>
-      <c r="L25" s="244"/>
-      <c r="M25" s="244"/>
-      <c r="N25" s="244"/>
-      <c r="O25" s="244"/>
-      <c r="P25" s="244"/>
+        <v>59</v>
+      </c>
+      <c r="H25" s="343"/>
+      <c r="I25" s="344"/>
+      <c r="J25" s="344"/>
+      <c r="K25" s="344"/>
+      <c r="L25" s="344"/>
+      <c r="M25" s="344"/>
+      <c r="N25" s="344"/>
+      <c r="O25" s="344"/>
+      <c r="P25" s="344"/>
       <c r="Q25" s="126" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R25" s="126"/>
       <c r="S25" s="149"/>
       <c r="T25" s="149" t="s">
-        <v>62</v>
-      </c>
-      <c r="U25" s="255"/>
-      <c r="V25" s="255"/>
-      <c r="W25" s="255"/>
-      <c r="X25" s="255"/>
-      <c r="Y25" s="255"/>
-      <c r="Z25" s="255"/>
-      <c r="AA25" s="255"/>
-      <c r="AB25" s="255"/>
-      <c r="AC25" s="255"/>
+        <v>59</v>
+      </c>
+      <c r="U25" s="352"/>
+      <c r="V25" s="352"/>
+      <c r="W25" s="352"/>
+      <c r="X25" s="352"/>
+      <c r="Y25" s="352"/>
+      <c r="Z25" s="352"/>
+      <c r="AA25" s="352"/>
+      <c r="AB25" s="352"/>
+      <c r="AC25" s="352"/>
       <c r="AD25" s="126" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE25" s="126"/>
       <c r="AF25" s="126"/>
@@ -10740,36 +10741,36 @@
       <c r="E26" s="128"/>
       <c r="F26" s="164"/>
       <c r="G26" s="144" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="251"/>
-      <c r="I26" s="251"/>
-      <c r="J26" s="251"/>
-      <c r="K26" s="251"/>
-      <c r="L26" s="251"/>
-      <c r="M26" s="251"/>
-      <c r="N26" s="251"/>
-      <c r="O26" s="251"/>
-      <c r="P26" s="251"/>
+        <v>59</v>
+      </c>
+      <c r="H26" s="348"/>
+      <c r="I26" s="348"/>
+      <c r="J26" s="348"/>
+      <c r="K26" s="348"/>
+      <c r="L26" s="348"/>
+      <c r="M26" s="348"/>
+      <c r="N26" s="348"/>
+      <c r="O26" s="348"/>
+      <c r="P26" s="348"/>
       <c r="Q26" s="120" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R26" s="120"/>
       <c r="S26" s="144"/>
       <c r="T26" s="144" t="s">
-        <v>62</v>
-      </c>
-      <c r="U26" s="251"/>
-      <c r="V26" s="251"/>
-      <c r="W26" s="251"/>
-      <c r="X26" s="251"/>
-      <c r="Y26" s="251"/>
-      <c r="Z26" s="251"/>
-      <c r="AA26" s="251"/>
-      <c r="AB26" s="251"/>
-      <c r="AC26" s="251"/>
+        <v>59</v>
+      </c>
+      <c r="U26" s="348"/>
+      <c r="V26" s="348"/>
+      <c r="W26" s="348"/>
+      <c r="X26" s="348"/>
+      <c r="Y26" s="348"/>
+      <c r="Z26" s="348"/>
+      <c r="AA26" s="348"/>
+      <c r="AB26" s="348"/>
+      <c r="AC26" s="348"/>
       <c r="AD26" s="120" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AE26" s="120"/>
       <c r="AF26" s="120"/>
@@ -10785,50 +10786,50 @@
       <c r="E27" s="152"/>
       <c r="F27" s="168"/>
       <c r="G27" s="153" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="250"/>
-      <c r="I27" s="250"/>
-      <c r="J27" s="250"/>
-      <c r="K27" s="250"/>
-      <c r="L27" s="250"/>
-      <c r="M27" s="250"/>
-      <c r="N27" s="250"/>
-      <c r="O27" s="250"/>
-      <c r="P27" s="250"/>
+        <v>59</v>
+      </c>
+      <c r="H27" s="347"/>
+      <c r="I27" s="347"/>
+      <c r="J27" s="347"/>
+      <c r="K27" s="347"/>
+      <c r="L27" s="347"/>
+      <c r="M27" s="347"/>
+      <c r="N27" s="347"/>
+      <c r="O27" s="347"/>
+      <c r="P27" s="347"/>
       <c r="Q27" s="134" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R27" s="134"/>
       <c r="S27" s="153"/>
       <c r="T27" s="153" t="s">
-        <v>62</v>
-      </c>
-      <c r="U27" s="250"/>
-      <c r="V27" s="250"/>
-      <c r="W27" s="250"/>
-      <c r="X27" s="250"/>
-      <c r="Y27" s="250"/>
-      <c r="Z27" s="250"/>
-      <c r="AA27" s="250"/>
-      <c r="AB27" s="250"/>
-      <c r="AC27" s="250"/>
-      <c r="AD27" s="250"/>
-      <c r="AE27" s="250"/>
-      <c r="AF27" s="250"/>
-      <c r="AG27" s="250"/>
-      <c r="AH27" s="250"/>
+        <v>59</v>
+      </c>
+      <c r="U27" s="347"/>
+      <c r="V27" s="347"/>
+      <c r="W27" s="347"/>
+      <c r="X27" s="347"/>
+      <c r="Y27" s="347"/>
+      <c r="Z27" s="347"/>
+      <c r="AA27" s="347"/>
+      <c r="AB27" s="347"/>
+      <c r="AC27" s="347"/>
+      <c r="AD27" s="347"/>
+      <c r="AE27" s="347"/>
+      <c r="AF27" s="347"/>
+      <c r="AG27" s="347"/>
+      <c r="AH27" s="347"/>
       <c r="AI27" s="136" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="240" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="241"/>
-      <c r="C28" s="241"/>
-      <c r="D28" s="242"/>
+      <c r="A28" s="342" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="316"/>
+      <c r="C28" s="316"/>
+      <c r="D28" s="317"/>
       <c r="E28" s="126"/>
       <c r="F28" s="126"/>
       <c r="G28" s="126"/>
@@ -10974,21 +10975,23 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -11003,23 +11006,21 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:P21"/>
     <mergeCell ref="E24:P24"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -11562,163 +11563,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="79" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="str">
+      <c r="A1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="229" t="str">
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="232" t="str">
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="233"/>
-      <c r="Q1" s="233"/>
-      <c r="R1" s="234"/>
-      <c r="S1" s="401" t="str">
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
+      <c r="R1" s="302"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design Document(JSON)</v>
       </c>
-      <c r="T1" s="402"/>
-      <c r="U1" s="402"/>
-      <c r="V1" s="402"/>
-      <c r="W1" s="402"/>
-      <c r="X1" s="402"/>
-      <c r="Y1" s="402"/>
-      <c r="Z1" s="403"/>
-      <c r="AA1" s="226" t="str">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="227"/>
-      <c r="AC1" s="464" t="str">
+      <c r="AB1" s="299"/>
+      <c r="AC1" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="465"/>
-      <c r="AE1" s="465"/>
-      <c r="AF1" s="466"/>
-      <c r="AG1" s="220">
+      <c r="AD1" s="313"/>
+      <c r="AE1" s="313"/>
+      <c r="AF1" s="314"/>
+      <c r="AG1" s="309">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="221"/>
-      <c r="AI1" s="222"/>
+      <c r="AH1" s="310"/>
+      <c r="AI1" s="311"/>
     </row>
     <row r="2" spans="1:36" s="79" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="226" t="str">
+      <c r="A2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="229" t="str">
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="235"/>
-      <c r="P2" s="467"/>
-      <c r="Q2" s="467"/>
-      <c r="R2" s="236"/>
-      <c r="S2" s="407"/>
-      <c r="T2" s="408"/>
-      <c r="U2" s="408"/>
-      <c r="V2" s="408"/>
-      <c r="W2" s="408"/>
-      <c r="X2" s="408"/>
-      <c r="Y2" s="408"/>
-      <c r="Z2" s="409"/>
-      <c r="AA2" s="226" t="str">
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="305"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="227"/>
-      <c r="AC2" s="464" t="str">
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="465"/>
-      <c r="AE2" s="465"/>
-      <c r="AF2" s="466"/>
-      <c r="AG2" s="220" t="str">
+      <c r="AD2" s="313"/>
+      <c r="AE2" s="313"/>
+      <c r="AF2" s="314"/>
+      <c r="AG2" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="221"/>
-      <c r="AI2" s="222"/>
+      <c r="AH2" s="310"/>
+      <c r="AI2" s="311"/>
     </row>
     <row r="3" spans="1:36" s="79" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="226" t="str">
+      <c r="A3" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="229" t="str">
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="231"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="238"/>
-      <c r="Q3" s="238"/>
-      <c r="R3" s="239"/>
-      <c r="S3" s="413"/>
-      <c r="T3" s="414"/>
-      <c r="U3" s="414"/>
-      <c r="V3" s="414"/>
-      <c r="W3" s="414"/>
-      <c r="X3" s="414"/>
-      <c r="Y3" s="414"/>
-      <c r="Z3" s="415"/>
-      <c r="AA3" s="226"/>
-      <c r="AB3" s="227"/>
-      <c r="AC3" s="464" t="str">
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="306"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="297"/>
+      <c r="AB3" s="299"/>
+      <c r="AC3" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="465"/>
-      <c r="AE3" s="465"/>
-      <c r="AF3" s="466"/>
-      <c r="AG3" s="220" t="str">
+      <c r="AD3" s="313"/>
+      <c r="AE3" s="313"/>
+      <c r="AF3" s="314"/>
+      <c r="AG3" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="221"/>
-      <c r="AI3" s="222"/>
+      <c r="AH3" s="310"/>
+      <c r="AI3" s="311"/>
     </row>
     <row r="4" spans="1:36" s="79" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="80"/>
@@ -11779,7 +11780,7 @@
     </row>
     <row r="6" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="91" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" s="92"/>
     </row>
@@ -11788,461 +11789,461 @@
       <c r="C7" s="92"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="349" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="297"/>
-      <c r="C8" s="297"/>
-      <c r="D8" s="297"/>
-      <c r="E8" s="297"/>
-      <c r="F8" s="297"/>
-      <c r="G8" s="297"/>
-      <c r="H8" s="297"/>
-      <c r="I8" s="297"/>
-      <c r="J8" s="297"/>
-      <c r="K8" s="297"/>
-      <c r="L8" s="297"/>
-      <c r="M8" s="297"/>
-      <c r="N8" s="297"/>
-      <c r="O8" s="297"/>
-      <c r="P8" s="297"/>
-      <c r="Q8" s="297"/>
-      <c r="R8" s="297"/>
-      <c r="S8" s="297"/>
-      <c r="T8" s="297"/>
-      <c r="U8" s="297"/>
-      <c r="V8" s="297"/>
-      <c r="W8" s="297"/>
-      <c r="X8" s="297"/>
-      <c r="Y8" s="297"/>
-      <c r="Z8" s="297"/>
-      <c r="AA8" s="297"/>
-      <c r="AB8" s="350"/>
-      <c r="AC8" s="296" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD8" s="297"/>
-      <c r="AE8" s="298"/>
-      <c r="AF8" s="293"/>
-      <c r="AG8" s="294"/>
-      <c r="AH8" s="294"/>
-      <c r="AI8" s="295"/>
+      <c r="A8" s="374" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="375"/>
+      <c r="C8" s="375"/>
+      <c r="D8" s="375"/>
+      <c r="E8" s="375"/>
+      <c r="F8" s="375"/>
+      <c r="G8" s="375"/>
+      <c r="H8" s="375"/>
+      <c r="I8" s="375"/>
+      <c r="J8" s="375"/>
+      <c r="K8" s="375"/>
+      <c r="L8" s="375"/>
+      <c r="M8" s="375"/>
+      <c r="N8" s="375"/>
+      <c r="O8" s="375"/>
+      <c r="P8" s="375"/>
+      <c r="Q8" s="375"/>
+      <c r="R8" s="375"/>
+      <c r="S8" s="375"/>
+      <c r="T8" s="375"/>
+      <c r="U8" s="375"/>
+      <c r="V8" s="375"/>
+      <c r="W8" s="375"/>
+      <c r="X8" s="375"/>
+      <c r="Y8" s="375"/>
+      <c r="Z8" s="375"/>
+      <c r="AA8" s="375"/>
+      <c r="AB8" s="376"/>
+      <c r="AC8" s="440" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD8" s="375"/>
+      <c r="AE8" s="441"/>
+      <c r="AF8" s="437"/>
+      <c r="AG8" s="438"/>
+      <c r="AH8" s="438"/>
+      <c r="AI8" s="439"/>
     </row>
     <row r="9" spans="1:36" s="94" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="359" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="270"/>
+      <c r="D9" s="270"/>
+      <c r="E9" s="270"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="359" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="360"/>
+      <c r="I9" s="361"/>
+      <c r="J9" s="359" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="343" t="s">
+      <c r="K9" s="360"/>
+      <c r="L9" s="360"/>
+      <c r="M9" s="360"/>
+      <c r="N9" s="360"/>
+      <c r="O9" s="360"/>
+      <c r="P9" s="361"/>
+      <c r="Q9" s="364" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="344"/>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="345"/>
-      <c r="G9" s="343" t="s">
+      <c r="R9" s="366"/>
+      <c r="S9" s="364" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="346"/>
-      <c r="I9" s="348"/>
-      <c r="J9" s="343" t="s">
+      <c r="T9" s="365"/>
+      <c r="U9" s="366"/>
+      <c r="V9" s="359" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="346"/>
-      <c r="L9" s="346"/>
-      <c r="M9" s="346"/>
-      <c r="N9" s="346"/>
-      <c r="O9" s="346"/>
-      <c r="P9" s="348"/>
-      <c r="Q9" s="363" t="s">
+      <c r="W9" s="360"/>
+      <c r="X9" s="360"/>
+      <c r="Y9" s="360"/>
+      <c r="Z9" s="360"/>
+      <c r="AA9" s="360"/>
+      <c r="AB9" s="373"/>
+      <c r="AC9" s="385" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="365"/>
-      <c r="S9" s="363" t="s">
-        <v>45</v>
-      </c>
-      <c r="T9" s="364"/>
-      <c r="U9" s="365"/>
-      <c r="V9" s="343" t="s">
+      <c r="AD9" s="386"/>
+      <c r="AE9" s="386"/>
+      <c r="AF9" s="386"/>
+      <c r="AG9" s="386"/>
+      <c r="AH9" s="387" t="s">
         <v>46</v>
       </c>
-      <c r="W9" s="346"/>
-      <c r="X9" s="346"/>
-      <c r="Y9" s="346"/>
-      <c r="Z9" s="346"/>
-      <c r="AA9" s="346"/>
-      <c r="AB9" s="347"/>
-      <c r="AC9" s="357" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD9" s="358"/>
-      <c r="AE9" s="358"/>
-      <c r="AF9" s="358"/>
-      <c r="AG9" s="358"/>
-      <c r="AH9" s="359" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI9" s="359"/>
+      <c r="AI9" s="387"/>
     </row>
     <row r="10" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95">
         <v>1</v>
       </c>
-      <c r="B10" s="306" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="307"/>
-      <c r="D10" s="307"/>
-      <c r="E10" s="307"/>
-      <c r="F10" s="308"/>
-      <c r="G10" s="354"/>
-      <c r="H10" s="355"/>
-      <c r="I10" s="356"/>
-      <c r="J10" s="366"/>
-      <c r="K10" s="367"/>
-      <c r="L10" s="367"/>
-      <c r="M10" s="367"/>
-      <c r="N10" s="367"/>
-      <c r="O10" s="367"/>
-      <c r="P10" s="368"/>
-      <c r="Q10" s="315"/>
-      <c r="R10" s="317"/>
-      <c r="S10" s="315"/>
-      <c r="T10" s="316"/>
-      <c r="U10" s="317"/>
-      <c r="V10" s="360"/>
-      <c r="W10" s="361"/>
-      <c r="X10" s="361"/>
-      <c r="Y10" s="361"/>
-      <c r="Z10" s="361"/>
-      <c r="AA10" s="361"/>
-      <c r="AB10" s="362"/>
-      <c r="AC10" s="340"/>
-      <c r="AD10" s="284"/>
-      <c r="AE10" s="285"/>
-      <c r="AF10" s="285"/>
-      <c r="AG10" s="286"/>
-      <c r="AH10" s="304"/>
-      <c r="AI10" s="305"/>
+      <c r="B10" s="424" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="425"/>
+      <c r="D10" s="425"/>
+      <c r="E10" s="425"/>
+      <c r="F10" s="426"/>
+      <c r="G10" s="382"/>
+      <c r="H10" s="383"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="368"/>
+      <c r="K10" s="369"/>
+      <c r="L10" s="369"/>
+      <c r="M10" s="369"/>
+      <c r="N10" s="369"/>
+      <c r="O10" s="369"/>
+      <c r="P10" s="370"/>
+      <c r="Q10" s="380"/>
+      <c r="R10" s="381"/>
+      <c r="S10" s="380"/>
+      <c r="T10" s="427"/>
+      <c r="U10" s="381"/>
+      <c r="V10" s="388"/>
+      <c r="W10" s="389"/>
+      <c r="X10" s="389"/>
+      <c r="Y10" s="389"/>
+      <c r="Z10" s="389"/>
+      <c r="AA10" s="389"/>
+      <c r="AB10" s="390"/>
+      <c r="AC10" s="419"/>
+      <c r="AD10" s="431"/>
+      <c r="AE10" s="432"/>
+      <c r="AF10" s="432"/>
+      <c r="AG10" s="433"/>
+      <c r="AH10" s="422"/>
+      <c r="AI10" s="423"/>
     </row>
     <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="96">
         <v>2</v>
       </c>
-      <c r="B11" s="309"/>
-      <c r="C11" s="310"/>
-      <c r="D11" s="310"/>
-      <c r="E11" s="310"/>
-      <c r="F11" s="311"/>
-      <c r="G11" s="351"/>
-      <c r="H11" s="352"/>
-      <c r="I11" s="353"/>
-      <c r="J11" s="309"/>
-      <c r="K11" s="310"/>
-      <c r="L11" s="310"/>
-      <c r="M11" s="310"/>
-      <c r="N11" s="310"/>
-      <c r="O11" s="310"/>
-      <c r="P11" s="311"/>
-      <c r="Q11" s="318"/>
-      <c r="R11" s="320"/>
-      <c r="S11" s="318"/>
-      <c r="T11" s="319"/>
-      <c r="U11" s="320"/>
-      <c r="V11" s="301"/>
-      <c r="W11" s="302"/>
-      <c r="X11" s="302"/>
-      <c r="Y11" s="302"/>
-      <c r="Z11" s="302"/>
-      <c r="AA11" s="302"/>
-      <c r="AB11" s="303"/>
-      <c r="AC11" s="341"/>
-      <c r="AD11" s="287"/>
-      <c r="AE11" s="288"/>
-      <c r="AF11" s="288"/>
-      <c r="AG11" s="289"/>
-      <c r="AH11" s="299"/>
-      <c r="AI11" s="300"/>
+      <c r="B11" s="356"/>
+      <c r="C11" s="357"/>
+      <c r="D11" s="357"/>
+      <c r="E11" s="357"/>
+      <c r="F11" s="358"/>
+      <c r="G11" s="377"/>
+      <c r="H11" s="378"/>
+      <c r="I11" s="379"/>
+      <c r="J11" s="356"/>
+      <c r="K11" s="357"/>
+      <c r="L11" s="357"/>
+      <c r="M11" s="357"/>
+      <c r="N11" s="357"/>
+      <c r="O11" s="357"/>
+      <c r="P11" s="358"/>
+      <c r="Q11" s="362"/>
+      <c r="R11" s="363"/>
+      <c r="S11" s="362"/>
+      <c r="T11" s="367"/>
+      <c r="U11" s="363"/>
+      <c r="V11" s="391"/>
+      <c r="W11" s="392"/>
+      <c r="X11" s="392"/>
+      <c r="Y11" s="392"/>
+      <c r="Z11" s="392"/>
+      <c r="AA11" s="392"/>
+      <c r="AB11" s="393"/>
+      <c r="AC11" s="420"/>
+      <c r="AD11" s="434"/>
+      <c r="AE11" s="435"/>
+      <c r="AF11" s="435"/>
+      <c r="AG11" s="436"/>
+      <c r="AH11" s="371"/>
+      <c r="AI11" s="372"/>
     </row>
     <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="96">
         <v>3</v>
       </c>
-      <c r="B12" s="309"/>
-      <c r="C12" s="310"/>
-      <c r="D12" s="310"/>
-      <c r="E12" s="310"/>
-      <c r="F12" s="311"/>
-      <c r="G12" s="351"/>
-      <c r="H12" s="352"/>
-      <c r="I12" s="353"/>
-      <c r="J12" s="309"/>
-      <c r="K12" s="310"/>
-      <c r="L12" s="310"/>
-      <c r="M12" s="310"/>
-      <c r="N12" s="310"/>
-      <c r="O12" s="310"/>
-      <c r="P12" s="311"/>
-      <c r="Q12" s="318"/>
-      <c r="R12" s="320"/>
-      <c r="S12" s="318"/>
-      <c r="T12" s="319"/>
-      <c r="U12" s="320"/>
-      <c r="V12" s="301"/>
-      <c r="W12" s="302"/>
-      <c r="X12" s="302"/>
-      <c r="Y12" s="302"/>
-      <c r="Z12" s="302"/>
-      <c r="AA12" s="302"/>
-      <c r="AB12" s="303"/>
-      <c r="AC12" s="341"/>
-      <c r="AD12" s="290"/>
-      <c r="AE12" s="291"/>
-      <c r="AF12" s="291"/>
-      <c r="AG12" s="292"/>
-      <c r="AH12" s="299"/>
-      <c r="AI12" s="300"/>
+      <c r="B12" s="356"/>
+      <c r="C12" s="357"/>
+      <c r="D12" s="357"/>
+      <c r="E12" s="357"/>
+      <c r="F12" s="358"/>
+      <c r="G12" s="377"/>
+      <c r="H12" s="378"/>
+      <c r="I12" s="379"/>
+      <c r="J12" s="356"/>
+      <c r="K12" s="357"/>
+      <c r="L12" s="357"/>
+      <c r="M12" s="357"/>
+      <c r="N12" s="357"/>
+      <c r="O12" s="357"/>
+      <c r="P12" s="358"/>
+      <c r="Q12" s="362"/>
+      <c r="R12" s="363"/>
+      <c r="S12" s="362"/>
+      <c r="T12" s="367"/>
+      <c r="U12" s="363"/>
+      <c r="V12" s="391"/>
+      <c r="W12" s="392"/>
+      <c r="X12" s="392"/>
+      <c r="Y12" s="392"/>
+      <c r="Z12" s="392"/>
+      <c r="AA12" s="392"/>
+      <c r="AB12" s="393"/>
+      <c r="AC12" s="420"/>
+      <c r="AD12" s="394"/>
+      <c r="AE12" s="395"/>
+      <c r="AF12" s="395"/>
+      <c r="AG12" s="396"/>
+      <c r="AH12" s="371"/>
+      <c r="AI12" s="372"/>
     </row>
     <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="96">
         <v>4</v>
       </c>
-      <c r="B13" s="309"/>
-      <c r="C13" s="310"/>
-      <c r="D13" s="310"/>
-      <c r="E13" s="310"/>
-      <c r="F13" s="311"/>
-      <c r="G13" s="351"/>
-      <c r="H13" s="352"/>
-      <c r="I13" s="353"/>
-      <c r="J13" s="309"/>
-      <c r="K13" s="310"/>
-      <c r="L13" s="310"/>
-      <c r="M13" s="310"/>
-      <c r="N13" s="310"/>
-      <c r="O13" s="310"/>
-      <c r="P13" s="311"/>
-      <c r="Q13" s="318"/>
-      <c r="R13" s="320"/>
-      <c r="S13" s="318"/>
-      <c r="T13" s="319"/>
-      <c r="U13" s="320"/>
-      <c r="V13" s="301"/>
-      <c r="W13" s="302"/>
-      <c r="X13" s="302"/>
-      <c r="Y13" s="302"/>
-      <c r="Z13" s="302"/>
-      <c r="AA13" s="302"/>
-      <c r="AB13" s="303"/>
-      <c r="AC13" s="341"/>
-      <c r="AD13" s="290"/>
-      <c r="AE13" s="291"/>
-      <c r="AF13" s="291"/>
-      <c r="AG13" s="292"/>
-      <c r="AH13" s="299"/>
-      <c r="AI13" s="300"/>
+      <c r="B13" s="356"/>
+      <c r="C13" s="357"/>
+      <c r="D13" s="357"/>
+      <c r="E13" s="357"/>
+      <c r="F13" s="358"/>
+      <c r="G13" s="377"/>
+      <c r="H13" s="378"/>
+      <c r="I13" s="379"/>
+      <c r="J13" s="356"/>
+      <c r="K13" s="357"/>
+      <c r="L13" s="357"/>
+      <c r="M13" s="357"/>
+      <c r="N13" s="357"/>
+      <c r="O13" s="357"/>
+      <c r="P13" s="358"/>
+      <c r="Q13" s="362"/>
+      <c r="R13" s="363"/>
+      <c r="S13" s="362"/>
+      <c r="T13" s="367"/>
+      <c r="U13" s="363"/>
+      <c r="V13" s="391"/>
+      <c r="W13" s="392"/>
+      <c r="X13" s="392"/>
+      <c r="Y13" s="392"/>
+      <c r="Z13" s="392"/>
+      <c r="AA13" s="392"/>
+      <c r="AB13" s="393"/>
+      <c r="AC13" s="420"/>
+      <c r="AD13" s="394"/>
+      <c r="AE13" s="395"/>
+      <c r="AF13" s="395"/>
+      <c r="AG13" s="396"/>
+      <c r="AH13" s="371"/>
+      <c r="AI13" s="372"/>
     </row>
     <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="96">
         <v>5</v>
       </c>
-      <c r="B14" s="312"/>
-      <c r="C14" s="313"/>
-      <c r="D14" s="313"/>
-      <c r="E14" s="313"/>
-      <c r="F14" s="314"/>
-      <c r="G14" s="309"/>
-      <c r="H14" s="310"/>
-      <c r="I14" s="311"/>
-      <c r="J14" s="309"/>
-      <c r="K14" s="310"/>
-      <c r="L14" s="310"/>
-      <c r="M14" s="310"/>
-      <c r="N14" s="310"/>
-      <c r="O14" s="310"/>
-      <c r="P14" s="311"/>
-      <c r="Q14" s="318"/>
-      <c r="R14" s="320"/>
-      <c r="S14" s="318"/>
-      <c r="T14" s="319"/>
-      <c r="U14" s="320"/>
-      <c r="V14" s="301"/>
-      <c r="W14" s="302"/>
-      <c r="X14" s="302"/>
-      <c r="Y14" s="302"/>
-      <c r="Z14" s="302"/>
-      <c r="AA14" s="302"/>
-      <c r="AB14" s="303"/>
-      <c r="AC14" s="341"/>
-      <c r="AD14" s="290"/>
-      <c r="AE14" s="291"/>
-      <c r="AF14" s="291"/>
-      <c r="AG14" s="292"/>
-      <c r="AH14" s="299"/>
-      <c r="AI14" s="300"/>
+      <c r="B14" s="411"/>
+      <c r="C14" s="412"/>
+      <c r="D14" s="412"/>
+      <c r="E14" s="412"/>
+      <c r="F14" s="413"/>
+      <c r="G14" s="356"/>
+      <c r="H14" s="357"/>
+      <c r="I14" s="358"/>
+      <c r="J14" s="356"/>
+      <c r="K14" s="357"/>
+      <c r="L14" s="357"/>
+      <c r="M14" s="357"/>
+      <c r="N14" s="357"/>
+      <c r="O14" s="357"/>
+      <c r="P14" s="358"/>
+      <c r="Q14" s="362"/>
+      <c r="R14" s="363"/>
+      <c r="S14" s="362"/>
+      <c r="T14" s="367"/>
+      <c r="U14" s="363"/>
+      <c r="V14" s="391"/>
+      <c r="W14" s="392"/>
+      <c r="X14" s="392"/>
+      <c r="Y14" s="392"/>
+      <c r="Z14" s="392"/>
+      <c r="AA14" s="392"/>
+      <c r="AB14" s="393"/>
+      <c r="AC14" s="420"/>
+      <c r="AD14" s="394"/>
+      <c r="AE14" s="395"/>
+      <c r="AF14" s="395"/>
+      <c r="AG14" s="396"/>
+      <c r="AH14" s="371"/>
+      <c r="AI14" s="372"/>
     </row>
     <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="96">
         <v>6</v>
       </c>
-      <c r="B15" s="312"/>
-      <c r="C15" s="313"/>
-      <c r="D15" s="313"/>
-      <c r="E15" s="313"/>
-      <c r="F15" s="314"/>
-      <c r="G15" s="309"/>
-      <c r="H15" s="310"/>
-      <c r="I15" s="311"/>
-      <c r="J15" s="309"/>
-      <c r="K15" s="310"/>
-      <c r="L15" s="310"/>
-      <c r="M15" s="310"/>
-      <c r="N15" s="310"/>
-      <c r="O15" s="310"/>
-      <c r="P15" s="311"/>
-      <c r="Q15" s="318"/>
-      <c r="R15" s="320"/>
-      <c r="S15" s="318"/>
-      <c r="T15" s="319"/>
-      <c r="U15" s="320"/>
-      <c r="V15" s="301"/>
-      <c r="W15" s="302"/>
-      <c r="X15" s="302"/>
-      <c r="Y15" s="302"/>
-      <c r="Z15" s="302"/>
-      <c r="AA15" s="302"/>
-      <c r="AB15" s="303"/>
-      <c r="AC15" s="341"/>
-      <c r="AD15" s="290"/>
-      <c r="AE15" s="291"/>
-      <c r="AF15" s="291"/>
-      <c r="AG15" s="292"/>
-      <c r="AH15" s="299"/>
-      <c r="AI15" s="300"/>
+      <c r="B15" s="411"/>
+      <c r="C15" s="412"/>
+      <c r="D15" s="412"/>
+      <c r="E15" s="412"/>
+      <c r="F15" s="413"/>
+      <c r="G15" s="356"/>
+      <c r="H15" s="357"/>
+      <c r="I15" s="358"/>
+      <c r="J15" s="356"/>
+      <c r="K15" s="357"/>
+      <c r="L15" s="357"/>
+      <c r="M15" s="357"/>
+      <c r="N15" s="357"/>
+      <c r="O15" s="357"/>
+      <c r="P15" s="358"/>
+      <c r="Q15" s="362"/>
+      <c r="R15" s="363"/>
+      <c r="S15" s="362"/>
+      <c r="T15" s="367"/>
+      <c r="U15" s="363"/>
+      <c r="V15" s="391"/>
+      <c r="W15" s="392"/>
+      <c r="X15" s="392"/>
+      <c r="Y15" s="392"/>
+      <c r="Z15" s="392"/>
+      <c r="AA15" s="392"/>
+      <c r="AB15" s="393"/>
+      <c r="AC15" s="420"/>
+      <c r="AD15" s="394"/>
+      <c r="AE15" s="395"/>
+      <c r="AF15" s="395"/>
+      <c r="AG15" s="396"/>
+      <c r="AH15" s="371"/>
+      <c r="AI15" s="372"/>
     </row>
     <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="97">
         <v>7</v>
       </c>
-      <c r="B16" s="312"/>
-      <c r="C16" s="313"/>
-      <c r="D16" s="313"/>
-      <c r="E16" s="313"/>
-      <c r="F16" s="314"/>
-      <c r="G16" s="309"/>
-      <c r="H16" s="310"/>
-      <c r="I16" s="311"/>
-      <c r="J16" s="309"/>
-      <c r="K16" s="310"/>
-      <c r="L16" s="310"/>
-      <c r="M16" s="310"/>
-      <c r="N16" s="310"/>
-      <c r="O16" s="310"/>
-      <c r="P16" s="311"/>
-      <c r="Q16" s="318"/>
-      <c r="R16" s="320"/>
-      <c r="S16" s="318"/>
-      <c r="T16" s="319"/>
-      <c r="U16" s="320"/>
-      <c r="V16" s="301"/>
-      <c r="W16" s="302"/>
-      <c r="X16" s="302"/>
-      <c r="Y16" s="302"/>
-      <c r="Z16" s="302"/>
-      <c r="AA16" s="302"/>
-      <c r="AB16" s="303"/>
-      <c r="AC16" s="341"/>
-      <c r="AD16" s="290"/>
-      <c r="AE16" s="291"/>
-      <c r="AF16" s="291"/>
-      <c r="AG16" s="292"/>
-      <c r="AH16" s="299"/>
-      <c r="AI16" s="300"/>
+      <c r="B16" s="411"/>
+      <c r="C16" s="412"/>
+      <c r="D16" s="412"/>
+      <c r="E16" s="412"/>
+      <c r="F16" s="413"/>
+      <c r="G16" s="356"/>
+      <c r="H16" s="357"/>
+      <c r="I16" s="358"/>
+      <c r="J16" s="356"/>
+      <c r="K16" s="357"/>
+      <c r="L16" s="357"/>
+      <c r="M16" s="357"/>
+      <c r="N16" s="357"/>
+      <c r="O16" s="357"/>
+      <c r="P16" s="358"/>
+      <c r="Q16" s="362"/>
+      <c r="R16" s="363"/>
+      <c r="S16" s="362"/>
+      <c r="T16" s="367"/>
+      <c r="U16" s="363"/>
+      <c r="V16" s="391"/>
+      <c r="W16" s="392"/>
+      <c r="X16" s="392"/>
+      <c r="Y16" s="392"/>
+      <c r="Z16" s="392"/>
+      <c r="AA16" s="392"/>
+      <c r="AB16" s="393"/>
+      <c r="AC16" s="420"/>
+      <c r="AD16" s="394"/>
+      <c r="AE16" s="395"/>
+      <c r="AF16" s="395"/>
+      <c r="AG16" s="396"/>
+      <c r="AH16" s="371"/>
+      <c r="AI16" s="372"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="97">
         <v>8</v>
       </c>
-      <c r="B17" s="312"/>
-      <c r="C17" s="313"/>
-      <c r="D17" s="313"/>
-      <c r="E17" s="313"/>
-      <c r="F17" s="314"/>
-      <c r="G17" s="309"/>
-      <c r="H17" s="310"/>
-      <c r="I17" s="311"/>
-      <c r="J17" s="309"/>
-      <c r="K17" s="310"/>
-      <c r="L17" s="310"/>
-      <c r="M17" s="310"/>
-      <c r="N17" s="310"/>
-      <c r="O17" s="310"/>
-      <c r="P17" s="311"/>
-      <c r="Q17" s="318"/>
-      <c r="R17" s="320"/>
-      <c r="S17" s="318"/>
-      <c r="T17" s="319"/>
-      <c r="U17" s="320"/>
-      <c r="V17" s="301"/>
-      <c r="W17" s="302"/>
-      <c r="X17" s="302"/>
-      <c r="Y17" s="302"/>
-      <c r="Z17" s="302"/>
-      <c r="AA17" s="302"/>
-      <c r="AB17" s="303"/>
-      <c r="AC17" s="341"/>
-      <c r="AD17" s="290"/>
-      <c r="AE17" s="291"/>
-      <c r="AF17" s="291"/>
-      <c r="AG17" s="292"/>
-      <c r="AH17" s="299"/>
-      <c r="AI17" s="300"/>
+      <c r="B17" s="411"/>
+      <c r="C17" s="412"/>
+      <c r="D17" s="412"/>
+      <c r="E17" s="412"/>
+      <c r="F17" s="413"/>
+      <c r="G17" s="356"/>
+      <c r="H17" s="357"/>
+      <c r="I17" s="358"/>
+      <c r="J17" s="356"/>
+      <c r="K17" s="357"/>
+      <c r="L17" s="357"/>
+      <c r="M17" s="357"/>
+      <c r="N17" s="357"/>
+      <c r="O17" s="357"/>
+      <c r="P17" s="358"/>
+      <c r="Q17" s="362"/>
+      <c r="R17" s="363"/>
+      <c r="S17" s="362"/>
+      <c r="T17" s="367"/>
+      <c r="U17" s="363"/>
+      <c r="V17" s="391"/>
+      <c r="W17" s="392"/>
+      <c r="X17" s="392"/>
+      <c r="Y17" s="392"/>
+      <c r="Z17" s="392"/>
+      <c r="AA17" s="392"/>
+      <c r="AB17" s="393"/>
+      <c r="AC17" s="420"/>
+      <c r="AD17" s="394"/>
+      <c r="AE17" s="395"/>
+      <c r="AF17" s="395"/>
+      <c r="AG17" s="396"/>
+      <c r="AH17" s="371"/>
+      <c r="AI17" s="372"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="98">
         <v>9</v>
       </c>
-      <c r="B18" s="335"/>
-      <c r="C18" s="336"/>
-      <c r="D18" s="336"/>
-      <c r="E18" s="336"/>
-      <c r="F18" s="337"/>
-      <c r="G18" s="332"/>
-      <c r="H18" s="333"/>
-      <c r="I18" s="334"/>
-      <c r="J18" s="332"/>
-      <c r="K18" s="333"/>
-      <c r="L18" s="333"/>
-      <c r="M18" s="333"/>
-      <c r="N18" s="333"/>
-      <c r="O18" s="333"/>
-      <c r="P18" s="334"/>
-      <c r="Q18" s="329"/>
-      <c r="R18" s="331"/>
-      <c r="S18" s="329"/>
-      <c r="T18" s="330"/>
-      <c r="U18" s="331"/>
-      <c r="V18" s="324"/>
-      <c r="W18" s="325"/>
-      <c r="X18" s="325"/>
-      <c r="Y18" s="325"/>
-      <c r="Z18" s="325"/>
-      <c r="AA18" s="325"/>
-      <c r="AB18" s="326"/>
-      <c r="AC18" s="342"/>
-      <c r="AD18" s="281"/>
-      <c r="AE18" s="282"/>
-      <c r="AF18" s="282"/>
-      <c r="AG18" s="283"/>
-      <c r="AH18" s="338"/>
-      <c r="AI18" s="339"/>
+      <c r="B18" s="414"/>
+      <c r="C18" s="415"/>
+      <c r="D18" s="415"/>
+      <c r="E18" s="415"/>
+      <c r="F18" s="416"/>
+      <c r="G18" s="408"/>
+      <c r="H18" s="409"/>
+      <c r="I18" s="410"/>
+      <c r="J18" s="408"/>
+      <c r="K18" s="409"/>
+      <c r="L18" s="409"/>
+      <c r="M18" s="409"/>
+      <c r="N18" s="409"/>
+      <c r="O18" s="409"/>
+      <c r="P18" s="410"/>
+      <c r="Q18" s="405"/>
+      <c r="R18" s="407"/>
+      <c r="S18" s="405"/>
+      <c r="T18" s="406"/>
+      <c r="U18" s="407"/>
+      <c r="V18" s="400"/>
+      <c r="W18" s="401"/>
+      <c r="X18" s="401"/>
+      <c r="Y18" s="401"/>
+      <c r="Z18" s="401"/>
+      <c r="AA18" s="401"/>
+      <c r="AB18" s="402"/>
+      <c r="AC18" s="421"/>
+      <c r="AD18" s="428"/>
+      <c r="AE18" s="429"/>
+      <c r="AF18" s="429"/>
+      <c r="AG18" s="430"/>
+      <c r="AH18" s="417"/>
+      <c r="AI18" s="418"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="327"/>
-      <c r="B19" s="328"/>
-      <c r="C19" s="328"/>
-      <c r="D19" s="328"/>
-      <c r="E19" s="328"/>
-      <c r="F19" s="328"/>
+      <c r="A19" s="403"/>
+      <c r="B19" s="404"/>
+      <c r="C19" s="404"/>
+      <c r="D19" s="404"/>
+      <c r="E19" s="404"/>
+      <c r="F19" s="404"/>
       <c r="G19" s="99"/>
       <c r="H19" s="99"/>
       <c r="I19" s="99"/>
@@ -12266,23 +12267,23 @@
       <c r="AA19" s="99"/>
       <c r="AB19" s="99"/>
       <c r="AC19" s="100"/>
-      <c r="AD19" s="323"/>
-      <c r="AE19" s="323"/>
-      <c r="AF19" s="323"/>
-      <c r="AG19" s="323"/>
-      <c r="AH19" s="323"/>
+      <c r="AD19" s="399"/>
+      <c r="AE19" s="399"/>
+      <c r="AF19" s="399"/>
+      <c r="AG19" s="399"/>
+      <c r="AH19" s="399"/>
       <c r="AI19" s="35"/>
       <c r="AJ19" s="101"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="321" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="322"/>
-      <c r="C20" s="322"/>
-      <c r="D20" s="322"/>
-      <c r="E20" s="322"/>
-      <c r="F20" s="322"/>
+      <c r="A20" s="397" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="398"/>
+      <c r="C20" s="398"/>
+      <c r="D20" s="398"/>
+      <c r="E20" s="398"/>
+      <c r="F20" s="398"/>
       <c r="G20" s="102"/>
       <c r="H20" s="103"/>
       <c r="I20" s="103"/>
@@ -12829,20 +12830,72 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AC10:AC18"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AH16:AI16"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
@@ -12867,72 +12920,20 @@
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="V10:AB10"/>
     <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AC10:AC18"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="J10:P10"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -12957,10 +12958,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CR32"/>
+  <dimension ref="A1:CR33"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12973,469 +12974,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="226" t="str">
+      <c r="A1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="229" t="str">
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="232" t="str">
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="300" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="233"/>
-      <c r="Q1" s="233"/>
-      <c r="R1" s="234"/>
-      <c r="S1" s="401" t="str">
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
+      <c r="R1" s="302"/>
+      <c r="S1" s="251" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design Document(JSON)</v>
       </c>
-      <c r="T1" s="402"/>
-      <c r="U1" s="402"/>
-      <c r="V1" s="402"/>
-      <c r="W1" s="402"/>
-      <c r="X1" s="402"/>
-      <c r="Y1" s="402"/>
-      <c r="Z1" s="403"/>
-      <c r="AA1" s="226" t="str">
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
+      <c r="X1" s="252"/>
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="227"/>
-      <c r="AC1" s="464" t="str">
+      <c r="AB1" s="299"/>
+      <c r="AC1" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="465"/>
-      <c r="AE1" s="465"/>
-      <c r="AF1" s="466"/>
-      <c r="AG1" s="220">
+      <c r="AD1" s="313"/>
+      <c r="AE1" s="313"/>
+      <c r="AF1" s="314"/>
+      <c r="AG1" s="309">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="221"/>
-      <c r="AI1" s="222"/>
+      <c r="AH1" s="310"/>
+      <c r="AI1" s="311"/>
     </row>
     <row r="2" spans="1:96" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="226" t="str">
+      <c r="A2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="229" t="str">
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="235"/>
-      <c r="P2" s="467"/>
-      <c r="Q2" s="467"/>
-      <c r="R2" s="236"/>
-      <c r="S2" s="407"/>
-      <c r="T2" s="408"/>
-      <c r="U2" s="408"/>
-      <c r="V2" s="408"/>
-      <c r="W2" s="408"/>
-      <c r="X2" s="408"/>
-      <c r="Y2" s="408"/>
-      <c r="Z2" s="409"/>
-      <c r="AA2" s="226" t="str">
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="305"/>
+      <c r="S2" s="254"/>
+      <c r="T2" s="255"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="256"/>
+      <c r="AA2" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="227"/>
-      <c r="AC2" s="464" t="str">
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="465"/>
-      <c r="AE2" s="465"/>
-      <c r="AF2" s="466"/>
-      <c r="AG2" s="220" t="str">
+      <c r="AD2" s="313"/>
+      <c r="AE2" s="313"/>
+      <c r="AF2" s="314"/>
+      <c r="AG2" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="221"/>
-      <c r="AI2" s="222"/>
+      <c r="AH2" s="310"/>
+      <c r="AI2" s="311"/>
     </row>
     <row r="3" spans="1:96" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="226" t="str">
+      <c r="A3" s="297" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="229" t="str">
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="245" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="230"/>
-      <c r="N3" s="231"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="238"/>
-      <c r="Q3" s="238"/>
-      <c r="R3" s="239"/>
-      <c r="S3" s="413"/>
-      <c r="T3" s="414"/>
-      <c r="U3" s="414"/>
-      <c r="V3" s="414"/>
-      <c r="W3" s="414"/>
-      <c r="X3" s="414"/>
-      <c r="Y3" s="414"/>
-      <c r="Z3" s="415"/>
-      <c r="AA3" s="226"/>
-      <c r="AB3" s="227"/>
-      <c r="AC3" s="464" t="str">
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="306"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="257"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="259"/>
+      <c r="AA3" s="297"/>
+      <c r="AB3" s="299"/>
+      <c r="AC3" s="312" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="465"/>
-      <c r="AE3" s="465"/>
-      <c r="AF3" s="466"/>
-      <c r="AG3" s="220" t="str">
+      <c r="AD3" s="313"/>
+      <c r="AE3" s="313"/>
+      <c r="AF3" s="314"/>
+      <c r="AG3" s="309" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="221"/>
-      <c r="AI3" s="222"/>
+      <c r="AH3" s="310"/>
+      <c r="AI3" s="311"/>
     </row>
     <row r="4" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="33" t="s">
+        <v>85</v>
+      </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-    </row>
-    <row r="7" spans="1:96" s="213" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="209" t="s">
+    </row>
+    <row r="7" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+    </row>
+    <row r="8" spans="1:96" s="213" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="380" t="s">
+      <c r="B8" s="461" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="381"/>
-      <c r="D7" s="381"/>
-      <c r="E7" s="381"/>
-      <c r="F7" s="382"/>
-      <c r="G7" s="380" t="s">
+      <c r="C8" s="462"/>
+      <c r="D8" s="462"/>
+      <c r="E8" s="462"/>
+      <c r="F8" s="463"/>
+      <c r="G8" s="461" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="381"/>
-      <c r="I7" s="381"/>
-      <c r="J7" s="381"/>
-      <c r="K7" s="382"/>
-      <c r="L7" s="380" t="s">
+      <c r="H8" s="462"/>
+      <c r="I8" s="462"/>
+      <c r="J8" s="462"/>
+      <c r="K8" s="463"/>
+      <c r="L8" s="461" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="381"/>
-      <c r="N7" s="381"/>
-      <c r="O7" s="381"/>
-      <c r="P7" s="382"/>
-      <c r="Q7" s="210" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" s="390" t="s">
+      <c r="M8" s="462"/>
+      <c r="N8" s="462"/>
+      <c r="O8" s="462"/>
+      <c r="P8" s="463"/>
+      <c r="Q8" s="210" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="455" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="390"/>
-      <c r="T7" s="390"/>
-      <c r="U7" s="390"/>
-      <c r="V7" s="391" t="s">
+      <c r="S8" s="455"/>
+      <c r="T8" s="455"/>
+      <c r="U8" s="455"/>
+      <c r="V8" s="456" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="392"/>
-      <c r="X7" s="391" t="s">
+      <c r="W8" s="457"/>
+      <c r="X8" s="456" t="s">
         <v>26</v>
       </c>
-      <c r="Y7" s="392"/>
-      <c r="Z7" s="380" t="s">
+      <c r="Y8" s="457"/>
+      <c r="Z8" s="461" t="s">
         <v>27</v>
       </c>
-      <c r="AA7" s="381"/>
-      <c r="AB7" s="382"/>
-      <c r="AC7" s="380" t="s">
+      <c r="AA8" s="462"/>
+      <c r="AB8" s="463"/>
+      <c r="AC8" s="461" t="s">
         <v>28</v>
       </c>
-      <c r="AD7" s="381"/>
-      <c r="AE7" s="381"/>
-      <c r="AF7" s="381"/>
-      <c r="AG7" s="381"/>
-      <c r="AH7" s="381"/>
-      <c r="AI7" s="381"/>
-      <c r="AJ7" s="381"/>
-      <c r="AK7" s="382"/>
-      <c r="AL7" s="211"/>
-      <c r="AM7" s="211"/>
-      <c r="AN7" s="211"/>
-      <c r="AO7" s="211"/>
-      <c r="AP7" s="211"/>
-      <c r="AQ7" s="211"/>
-      <c r="AR7" s="211"/>
-      <c r="AS7" s="211"/>
-      <c r="AT7" s="211"/>
-      <c r="AU7" s="211"/>
-      <c r="AV7" s="211"/>
-      <c r="AW7" s="211"/>
-      <c r="AX7" s="211"/>
-      <c r="AY7" s="211"/>
-      <c r="AZ7" s="211"/>
-      <c r="BA7" s="211"/>
-      <c r="BB7" s="211"/>
-      <c r="BC7" s="211"/>
-      <c r="BD7" s="211"/>
-      <c r="BE7" s="211"/>
-      <c r="BF7" s="211"/>
-      <c r="BG7" s="211"/>
-      <c r="BH7" s="211"/>
-      <c r="BI7" s="211"/>
-      <c r="BJ7" s="211"/>
-      <c r="BK7" s="211"/>
-      <c r="BL7" s="211"/>
-      <c r="BM7" s="211"/>
-      <c r="BN7" s="211"/>
-      <c r="BO7" s="211"/>
-      <c r="BP7" s="211"/>
-      <c r="BQ7" s="211"/>
-      <c r="BR7" s="211"/>
-      <c r="BS7" s="211"/>
-      <c r="BT7" s="211"/>
-      <c r="BU7" s="211"/>
-      <c r="BV7" s="211"/>
-      <c r="BW7" s="211"/>
-      <c r="BX7" s="211"/>
-      <c r="BY7" s="211"/>
-      <c r="BZ7" s="211"/>
-      <c r="CA7" s="211"/>
-      <c r="CB7" s="211"/>
-      <c r="CC7" s="212"/>
-      <c r="CD7" s="212"/>
-      <c r="CE7" s="212"/>
-      <c r="CF7" s="212"/>
-      <c r="CG7" s="212"/>
-      <c r="CH7" s="212"/>
-      <c r="CI7" s="212"/>
-      <c r="CJ7" s="212"/>
-      <c r="CK7" s="212"/>
-      <c r="CL7" s="212"/>
-      <c r="CM7" s="212"/>
-    </row>
-    <row r="8" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37">
-        <v>1</v>
-      </c>
-      <c r="B8" s="372" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="373"/>
-      <c r="D8" s="373"/>
-      <c r="E8" s="373"/>
-      <c r="F8" s="374"/>
-      <c r="G8" s="369" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="370"/>
-      <c r="I8" s="370"/>
-      <c r="J8" s="370"/>
-      <c r="K8" s="371"/>
-      <c r="L8" s="372"/>
-      <c r="M8" s="373"/>
-      <c r="N8" s="373"/>
-      <c r="O8" s="373"/>
-      <c r="P8" s="374"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="372"/>
-      <c r="S8" s="373"/>
-      <c r="T8" s="373"/>
-      <c r="U8" s="374"/>
-      <c r="V8" s="393" t="s">
-        <v>90</v>
-      </c>
-      <c r="W8" s="394"/>
-      <c r="X8" s="383"/>
-      <c r="Y8" s="384"/>
-      <c r="Z8" s="372"/>
-      <c r="AA8" s="373"/>
-      <c r="AB8" s="374"/>
-      <c r="AC8" s="372"/>
-      <c r="AD8" s="373"/>
-      <c r="AE8" s="373"/>
-      <c r="AF8" s="373"/>
-      <c r="AG8" s="373"/>
-      <c r="AH8" s="373"/>
-      <c r="AI8" s="373"/>
-      <c r="AJ8" s="373"/>
-      <c r="AK8" s="374"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AP8" s="36"/>
-      <c r="AQ8" s="36"/>
-      <c r="AR8" s="36"/>
-      <c r="AS8" s="36"/>
-      <c r="AT8" s="36"/>
-      <c r="AU8" s="36"/>
-      <c r="AV8" s="36"/>
-      <c r="AW8" s="36"/>
-      <c r="AX8" s="35"/>
-      <c r="AY8" s="35"/>
-      <c r="AZ8" s="35"/>
-      <c r="BA8" s="35"/>
-      <c r="BB8" s="35"/>
-      <c r="BC8" s="35"/>
-      <c r="BD8" s="35"/>
-      <c r="BE8" s="35"/>
-      <c r="BF8" s="35"/>
-      <c r="BG8" s="35"/>
-      <c r="BH8" s="35"/>
-      <c r="BI8" s="35"/>
-      <c r="BJ8" s="35"/>
-      <c r="BK8" s="35"/>
-      <c r="BL8" s="35"/>
-      <c r="BM8" s="35"/>
-      <c r="BN8" s="35"/>
-      <c r="BO8" s="35"/>
-      <c r="BP8" s="35"/>
-      <c r="BQ8" s="35"/>
-      <c r="BR8" s="35"/>
-      <c r="BS8" s="35"/>
-      <c r="BT8" s="35"/>
-      <c r="BU8" s="35"/>
-      <c r="BV8" s="35"/>
-      <c r="BW8" s="35"/>
-      <c r="BX8" s="35"/>
-      <c r="BY8" s="35"/>
-      <c r="BZ8" s="35"/>
-      <c r="CA8" s="35"/>
-      <c r="CB8" s="35"/>
-      <c r="CC8" s="36"/>
-      <c r="CD8" s="36"/>
-      <c r="CE8" s="36"/>
-      <c r="CF8" s="36"/>
-      <c r="CG8" s="36"/>
-      <c r="CH8" s="36"/>
-      <c r="CI8" s="36"/>
-      <c r="CJ8" s="36"/>
-      <c r="CK8" s="36"/>
-      <c r="CL8" s="36"/>
-      <c r="CM8" s="36"/>
+      <c r="AD8" s="462"/>
+      <c r="AE8" s="462"/>
+      <c r="AF8" s="462"/>
+      <c r="AG8" s="462"/>
+      <c r="AH8" s="462"/>
+      <c r="AI8" s="462"/>
+      <c r="AJ8" s="462"/>
+      <c r="AK8" s="463"/>
+      <c r="AL8" s="211"/>
+      <c r="AM8" s="211"/>
+      <c r="AN8" s="211"/>
+      <c r="AO8" s="211"/>
+      <c r="AP8" s="211"/>
+      <c r="AQ8" s="211"/>
+      <c r="AR8" s="211"/>
+      <c r="AS8" s="211"/>
+      <c r="AT8" s="211"/>
+      <c r="AU8" s="211"/>
+      <c r="AV8" s="211"/>
+      <c r="AW8" s="211"/>
+      <c r="AX8" s="211"/>
+      <c r="AY8" s="211"/>
+      <c r="AZ8" s="211"/>
+      <c r="BA8" s="211"/>
+      <c r="BB8" s="211"/>
+      <c r="BC8" s="211"/>
+      <c r="BD8" s="211"/>
+      <c r="BE8" s="211"/>
+      <c r="BF8" s="211"/>
+      <c r="BG8" s="211"/>
+      <c r="BH8" s="211"/>
+      <c r="BI8" s="211"/>
+      <c r="BJ8" s="211"/>
+      <c r="BK8" s="211"/>
+      <c r="BL8" s="211"/>
+      <c r="BM8" s="211"/>
+      <c r="BN8" s="211"/>
+      <c r="BO8" s="211"/>
+      <c r="BP8" s="211"/>
+      <c r="BQ8" s="211"/>
+      <c r="BR8" s="211"/>
+      <c r="BS8" s="211"/>
+      <c r="BT8" s="211"/>
+      <c r="BU8" s="211"/>
+      <c r="BV8" s="211"/>
+      <c r="BW8" s="211"/>
+      <c r="BX8" s="211"/>
+      <c r="BY8" s="211"/>
+      <c r="BZ8" s="211"/>
+      <c r="CA8" s="211"/>
+      <c r="CB8" s="211"/>
+      <c r="CC8" s="212"/>
+      <c r="CD8" s="212"/>
+      <c r="CE8" s="212"/>
+      <c r="CF8" s="212"/>
+      <c r="CG8" s="212"/>
+      <c r="CH8" s="212"/>
+      <c r="CI8" s="212"/>
+      <c r="CJ8" s="212"/>
+      <c r="CK8" s="212"/>
+      <c r="CL8" s="212"/>
+      <c r="CM8" s="212"/>
     </row>
     <row r="9" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37">
-        <v>2</v>
-      </c>
-      <c r="B9" s="372" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="373"/>
-      <c r="D9" s="373"/>
-      <c r="E9" s="373"/>
-      <c r="F9" s="374"/>
-      <c r="G9" s="369" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="370"/>
-      <c r="I9" s="370"/>
-      <c r="J9" s="370"/>
-      <c r="K9" s="371"/>
-      <c r="L9" s="372" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="373"/>
-      <c r="N9" s="373"/>
-      <c r="O9" s="373"/>
-      <c r="P9" s="374"/>
-      <c r="Q9" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="R9" s="372" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="373"/>
-      <c r="T9" s="373"/>
-      <c r="U9" s="374"/>
-      <c r="V9" s="378">
         <v>1</v>
       </c>
-      <c r="W9" s="379"/>
-      <c r="X9" s="383"/>
-      <c r="Y9" s="384"/>
-      <c r="Z9" s="372"/>
-      <c r="AA9" s="373"/>
-      <c r="AB9" s="374"/>
-      <c r="AC9" s="372"/>
-      <c r="AD9" s="373"/>
-      <c r="AE9" s="373"/>
-      <c r="AF9" s="373"/>
-      <c r="AG9" s="373"/>
-      <c r="AH9" s="373"/>
-      <c r="AI9" s="373"/>
-      <c r="AJ9" s="373"/>
-      <c r="AK9" s="374"/>
+      <c r="B9" s="442" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="443"/>
+      <c r="D9" s="443"/>
+      <c r="E9" s="443"/>
+      <c r="F9" s="444"/>
+      <c r="G9" s="445" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="446"/>
+      <c r="I9" s="446"/>
+      <c r="J9" s="446"/>
+      <c r="K9" s="447"/>
+      <c r="L9" s="442"/>
+      <c r="M9" s="443"/>
+      <c r="N9" s="443"/>
+      <c r="O9" s="443"/>
+      <c r="P9" s="444"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="442"/>
+      <c r="S9" s="443"/>
+      <c r="T9" s="443"/>
+      <c r="U9" s="444"/>
+      <c r="V9" s="448" t="s">
+        <v>87</v>
+      </c>
+      <c r="W9" s="449"/>
+      <c r="X9" s="466"/>
+      <c r="Y9" s="467"/>
+      <c r="Z9" s="442"/>
+      <c r="AA9" s="443"/>
+      <c r="AB9" s="444"/>
+      <c r="AC9" s="442"/>
+      <c r="AD9" s="443"/>
+      <c r="AE9" s="443"/>
+      <c r="AF9" s="443"/>
+      <c r="AG9" s="443"/>
+      <c r="AH9" s="443"/>
+      <c r="AI9" s="443"/>
+      <c r="AJ9" s="443"/>
+      <c r="AK9" s="444"/>
       <c r="AL9" s="36"/>
       <c r="AM9" s="36"/>
       <c r="AN9" s="36"/>
@@ -13492,56 +13392,56 @@
     </row>
     <row r="10" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37">
-        <v>3</v>
-      </c>
-      <c r="B10" s="372" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="373"/>
-      <c r="D10" s="373"/>
-      <c r="E10" s="373"/>
-      <c r="F10" s="374"/>
-      <c r="G10" s="369" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="370"/>
-      <c r="I10" s="370"/>
-      <c r="J10" s="370"/>
-      <c r="K10" s="371"/>
-      <c r="L10" s="372" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="373"/>
-      <c r="N10" s="373"/>
-      <c r="O10" s="373"/>
-      <c r="P10" s="374"/>
+        <v>2</v>
+      </c>
+      <c r="B10" s="442" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="443"/>
+      <c r="D10" s="443"/>
+      <c r="E10" s="443"/>
+      <c r="F10" s="444"/>
+      <c r="G10" s="445" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="446"/>
+      <c r="I10" s="446"/>
+      <c r="J10" s="446"/>
+      <c r="K10" s="447"/>
+      <c r="L10" s="442" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="443"/>
+      <c r="N10" s="443"/>
+      <c r="O10" s="443"/>
+      <c r="P10" s="444"/>
       <c r="Q10" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="R10" s="372" t="s">
-        <v>36</v>
-      </c>
-      <c r="S10" s="373"/>
-      <c r="T10" s="373"/>
-      <c r="U10" s="374"/>
-      <c r="V10" s="378">
+        <v>86</v>
+      </c>
+      <c r="R10" s="442" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="443"/>
+      <c r="T10" s="443"/>
+      <c r="U10" s="444"/>
+      <c r="V10" s="464">
         <v>1</v>
       </c>
-      <c r="W10" s="379"/>
-      <c r="X10" s="375"/>
-      <c r="Y10" s="377"/>
-      <c r="Z10" s="372"/>
-      <c r="AA10" s="373"/>
-      <c r="AB10" s="374"/>
-      <c r="AC10" s="372"/>
-      <c r="AD10" s="373"/>
-      <c r="AE10" s="373"/>
-      <c r="AF10" s="373"/>
-      <c r="AG10" s="373"/>
-      <c r="AH10" s="373"/>
-      <c r="AI10" s="373"/>
-      <c r="AJ10" s="373"/>
-      <c r="AK10" s="374"/>
+      <c r="W10" s="465"/>
+      <c r="X10" s="466"/>
+      <c r="Y10" s="467"/>
+      <c r="Z10" s="442"/>
+      <c r="AA10" s="443"/>
+      <c r="AB10" s="444"/>
+      <c r="AC10" s="442"/>
+      <c r="AD10" s="443"/>
+      <c r="AE10" s="443"/>
+      <c r="AF10" s="443"/>
+      <c r="AG10" s="443"/>
+      <c r="AH10" s="443"/>
+      <c r="AI10" s="443"/>
+      <c r="AJ10" s="443"/>
+      <c r="AK10" s="444"/>
       <c r="AL10" s="36"/>
       <c r="AM10" s="36"/>
       <c r="AN10" s="36"/>
@@ -13598,56 +13498,56 @@
     </row>
     <row r="11" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37">
-        <v>4</v>
-      </c>
-      <c r="B11" s="372" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="373"/>
-      <c r="D11" s="373"/>
-      <c r="E11" s="373"/>
-      <c r="F11" s="374"/>
-      <c r="G11" s="369" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="370"/>
-      <c r="I11" s="370"/>
-      <c r="J11" s="370"/>
-      <c r="K11" s="371"/>
-      <c r="L11" s="372" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="373"/>
-      <c r="N11" s="373"/>
-      <c r="O11" s="373"/>
-      <c r="P11" s="374"/>
+        <v>3</v>
+      </c>
+      <c r="B11" s="442" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="443"/>
+      <c r="D11" s="443"/>
+      <c r="E11" s="443"/>
+      <c r="F11" s="444"/>
+      <c r="G11" s="445" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="446"/>
+      <c r="I11" s="446"/>
+      <c r="J11" s="446"/>
+      <c r="K11" s="447"/>
+      <c r="L11" s="442" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="443"/>
+      <c r="N11" s="443"/>
+      <c r="O11" s="443"/>
+      <c r="P11" s="444"/>
       <c r="Q11" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="R11" s="372" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" s="373"/>
-      <c r="T11" s="373"/>
-      <c r="U11" s="374"/>
-      <c r="V11" s="378">
+        <v>86</v>
+      </c>
+      <c r="R11" s="442" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="443"/>
+      <c r="T11" s="443"/>
+      <c r="U11" s="444"/>
+      <c r="V11" s="464">
         <v>1</v>
       </c>
-      <c r="W11" s="379"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="42"/>
-      <c r="AK11" s="43"/>
+      <c r="W11" s="465"/>
+      <c r="X11" s="458"/>
+      <c r="Y11" s="460"/>
+      <c r="Z11" s="442"/>
+      <c r="AA11" s="443"/>
+      <c r="AB11" s="444"/>
+      <c r="AC11" s="442"/>
+      <c r="AD11" s="443"/>
+      <c r="AE11" s="443"/>
+      <c r="AF11" s="443"/>
+      <c r="AG11" s="443"/>
+      <c r="AH11" s="443"/>
+      <c r="AI11" s="443"/>
+      <c r="AJ11" s="443"/>
+      <c r="AK11" s="444"/>
       <c r="AL11" s="36"/>
       <c r="AM11" s="36"/>
       <c r="AN11" s="36"/>
@@ -13702,30 +13602,44 @@
       <c r="CL11" s="36"/>
       <c r="CM11" s="36"/>
     </row>
-    <row r="12" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="372"/>
-      <c r="C12" s="373"/>
-      <c r="D12" s="373"/>
-      <c r="E12" s="373"/>
-      <c r="F12" s="374"/>
-      <c r="G12" s="375"/>
-      <c r="H12" s="376"/>
-      <c r="I12" s="376"/>
-      <c r="J12" s="376"/>
-      <c r="K12" s="377"/>
-      <c r="L12" s="375"/>
-      <c r="M12" s="376"/>
-      <c r="N12" s="376"/>
-      <c r="O12" s="376"/>
-      <c r="P12" s="377"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="372"/>
-      <c r="S12" s="373"/>
-      <c r="T12" s="373"/>
-      <c r="U12" s="374"/>
-      <c r="V12" s="378"/>
-      <c r="W12" s="379"/>
+    <row r="12" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="37">
+        <v>4</v>
+      </c>
+      <c r="B12" s="442" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="443"/>
+      <c r="D12" s="443"/>
+      <c r="E12" s="443"/>
+      <c r="F12" s="444"/>
+      <c r="G12" s="445" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="446"/>
+      <c r="I12" s="446"/>
+      <c r="J12" s="446"/>
+      <c r="K12" s="447"/>
+      <c r="L12" s="442" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="443"/>
+      <c r="N12" s="443"/>
+      <c r="O12" s="443"/>
+      <c r="P12" s="444"/>
+      <c r="Q12" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" s="442" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="443"/>
+      <c r="T12" s="443"/>
+      <c r="U12" s="444"/>
+      <c r="V12" s="464">
+        <v>1</v>
+      </c>
+      <c r="W12" s="465"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="40"/>
       <c r="Z12" s="41"/>
@@ -13794,92 +13708,133 @@
       <c r="CL12" s="36"/>
       <c r="CM12" s="36"/>
     </row>
-    <row r="13" spans="1:96" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="44"/>
-      <c r="CD13" s="50"/>
-      <c r="CE13" s="50"/>
-      <c r="CF13" s="50"/>
-      <c r="CG13" s="50"/>
-      <c r="CH13" s="51"/>
-      <c r="CI13" s="51"/>
-      <c r="CJ13" s="51"/>
-      <c r="CK13" s="51"/>
-      <c r="CL13" s="51"/>
-      <c r="CM13" s="51"/>
-      <c r="CN13" s="51"/>
-      <c r="CO13" s="51"/>
-      <c r="CP13" s="51"/>
-      <c r="CQ13" s="51"/>
-      <c r="CR13" s="51"/>
+    <row r="13" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="37"/>
+      <c r="B13" s="442"/>
+      <c r="C13" s="443"/>
+      <c r="D13" s="443"/>
+      <c r="E13" s="443"/>
+      <c r="F13" s="444"/>
+      <c r="G13" s="458"/>
+      <c r="H13" s="459"/>
+      <c r="I13" s="459"/>
+      <c r="J13" s="459"/>
+      <c r="K13" s="460"/>
+      <c r="L13" s="458"/>
+      <c r="M13" s="459"/>
+      <c r="N13" s="459"/>
+      <c r="O13" s="459"/>
+      <c r="P13" s="460"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="442"/>
+      <c r="S13" s="443"/>
+      <c r="T13" s="443"/>
+      <c r="U13" s="444"/>
+      <c r="V13" s="464"/>
+      <c r="W13" s="465"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="43"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="36"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="35"/>
+      <c r="AY13" s="35"/>
+      <c r="AZ13" s="35"/>
+      <c r="BA13" s="35"/>
+      <c r="BB13" s="35"/>
+      <c r="BC13" s="35"/>
+      <c r="BD13" s="35"/>
+      <c r="BE13" s="35"/>
+      <c r="BF13" s="35"/>
+      <c r="BG13" s="35"/>
+      <c r="BH13" s="35"/>
+      <c r="BI13" s="35"/>
+      <c r="BJ13" s="35"/>
+      <c r="BK13" s="35"/>
+      <c r="BL13" s="35"/>
+      <c r="BM13" s="35"/>
+      <c r="BN13" s="35"/>
+      <c r="BO13" s="35"/>
+      <c r="BP13" s="35"/>
+      <c r="BQ13" s="35"/>
+      <c r="BR13" s="35"/>
+      <c r="BS13" s="35"/>
+      <c r="BT13" s="35"/>
+      <c r="BU13" s="35"/>
+      <c r="BV13" s="35"/>
+      <c r="BW13" s="35"/>
+      <c r="BX13" s="35"/>
+      <c r="BY13" s="35"/>
+      <c r="BZ13" s="35"/>
+      <c r="CA13" s="35"/>
+      <c r="CB13" s="35"/>
+      <c r="CC13" s="36"/>
+      <c r="CD13" s="36"/>
+      <c r="CE13" s="36"/>
+      <c r="CF13" s="36"/>
+      <c r="CG13" s="36"/>
+      <c r="CH13" s="36"/>
+      <c r="CI13" s="36"/>
+      <c r="CJ13" s="36"/>
+      <c r="CK13" s="36"/>
+      <c r="CL13" s="36"/>
+      <c r="CM13" s="36"/>
     </row>
     <row r="14" spans="1:96" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="51"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="44"/>
       <c r="CD14" s="50"/>
       <c r="CE14" s="50"/>
       <c r="CF14" s="50"/>
@@ -13896,143 +13851,155 @@
       <c r="CQ14" s="51"/>
       <c r="CR14" s="51"/>
     </row>
-    <row r="15" spans="1:96" s="57" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="385" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="386"/>
-      <c r="C15" s="386"/>
-      <c r="D15" s="386"/>
-      <c r="E15" s="386"/>
-      <c r="F15" s="386"/>
-      <c r="G15" s="386"/>
-      <c r="H15" s="386"/>
-      <c r="I15" s="386"/>
-      <c r="J15" s="386"/>
-      <c r="K15" s="386"/>
-      <c r="L15" s="386"/>
-      <c r="M15" s="386"/>
-      <c r="N15" s="386"/>
-      <c r="O15" s="386"/>
-      <c r="P15" s="386"/>
-      <c r="Q15" s="386"/>
-      <c r="R15" s="386"/>
-      <c r="S15" s="386"/>
-      <c r="T15" s="386"/>
-      <c r="U15" s="386"/>
-      <c r="V15" s="386"/>
-      <c r="W15" s="386"/>
-      <c r="X15" s="386"/>
-      <c r="Y15" s="387" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z15" s="388"/>
-      <c r="AA15" s="388"/>
-      <c r="AB15" s="388"/>
-      <c r="AC15" s="388"/>
-      <c r="AD15" s="388"/>
-      <c r="AE15" s="388"/>
-      <c r="AF15" s="388"/>
-      <c r="AG15" s="388"/>
-      <c r="AH15" s="388"/>
-      <c r="AI15" s="388"/>
-      <c r="AJ15" s="388"/>
-      <c r="AK15" s="389"/>
-    </row>
-    <row r="16" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="63"/>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="63"/>
-      <c r="AE16" s="63"/>
-      <c r="AF16" s="63"/>
-      <c r="AG16" s="63"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="64"/>
-      <c r="CD16" s="35"/>
-      <c r="CE16" s="35"/>
-      <c r="CF16" s="35"/>
-      <c r="CG16" s="35"/>
-      <c r="CH16" s="36"/>
-      <c r="CI16" s="36"/>
-      <c r="CJ16" s="36"/>
-      <c r="CK16" s="36"/>
-      <c r="CL16" s="36"/>
-      <c r="CM16" s="36"/>
-      <c r="CN16" s="36"/>
-      <c r="CO16" s="36"/>
-      <c r="CP16" s="36"/>
-      <c r="CQ16" s="36"/>
-      <c r="CR16" s="36"/>
-    </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="70"/>
-    </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:96" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="51"/>
+      <c r="CD15" s="50"/>
+      <c r="CE15" s="50"/>
+      <c r="CF15" s="50"/>
+      <c r="CG15" s="50"/>
+      <c r="CH15" s="51"/>
+      <c r="CI15" s="51"/>
+      <c r="CJ15" s="51"/>
+      <c r="CK15" s="51"/>
+      <c r="CL15" s="51"/>
+      <c r="CM15" s="51"/>
+      <c r="CN15" s="51"/>
+      <c r="CO15" s="51"/>
+      <c r="CP15" s="51"/>
+      <c r="CQ15" s="51"/>
+      <c r="CR15" s="51"/>
+    </row>
+    <row r="16" spans="1:96" s="57" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="450" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="451"/>
+      <c r="C16" s="451"/>
+      <c r="D16" s="451"/>
+      <c r="E16" s="451"/>
+      <c r="F16" s="451"/>
+      <c r="G16" s="451"/>
+      <c r="H16" s="451"/>
+      <c r="I16" s="451"/>
+      <c r="J16" s="451"/>
+      <c r="K16" s="451"/>
+      <c r="L16" s="451"/>
+      <c r="M16" s="451"/>
+      <c r="N16" s="451"/>
+      <c r="O16" s="451"/>
+      <c r="P16" s="451"/>
+      <c r="Q16" s="451"/>
+      <c r="R16" s="451"/>
+      <c r="S16" s="451"/>
+      <c r="T16" s="451"/>
+      <c r="U16" s="451"/>
+      <c r="V16" s="451"/>
+      <c r="W16" s="451"/>
+      <c r="X16" s="451"/>
+      <c r="Y16" s="452" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z16" s="453"/>
+      <c r="AA16" s="453"/>
+      <c r="AB16" s="453"/>
+      <c r="AC16" s="453"/>
+      <c r="AD16" s="453"/>
+      <c r="AE16" s="453"/>
+      <c r="AF16" s="453"/>
+      <c r="AG16" s="453"/>
+      <c r="AH16" s="453"/>
+      <c r="AI16" s="453"/>
+      <c r="AJ16" s="453"/>
+      <c r="AK16" s="454"/>
+    </row>
+    <row r="17" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="64"/>
+      <c r="CD17" s="35"/>
+      <c r="CE17" s="35"/>
+      <c r="CF17" s="35"/>
+      <c r="CG17" s="35"/>
+      <c r="CH17" s="36"/>
+      <c r="CI17" s="36"/>
+      <c r="CJ17" s="36"/>
+      <c r="CK17" s="36"/>
+      <c r="CL17" s="36"/>
+      <c r="CM17" s="36"/>
+      <c r="CN17" s="36"/>
+      <c r="CO17" s="36"/>
+      <c r="CP17" s="36"/>
+      <c r="CQ17" s="36"/>
+      <c r="CR17" s="36"/>
+    </row>
+    <row r="18" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="65"/>
       <c r="B18" s="66"/>
       <c r="C18" s="66"/>
@@ -14071,7 +14038,7 @@
       <c r="AJ18" s="69"/>
       <c r="AK18" s="70"/>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="65"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
@@ -14110,7 +14077,7 @@
       <c r="AJ19" s="69"/>
       <c r="AK19" s="70"/>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="65"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
@@ -14149,7 +14116,7 @@
       <c r="AJ20" s="69"/>
       <c r="AK20" s="70"/>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="65"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66"/>
@@ -14188,7 +14155,7 @@
       <c r="AJ21" s="69"/>
       <c r="AK21" s="70"/>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="65"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
@@ -14227,7 +14194,7 @@
       <c r="AJ22" s="69"/>
       <c r="AK22" s="70"/>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="65"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
@@ -14266,7 +14233,7 @@
       <c r="AJ23" s="69"/>
       <c r="AK23" s="70"/>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="65"/>
       <c r="B24" s="66"/>
       <c r="C24" s="66"/>
@@ -14305,7 +14272,7 @@
       <c r="AJ24" s="69"/>
       <c r="AK24" s="70"/>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="65"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66"/>
@@ -14344,7 +14311,7 @@
       <c r="AJ25" s="69"/>
       <c r="AK25" s="70"/>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="65"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
@@ -14383,7 +14350,7 @@
       <c r="AJ26" s="69"/>
       <c r="AK26" s="70"/>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="65"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
@@ -14422,7 +14389,7 @@
       <c r="AJ27" s="69"/>
       <c r="AK27" s="70"/>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="65"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
@@ -14461,7 +14428,7 @@
       <c r="AJ28" s="69"/>
       <c r="AK28" s="70"/>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="65"/>
       <c r="B29" s="66"/>
       <c r="C29" s="66"/>
@@ -14500,7 +14467,7 @@
       <c r="AJ29" s="69"/>
       <c r="AK29" s="70"/>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="65"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
@@ -14539,72 +14506,119 @@
       <c r="AJ30" s="69"/>
       <c r="AK30" s="70"/>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="71"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="74"/>
-      <c r="Y31" s="75"/>
-      <c r="Z31" s="76"/>
-      <c r="AA31" s="76"/>
-      <c r="AB31" s="76"/>
-      <c r="AC31" s="76"/>
-      <c r="AD31" s="76"/>
-      <c r="AE31" s="76"/>
-      <c r="AF31" s="76"/>
-      <c r="AG31" s="76"/>
-      <c r="AH31" s="76"/>
-      <c r="AI31" s="76"/>
-      <c r="AJ31" s="76"/>
-      <c r="AK31" s="77"/>
-    </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="78"/>
-      <c r="X32" s="78"/>
+    <row r="31" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="69"/>
+      <c r="AA31" s="69"/>
+      <c r="AB31" s="69"/>
+      <c r="AC31" s="69"/>
+      <c r="AD31" s="69"/>
+      <c r="AE31" s="69"/>
+      <c r="AF31" s="69"/>
+      <c r="AG31" s="69"/>
+      <c r="AH31" s="69"/>
+      <c r="AI31" s="69"/>
+      <c r="AJ31" s="69"/>
+      <c r="AK31" s="70"/>
+    </row>
+    <row r="32" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="71"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="74"/>
+      <c r="Y32" s="75"/>
+      <c r="Z32" s="76"/>
+      <c r="AA32" s="76"/>
+      <c r="AB32" s="76"/>
+      <c r="AC32" s="76"/>
+      <c r="AD32" s="76"/>
+      <c r="AE32" s="76"/>
+      <c r="AF32" s="76"/>
+      <c r="AG32" s="76"/>
+      <c r="AH32" s="76"/>
+      <c r="AI32" s="76"/>
+      <c r="AJ32" s="76"/>
+      <c r="AK32" s="77"/>
+    </row>
+    <row r="33" spans="4:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="78"/>
+      <c r="X33" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="AC11:AK11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="A15:X15"/>
-    <mergeCell ref="Y15:AK15"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="AC7:AK7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
@@ -14616,39 +14630,31 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="A16:X16"/>
+    <mergeCell ref="Y16:AK16"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="G11:K11"/>
     <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:P9"/>
+    <mergeCell ref="R9:U9"/>
     <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8:R12" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R9:R13" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>データ型</formula1>
     </dataValidation>
   </dataValidations>
